--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE857EA-5772-4CC6-974A-2D493F022E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D119C5B-C93E-445A-ACC1-12D3F4FADA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="580">
   <si>
     <t>Question</t>
   </si>
@@ -1575,15 +1575,239 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8nZDp6OKESs, https://youtu.be/MO-uW1Wm7N8</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/-zeZpYpSIEo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N9</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N10</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N11</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N12</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N13</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N14</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N15</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N16</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N17</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N18</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N19</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N20</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N21</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N22</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N23</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N24</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N25</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N26</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N27</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N28</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N29</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N30</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N31</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N32</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N33</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N34</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N35</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N36</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N37</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N38</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N39</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N40</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N41</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N42</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N43</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N44</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N45</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N46</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N47</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N48</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N49</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N50</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N51</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N52</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N53</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N54</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N55</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N56</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N57</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N58</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N59</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N60</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N61</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N62</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N63</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N64</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N65</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N66</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N67</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N68</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N69</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N70</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N71</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N72</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N73</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MO-uW1Wm7N74</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1606,13 +1830,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1950,18 +2177,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>509</v>
       </c>
@@ -2001,8 +2228,11 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2042,8 +2272,11 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2083,8 +2316,11 @@
       <c r="M3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2124,8 +2360,11 @@
       <c r="M4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2165,8 +2404,11 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2206,8 +2448,11 @@
       <c r="M6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2247,8 +2492,11 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2288,8 +2536,11 @@
       <c r="M8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2329,8 +2580,11 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2370,8 +2624,11 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2411,8 +2668,11 @@
       <c r="M11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2452,8 +2712,11 @@
       <c r="M12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2493,8 +2756,11 @@
       <c r="M13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2534,8 +2800,11 @@
       <c r="M14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2575,8 +2844,11 @@
       <c r="M15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2616,8 +2888,11 @@
       <c r="M16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2657,8 +2932,11 @@
       <c r="M17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2698,8 +2976,11 @@
       <c r="M18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2739,8 +3020,11 @@
       <c r="M19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2780,8 +3064,11 @@
       <c r="M20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2821,8 +3108,11 @@
       <c r="M21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2862,8 +3152,11 @@
       <c r="M22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2903,8 +3196,11 @@
       <c r="M23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2944,8 +3240,11 @@
       <c r="M24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2985,8 +3284,11 @@
       <c r="M25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3026,8 +3328,11 @@
       <c r="M26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3067,8 +3372,11 @@
       <c r="M27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3108,8 +3416,11 @@
       <c r="M28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3149,8 +3460,11 @@
       <c r="M29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N29" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3190,8 +3504,11 @@
       <c r="M30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N30" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3231,8 +3548,11 @@
       <c r="M31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N31" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3272,8 +3592,11 @@
       <c r="M32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3313,8 +3636,11 @@
       <c r="M33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3354,8 +3680,11 @@
       <c r="M34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3395,8 +3724,11 @@
       <c r="M35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3436,8 +3768,11 @@
       <c r="M36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3477,8 +3812,11 @@
       <c r="M37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3518,8 +3856,11 @@
       <c r="M38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3559,8 +3900,11 @@
       <c r="M39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3600,8 +3944,11 @@
       <c r="M40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3641,8 +3988,11 @@
       <c r="M41" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3682,8 +4032,11 @@
       <c r="M42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N42" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3723,8 +4076,11 @@
       <c r="M43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N43" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3764,8 +4120,11 @@
       <c r="M44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N44" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3805,8 +4164,11 @@
       <c r="M45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3846,8 +4208,11 @@
       <c r="M46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3887,8 +4252,11 @@
       <c r="M47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N47" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3928,8 +4296,11 @@
       <c r="M48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N48" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3969,8 +4340,11 @@
       <c r="M49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N49" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4010,8 +4384,11 @@
       <c r="M50" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N50" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4051,8 +4428,11 @@
       <c r="M51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N51" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4092,8 +4472,11 @@
       <c r="M52" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N52" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4133,8 +4516,11 @@
       <c r="M53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N53" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4174,8 +4560,11 @@
       <c r="M54" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N54" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4215,8 +4604,11 @@
       <c r="M55" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N55" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4256,8 +4648,11 @@
       <c r="M56" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N56" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4297,8 +4692,11 @@
       <c r="M57" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N57" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4338,8 +4736,11 @@
       <c r="M58" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4379,8 +4780,11 @@
       <c r="M59" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4420,8 +4824,11 @@
       <c r="M60" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N60" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4461,8 +4868,11 @@
       <c r="M61" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N61" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4502,8 +4912,11 @@
       <c r="M62" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N62" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4543,8 +4956,11 @@
       <c r="M63" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N63" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4584,8 +5000,11 @@
       <c r="M64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N64" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4625,8 +5044,11 @@
       <c r="M65" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N65" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4666,8 +5088,11 @@
       <c r="M66" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N66" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4707,8 +5132,11 @@
       <c r="M67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N67" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4748,8 +5176,11 @@
       <c r="M68" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N68" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4789,8 +5220,11 @@
       <c r="M69" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N69" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4830,8 +5264,11 @@
       <c r="M70" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N70" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4871,8 +5308,19 @@
       <c r="M71" t="s">
         <v>29</v>
       </c>
+      <c r="N71" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" display="https://youtu.be/8nZDp6OKESs, " xr:uid="{64CE10BB-9A43-410F-B494-C2312B753965}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{3C554EC2-C25A-40ED-A8E5-E0279635D318}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{43EEAE05-F88C-41A9-96FB-94A7EAAF279A}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{D8C03376-B314-4BDE-8A5D-442E6B4417FE}"/>
+    <hyperlink ref="N6:N71" r:id="rId5" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{C3B6B8D1-8D5A-477D-967C-584099B033B9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A2:M6 A8:M71 A7:L7 B1:M1" numberStoredAsText="1"/>

--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daoAll\daoWeb\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D119C5B-C93E-445A-ACC1-12D3F4FADA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5B693-A0D8-4449-B941-70FD060A0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="1" r:id="rId1"/>
+    <sheet name="Math" sheetId="2" r:id="rId2"/>
+    <sheet name="Accountancy" sheetId="3" r:id="rId3"/>
+    <sheet name="BC" sheetId="4" r:id="rId4"/>
+    <sheet name="NAM" sheetId="5" r:id="rId5"/>
+    <sheet name="Spec" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="598">
   <si>
     <t>Question</t>
   </si>
@@ -1785,12 +1790,66 @@
   <si>
     <t>https://youtu.be/MO-uW1Wm7N74</t>
   </si>
+  <si>
+    <t>Numbers: What they are?</t>
+  </si>
+  <si>
+    <t>Basic Math</t>
+  </si>
+  <si>
+    <t>Numbers are the core of mathematics, used to measure, calculate, and represent values in everyday life. Understanding numbers and their types is essential for solving problems in real life, business, and governance.</t>
+  </si>
+  <si>
+    <t>What is the profit if a product is bought for PKR 500 and sold for PKR 750?</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Profit = Selling Price - Cost Price = 750 - 500 = 250</t>
+  </si>
+  <si>
+    <t>A company earning PKR 2,000,000 at a tax rate of 15% owes how much in taxes?</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tax = Income × Tax Rate = 2,000,000 × 0.15 = 300,000</t>
+  </si>
+  <si>
+    <t>What percentage of a PKR 200 billion health budget is allocated if PKR 50 billion is spent on vaccines?</t>
+  </si>
+  <si>
+    <t>Percentage = (Allocated Budget ÷ Total Budget) × 100 = (50 ÷ 200) × 100 = 25%</t>
+  </si>
+  <si>
+    <t>If USD 1 = PKR 300, how much PKR is needed to import a product costing USD 1,200?</t>
+  </si>
+  <si>
+    <t>Cost in PKR = USD × Exchange Rate = 1,200 × 300 = 360,000</t>
+  </si>
+  <si>
+    <t>What is the voter turnout percentage if 900,000 out of 1,200,000 registered voters cast their votes?</t>
+  </si>
+  <si>
+    <t>Turnout = (Votes Cast ÷ Registered Voters) × 100 = (900,000 ÷ 1,200,000) × 100 = 75%</t>
+  </si>
+  <si>
+    <t>Inflation is calculated when CPI rises from 120 to 132. What is the inflation rate?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Inflation Rate = [(132 - 120) ÷ 120] × 100 = (12 ÷ 120) × 100 = 10%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1808,6 +1867,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1834,9 +1901,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2179,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5326,4 +5417,3660 @@
     <ignoredError sqref="A2:M6 A8:M71 A7:L7 B1:M1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C16CDD-8999-4874-AAD7-46BDB6D7E524}">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="12" max="12" width="128.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" t="s">
+        <v>184</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" t="s">
+        <v>195</v>
+      </c>
+      <c r="K31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>581</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G34" s="8">
+        <v>100</v>
+      </c>
+      <c r="H34" s="8">
+        <v>200</v>
+      </c>
+      <c r="I34" s="8">
+        <v>250</v>
+      </c>
+      <c r="J34" s="8">
+        <v>300</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G35" s="9">
+        <v>250000</v>
+      </c>
+      <c r="H35" s="9">
+        <v>300000</v>
+      </c>
+      <c r="I35" s="9">
+        <v>400000</v>
+      </c>
+      <c r="J35" s="9">
+        <v>450000</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>581</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="9">
+        <v>240000</v>
+      </c>
+      <c r="H37" s="9">
+        <v>300000</v>
+      </c>
+      <c r="I37" s="9">
+        <v>360000</v>
+      </c>
+      <c r="J37" s="9">
+        <v>400000</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" display="https://youtu.be/8nZDp6OKESs, " xr:uid="{B2832931-A4F3-4978-BB7E-466AB47E1FC8}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{E8933786-5042-4115-A245-2B928F18C929}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{8A4CA893-09E5-4454-AAEF-F79735CD4B1E}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{95A4624D-FA64-4DC4-B142-44D2C08BA88F}"/>
+    <hyperlink ref="N6:N31" r:id="rId5" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{4A027164-1A43-4D19-A430-5DAF6A174BA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8549E7-467C-49BF-90F3-7C6B7A696FEC}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" t="s">
+        <v>271</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2:N11" r:id="rId1" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{BED61C50-90A9-4AA9-BA72-8444A281AD0B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8355E36-1482-4263-BECC-7E38803568AB}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" t="s">
+        <v>331</v>
+      </c>
+      <c r="J9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" t="s">
+        <v>333</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" t="s">
+        <v>337</v>
+      </c>
+      <c r="L10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" t="s">
+        <v>344</v>
+      </c>
+      <c r="L11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2:N11" r:id="rId1" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{2968CBAE-D818-452D-9D32-DC0849BF0F4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F8A10-EF05-467B-8BE5-3C04711E9B66}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" t="s">
+        <v>372</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K5" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" t="s">
+        <v>380</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L8" t="s">
+        <v>403</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K9" t="s">
+        <v>407</v>
+      </c>
+      <c r="L9" t="s">
+        <v>411</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" t="s">
+        <v>415</v>
+      </c>
+      <c r="H10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I10" t="s">
+        <v>417</v>
+      </c>
+      <c r="J10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L10" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H11" t="s">
+        <v>424</v>
+      </c>
+      <c r="I11" t="s">
+        <v>425</v>
+      </c>
+      <c r="J11" t="s">
+        <v>426</v>
+      </c>
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11" t="s">
+        <v>427</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2:N11" r:id="rId1" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{C3407EB5-4949-493C-BA02-1914B0F744B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63565BA5-8F26-47D9-B222-4051F15AF0D5}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" t="s">
+        <v>448</v>
+      </c>
+      <c r="L4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K5" t="s">
+        <v>456</v>
+      </c>
+      <c r="L5" t="s">
+        <v>460</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" t="s">
+        <v>464</v>
+      </c>
+      <c r="H6" t="s">
+        <v>465</v>
+      </c>
+      <c r="I6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J6" t="s">
+        <v>467</v>
+      </c>
+      <c r="K6" t="s">
+        <v>464</v>
+      </c>
+      <c r="L6" t="s">
+        <v>468</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I7" t="s">
+        <v>474</v>
+      </c>
+      <c r="J7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" t="s">
+        <v>480</v>
+      </c>
+      <c r="H8" t="s">
+        <v>481</v>
+      </c>
+      <c r="I8" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" t="s">
+        <v>483</v>
+      </c>
+      <c r="K8" t="s">
+        <v>480</v>
+      </c>
+      <c r="L8" t="s">
+        <v>484</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" t="s">
+        <v>489</v>
+      </c>
+      <c r="I9" t="s">
+        <v>490</v>
+      </c>
+      <c r="J9" t="s">
+        <v>491</v>
+      </c>
+      <c r="K9" t="s">
+        <v>488</v>
+      </c>
+      <c r="L9" t="s">
+        <v>492</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" t="s">
+        <v>496</v>
+      </c>
+      <c r="H10" t="s">
+        <v>497</v>
+      </c>
+      <c r="I10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" t="s">
+        <v>496</v>
+      </c>
+      <c r="L10" t="s">
+        <v>500</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" t="s">
+        <v>503</v>
+      </c>
+      <c r="G11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J11" t="s">
+        <v>507</v>
+      </c>
+      <c r="K11" t="s">
+        <v>504</v>
+      </c>
+      <c r="L11" t="s">
+        <v>508</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2:N11" r:id="rId1" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{F3B14C4A-8F56-4C98-AF28-3A7A3C30C0D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5B693-A0D8-4449-B941-70FD060A0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73126A99-7775-4409-B6FC-1CEAB7B15A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="603">
   <si>
     <t>Question</t>
   </si>
@@ -1843,6 +1843,21 @@
   </si>
   <si>
     <t>Inflation Rate = [(132 - 120) ÷ 120] × 100 = (12 ÷ 120) × 100 = 10%</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/mathStatEco/math/number1.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/mathStatEco/math/number2.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/Image3.png</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -1901,18 +1916,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1927,6 +1940,17 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2268,15 +2292,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,43 +2352,43 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="10">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2371,43 +2396,43 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="10">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2415,43 +2440,43 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>513</v>
       </c>
     </row>
@@ -2459,43 +2484,43 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2503,43 +2528,43 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="10">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="11" t="s">
         <v>514</v>
       </c>
     </row>
@@ -2547,43 +2572,43 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="10">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>515</v>
       </c>
     </row>
@@ -2591,43 +2616,43 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="10">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2635,43 +2660,43 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>517</v>
       </c>
     </row>
@@ -2679,43 +2704,43 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>518</v>
       </c>
     </row>
@@ -2723,43 +2748,43 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="10">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>519</v>
       </c>
     </row>
@@ -2767,43 +2792,43 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="10">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>520</v>
       </c>
     </row>
@@ -2811,43 +2836,43 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>521</v>
       </c>
     </row>
@@ -2855,43 +2880,43 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="10">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>522</v>
       </c>
     </row>
@@ -2899,43 +2924,43 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="10">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>523</v>
       </c>
     </row>
@@ -2943,43 +2968,43 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="10">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>524</v>
       </c>
     </row>
@@ -2987,43 +3012,43 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="10">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3031,43 +3056,43 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="10">
+        <v>20</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3075,43 +3100,43 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>527</v>
       </c>
     </row>
@@ -3119,43 +3144,43 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="10">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3163,43 +3188,43 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="10">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3207,43 +3232,43 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="10">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>530</v>
       </c>
     </row>
@@ -3251,43 +3276,43 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>531</v>
       </c>
     </row>
@@ -3295,43 +3320,43 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="10">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>532</v>
       </c>
     </row>
@@ -3339,43 +3364,43 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="10">
+        <v>20</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="11" t="s">
         <v>533</v>
       </c>
     </row>
@@ -3383,43 +3408,43 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="10">
+        <v>20</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="M26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3427,43 +3452,43 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="10">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3471,43 +3496,43 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="10">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3515,43 +3540,43 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="10">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3559,43 +3584,43 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="10">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="M30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3603,43 +3628,43 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="10">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3647,316 +3672,300 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" t="s">
-        <v>204</v>
-      </c>
-      <c r="K32" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" t="s">
-        <v>205</v>
-      </c>
-      <c r="M32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="B32" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C32" s="10">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" t="s">
-        <v>209</v>
-      </c>
-      <c r="L33" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="B33" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C33" s="10">
+        <v>21</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G33" s="2">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2">
+        <v>200</v>
+      </c>
+      <c r="I33" s="2">
+        <v>250</v>
+      </c>
+      <c r="J33" s="2">
+        <v>300</v>
+      </c>
+      <c r="K33" s="2">
+        <v>250</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" t="s">
-        <v>219</v>
-      </c>
-      <c r="K34" t="s">
-        <v>216</v>
-      </c>
-      <c r="L34" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="B34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C34" s="10">
+        <v>22</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G34" s="12">
+        <v>250000</v>
+      </c>
+      <c r="H34" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I34" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J34" s="12">
+        <v>450000</v>
+      </c>
+      <c r="K34" s="12">
+        <v>300000</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" t="s">
-        <v>224</v>
-      </c>
-      <c r="H35" t="s">
-        <v>225</v>
-      </c>
-      <c r="I35" t="s">
-        <v>226</v>
-      </c>
-      <c r="J35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K35" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" t="s">
-        <v>228</v>
-      </c>
-      <c r="M35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>543</v>
-      </c>
+      <c r="B35" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C35" s="10">
+        <v>23</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" t="s">
-        <v>233</v>
-      </c>
-      <c r="J36" t="s">
-        <v>234</v>
-      </c>
-      <c r="K36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="B36" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C36" s="10">
+        <v>24</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G36" s="12">
+        <v>240000</v>
+      </c>
+      <c r="H36" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="12">
+        <v>360000</v>
+      </c>
+      <c r="J36" s="12">
+        <v>400000</v>
+      </c>
+      <c r="K36" s="12">
+        <v>360000</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" t="s">
-        <v>238</v>
-      </c>
-      <c r="I37" t="s">
-        <v>239</v>
-      </c>
-      <c r="J37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K37" t="s">
-        <v>237</v>
-      </c>
-      <c r="L37" t="s">
-        <v>241</v>
-      </c>
-      <c r="M37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>545</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C37" s="10">
+        <v>25</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" t="s">
-        <v>243</v>
-      </c>
-      <c r="G38" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" t="s">
-        <v>245</v>
-      </c>
-      <c r="I38" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" t="s">
-        <v>247</v>
-      </c>
-      <c r="K38" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="B38" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C38" s="10">
+        <v>26</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="14">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -3968,31 +3977,31 @@
         <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="J39" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="M39" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4000,7 +4009,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -4009,34 +4018,34 @@
         <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="G40" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4044,7 +4053,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -4053,34 +4062,34 @@
         <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="I41" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="K41" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4088,43 +4097,43 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="K42" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="M42" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4132,43 +4141,43 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="K43" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="M43" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4176,43 +4185,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="G44" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="K44" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="M44" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4220,43 +4229,43 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4264,43 +4273,43 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="J46" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -4308,43 +4317,43 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="L47" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s">
         <v>29</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4352,43 +4361,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="C48">
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F48" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="H48" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="M48" t="s">
         <v>29</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4396,7 +4405,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -4408,31 +4417,31 @@
         <v>274</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="G49" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="H49" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="J49" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="K49" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s">
         <v>29</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4440,7 +4449,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -4449,34 +4458,34 @@
         <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="G50" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s">
         <v>29</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4484,7 +4493,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -4493,34 +4502,34 @@
         <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="G51" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="H51" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="I51" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="J51" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="L51" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s">
         <v>29</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4528,43 +4537,43 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C52">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="H52" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="L52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s">
         <v>29</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4572,43 +4581,43 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="C53">
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="G53" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="I53" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="J53" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="M53" t="s">
         <v>29</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4616,43 +4625,43 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="H54" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="L54" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="M54" t="s">
         <v>29</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4660,43 +4669,43 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="C55">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E55" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="H55" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="I55" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="J55" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="K55" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="M55" t="s">
         <v>29</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4704,43 +4713,43 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C56">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="G56" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="H56" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="J56" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s">
         <v>29</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4748,43 +4757,43 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C57">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="G57" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="H57" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="J57" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="K57" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="L57" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4792,43 +4801,43 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="G58" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="H58" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="I58" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="J58" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="L58" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="M58" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4836,7 +4845,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -4845,34 +4854,34 @@
         <v>350</v>
       </c>
       <c r="E59" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="H59" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="I59" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="J59" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="K59" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s">
         <v>29</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4880,7 +4889,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="C60">
         <v>20</v>
@@ -4889,34 +4898,34 @@
         <v>350</v>
       </c>
       <c r="E60" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="G60" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="I60" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="J60" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="K60" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="M60" t="s">
         <v>29</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4924,7 +4933,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -4933,34 +4942,34 @@
         <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="G61" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="H61" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="I61" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="J61" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="L61" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="M61" t="s">
         <v>29</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4968,43 +4977,43 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="C62">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E62" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="G62" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="H62" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="I62" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="J62" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s">
         <v>29</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5012,43 +5021,43 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="C63">
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E63" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="G63" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="H63" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="I63" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="J63" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="K63" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="L63" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="M63" t="s">
         <v>29</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5056,43 +5065,43 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="C64">
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E64" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="G64" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="H64" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="I64" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="J64" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="K64" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="M64" t="s">
         <v>29</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5100,43 +5109,43 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="C65">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E65" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="F65" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="G65" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="H65" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="I65" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="J65" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="K65" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s">
         <v>29</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5144,43 +5153,43 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="C66">
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E66" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="F66" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="G66" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="H66" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="I66" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="J66" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="K66" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s">
         <v>29</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5188,43 +5197,43 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="C67">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="F67" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="G67" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="H67" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="I67" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="J67" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="K67" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="M67" t="s">
         <v>29</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5232,43 +5241,43 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="C68">
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="E68" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="G68" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="H68" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="I68" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="J68" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="K68" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s">
         <v>29</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -5276,7 +5285,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="C69">
         <v>20</v>
@@ -5285,34 +5294,34 @@
         <v>429</v>
       </c>
       <c r="E69" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="F69" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="G69" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="H69" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="I69" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="J69" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="K69" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="L69" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="M69" t="s">
         <v>29</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5320,7 +5329,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C70">
         <v>20</v>
@@ -5329,34 +5338,34 @@
         <v>429</v>
       </c>
       <c r="E70" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="F70" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="H70" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="I70" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="J70" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="K70" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="L70" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s">
         <v>29</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -5364,7 +5373,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="C71">
         <v>20</v>
@@ -5373,110 +5382,421 @@
         <v>429</v>
       </c>
       <c r="E71" t="s">
+        <v>446</v>
+      </c>
+      <c r="F71" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" t="s">
+        <v>448</v>
+      </c>
+      <c r="H71" t="s">
+        <v>449</v>
+      </c>
+      <c r="I71" t="s">
+        <v>450</v>
+      </c>
+      <c r="J71" t="s">
+        <v>451</v>
+      </c>
+      <c r="K71" t="s">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s">
+        <v>452</v>
+      </c>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>429</v>
+      </c>
+      <c r="E72" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" t="s">
+        <v>455</v>
+      </c>
+      <c r="G72" t="s">
+        <v>456</v>
+      </c>
+      <c r="H72" t="s">
+        <v>457</v>
+      </c>
+      <c r="I72" t="s">
+        <v>458</v>
+      </c>
+      <c r="J72" t="s">
+        <v>459</v>
+      </c>
+      <c r="K72" t="s">
+        <v>456</v>
+      </c>
+      <c r="L72" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>429</v>
+      </c>
+      <c r="E73" t="s">
+        <v>462</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>464</v>
+      </c>
+      <c r="H73" t="s">
+        <v>465</v>
+      </c>
+      <c r="I73" t="s">
+        <v>466</v>
+      </c>
+      <c r="J73" t="s">
+        <v>467</v>
+      </c>
+      <c r="K73" t="s">
+        <v>464</v>
+      </c>
+      <c r="L73" t="s">
+        <v>468</v>
+      </c>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>429</v>
+      </c>
+      <c r="E74" t="s">
+        <v>470</v>
+      </c>
+      <c r="F74" t="s">
+        <v>471</v>
+      </c>
+      <c r="G74" t="s">
+        <v>472</v>
+      </c>
+      <c r="H74" t="s">
+        <v>473</v>
+      </c>
+      <c r="I74" t="s">
+        <v>474</v>
+      </c>
+      <c r="J74" t="s">
+        <v>475</v>
+      </c>
+      <c r="K74" t="s">
+        <v>472</v>
+      </c>
+      <c r="L74" t="s">
+        <v>476</v>
+      </c>
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" t="s">
+        <v>478</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>480</v>
+      </c>
+      <c r="H75" t="s">
+        <v>481</v>
+      </c>
+      <c r="I75" t="s">
+        <v>482</v>
+      </c>
+      <c r="J75" t="s">
+        <v>483</v>
+      </c>
+      <c r="K75" t="s">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s">
+        <v>484</v>
+      </c>
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>429</v>
+      </c>
+      <c r="E76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F76" t="s">
+        <v>487</v>
+      </c>
+      <c r="G76" t="s">
+        <v>488</v>
+      </c>
+      <c r="H76" t="s">
+        <v>489</v>
+      </c>
+      <c r="I76" t="s">
+        <v>490</v>
+      </c>
+      <c r="J76" t="s">
+        <v>491</v>
+      </c>
+      <c r="K76" t="s">
+        <v>488</v>
+      </c>
+      <c r="L76" t="s">
+        <v>492</v>
+      </c>
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>493</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>429</v>
+      </c>
+      <c r="E77" t="s">
+        <v>494</v>
+      </c>
+      <c r="F77" t="s">
+        <v>495</v>
+      </c>
+      <c r="G77" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" t="s">
+        <v>497</v>
+      </c>
+      <c r="I77" t="s">
+        <v>498</v>
+      </c>
+      <c r="J77" t="s">
+        <v>499</v>
+      </c>
+      <c r="K77" t="s">
+        <v>496</v>
+      </c>
+      <c r="L77" t="s">
+        <v>500</v>
+      </c>
+      <c r="M77" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>501</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>429</v>
+      </c>
+      <c r="E78" t="s">
         <v>502</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F78" t="s">
         <v>503</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G78" t="s">
         <v>504</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H78" t="s">
         <v>505</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I78" t="s">
         <v>506</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J78" t="s">
         <v>507</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K78" t="s">
         <v>504</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L78" t="s">
         <v>508</v>
       </c>
-      <c r="M71" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="1" t="s">
+      <c r="M78" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="1" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="https://youtu.be/8nZDp6OKESs, " xr:uid="{64CE10BB-9A43-410F-B494-C2312B753965}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{3C554EC2-C25A-40ED-A8E5-E0279635D318}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{43EEAE05-F88C-41A9-96FB-94A7EAAF279A}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{D8C03376-B314-4BDE-8A5D-442E6B4417FE}"/>
-    <hyperlink ref="N6:N71" r:id="rId5" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{C3B6B8D1-8D5A-477D-967C-584099B033B9}"/>
+    <hyperlink ref="N3" r:id="rId1" display="https://youtu.be/8nZDp6OKESs, " xr:uid="{59178CD6-87CE-4BDA-A2D5-2B0125BBFC0A}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{3BB6DB21-FE89-47A7-B88B-55F7C01DCE1D}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{DC9588A9-1974-4A4C-94D8-FAB137676E80}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{BFD3E838-0F44-42E2-B15A-E0D81F2C33E3}"/>
+    <hyperlink ref="N6:N31" r:id="rId5" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{57514E0C-1C7A-42D9-A976-C80A2FB91BB9}"/>
+    <hyperlink ref="N39:N48" r:id="rId6" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{A9F8CCD5-BA49-4D19-87A2-9A5A14D5E21B}"/>
+    <hyperlink ref="N49:N58" r:id="rId7" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{FF0DC0E3-E165-49DE-8DA9-F68C1A8AFB49}"/>
+    <hyperlink ref="N59:N68" r:id="rId8" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{85532FA7-A9C6-4DC6-8801-3037E09B6523}"/>
+    <hyperlink ref="N69:N78" r:id="rId9" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{ACF88C81-A3E5-4CA0-B1C5-BE9BD524835D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:M6 A8:M71 A7:L7 B1:M1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:M1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C16CDD-8999-4874-AAD7-46BDB6D7E524}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="12" max="12" width="128.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5484,7 +5804,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -5528,7 +5848,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3">
@@ -5572,7 +5892,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4">
@@ -5616,7 +5936,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5">
@@ -5660,7 +5980,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6">
@@ -5704,7 +6024,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7">
@@ -5748,7 +6068,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8">
@@ -5792,7 +6112,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9">
@@ -5836,7 +6156,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10">
@@ -5880,7 +6200,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
       <c r="C11">
@@ -5924,7 +6244,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
       <c r="C12">
@@ -5968,7 +6288,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13">
@@ -6012,7 +6332,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
       <c r="C14">
@@ -6056,7 +6376,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
       <c r="C15">
@@ -6100,7 +6420,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>107</v>
       </c>
       <c r="C16">
@@ -6144,7 +6464,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
       <c r="C17">
@@ -6188,7 +6508,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>116</v>
       </c>
       <c r="C18">
@@ -6232,7 +6552,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
       <c r="C19">
@@ -6276,7 +6596,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
       <c r="C20">
@@ -6320,7 +6640,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>132</v>
       </c>
       <c r="C21">
@@ -6364,7 +6684,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>134</v>
       </c>
       <c r="C22">
@@ -6408,7 +6728,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>142</v>
       </c>
       <c r="C23">
@@ -6452,7 +6772,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>149</v>
       </c>
       <c r="C24">
@@ -6496,7 +6816,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
       <c r="C25">
@@ -6540,7 +6860,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
       <c r="C26">
@@ -6584,7 +6904,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>167</v>
       </c>
       <c r="C27">
@@ -6628,7 +6948,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>173</v>
       </c>
       <c r="C28">
@@ -6672,7 +6992,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
       <c r="C29">
@@ -6716,7 +7036,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
       <c r="C30">
@@ -6760,7 +7080,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>191</v>
       </c>
       <c r="C31">
@@ -6800,12 +7120,35 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>580</v>
       </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>581</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="M32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="C33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -6816,16 +7159,34 @@
       <c r="F33" t="s">
         <v>581</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="6">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>200</v>
+      </c>
+      <c r="I33" s="6">
+        <v>250</v>
+      </c>
+      <c r="J33" s="6">
+        <v>300</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -6836,31 +7197,34 @@
       <c r="F34" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="8">
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <v>200</v>
-      </c>
-      <c r="I34" s="8">
-        <v>250</v>
-      </c>
-      <c r="J34" s="8">
-        <v>300</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="7">
+        <v>250000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>300000</v>
+      </c>
+      <c r="I34" s="7">
+        <v>400000</v>
+      </c>
+      <c r="J34" s="7">
+        <v>450000</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="M34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -6871,31 +7235,34 @@
       <c r="F35" t="s">
         <v>581</v>
       </c>
-      <c r="G35" s="9">
-        <v>250000</v>
-      </c>
-      <c r="H35" s="9">
-        <v>300000</v>
-      </c>
-      <c r="I35" s="9">
-        <v>400000</v>
-      </c>
-      <c r="J35" s="9">
-        <v>450000</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="M35" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -6906,31 +7273,34 @@
       <c r="F36" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K36" s="8" t="s">
+      <c r="G36" s="7">
+        <v>240000</v>
+      </c>
+      <c r="H36" s="7">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="7">
+        <v>360000</v>
+      </c>
+      <c r="J36" s="7">
+        <v>400000</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="M36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -6941,31 +7311,34 @@
       <c r="F37" t="s">
         <v>581</v>
       </c>
-      <c r="G37" s="9">
-        <v>240000</v>
-      </c>
-      <c r="H37" s="9">
-        <v>300000</v>
-      </c>
-      <c r="I37" s="9">
-        <v>360000</v>
-      </c>
-      <c r="J37" s="9">
-        <v>400000</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="M37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -6976,57 +7349,22 @@
       <c r="F38" t="s">
         <v>581</v>
       </c>
-      <c r="G38" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C39">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>581</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="G38" s="8">
         <v>0.1</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H38" s="9">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I38" s="8">
         <v>0.15</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J38" s="8">
         <v>0.12</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K38" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L38" s="6" t="s">
         <v>597</v>
       </c>
     </row>
@@ -7048,7 +7386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7059,47 +7397,47 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7558,7 +7896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7568,47 +7906,47 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8066,7 +8404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8076,47 +8414,47 @@
     <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8574,7 +8912,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8583,47 +8921,47 @@
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>

--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73126A99-7775-4409-B6FC-1CEAB7B15A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D2E20-5121-4D6B-B94B-B65E512CF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="604">
   <si>
     <t>Question</t>
   </si>
@@ -1858,6 +1858,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/mathStatEco/math/number1.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend//images/mathStatEco/math/number2.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/Image3.png</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1941,7 +1944,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2294,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2352,43 +2354,43 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2396,43 +2398,43 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2440,43 +2442,43 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>513</v>
       </c>
     </row>
@@ -2484,43 +2486,43 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2528,43 +2530,43 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>514</v>
       </c>
     </row>
@@ -2572,43 +2574,43 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="10">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>515</v>
       </c>
     </row>
@@ -2616,43 +2618,43 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2660,43 +2662,43 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="10">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>517</v>
       </c>
     </row>
@@ -2704,43 +2706,43 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="10">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>518</v>
       </c>
     </row>
@@ -2748,43 +2750,43 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="10">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>519</v>
       </c>
     </row>
@@ -2792,43 +2794,43 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="10">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>520</v>
       </c>
     </row>
@@ -2836,43 +2838,43 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="10">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>521</v>
       </c>
     </row>
@@ -2880,43 +2882,43 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="10">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>522</v>
       </c>
     </row>
@@ -2924,43 +2926,43 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="10">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>523</v>
       </c>
     </row>
@@ -2968,43 +2970,43 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="10">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3012,43 +3014,43 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="10">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3056,43 +3058,43 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="10">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3100,43 +3102,43 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="10">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>527</v>
       </c>
     </row>
@@ -3144,43 +3146,43 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="10">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3188,43 +3190,43 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="10">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3232,43 +3234,43 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="10">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" t="s">
         <v>141</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="11" t="s">
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>530</v>
       </c>
     </row>
@@ -3276,43 +3278,43 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="10">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" t="s">
         <v>148</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="11" t="s">
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="10" t="s">
         <v>531</v>
       </c>
     </row>
@@ -3320,43 +3322,43 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="10">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="11" t="s">
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>532</v>
       </c>
     </row>
@@ -3364,43 +3366,43 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="10">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" t="s">
         <v>156</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" t="s">
         <v>160</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>533</v>
       </c>
     </row>
@@ -3408,43 +3410,43 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="10">
-        <v>20</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="11" t="s">
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3452,43 +3454,43 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="10">
-        <v>20</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" t="s">
         <v>170</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3496,43 +3498,43 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="10">
-        <v>20</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" t="s">
         <v>176</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" t="s">
         <v>174</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3540,43 +3542,43 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="10">
-        <v>20</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" t="s">
         <v>181</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" t="s">
         <v>182</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" t="s">
         <v>184</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3584,43 +3586,43 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="10">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" t="s">
         <v>186</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="11" t="s">
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3628,43 +3630,43 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="10">
-        <v>20</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" t="s">
         <v>195</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" t="s">
         <v>196</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="11" t="s">
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3672,43 +3674,42 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>580</v>
       </c>
-      <c r="C32" s="10">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" t="s">
         <v>581</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" t="s">
         <v>599</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" t="s">
         <v>600</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" t="s">
         <v>601</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" t="s">
         <v>602</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" t="s">
         <v>599</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" t="s">
         <v>582</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N32" s="10"/>
+      <c r="M32" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3717,16 +3718,16 @@
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C33" s="10">
-        <v>21</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" t="s">
         <v>581</v>
       </c>
       <c r="G33" s="2">
@@ -3747,10 +3748,9 @@
       <c r="L33" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N33" s="10"/>
+      <c r="M33" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3759,40 +3759,39 @@
       <c r="B34" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C34" s="10">
-        <v>22</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>250000</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>300000</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>400000</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>450000</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="11">
         <v>300000</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N34" s="10"/>
+      <c r="M34" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3801,40 +3800,39 @@
       <c r="B35" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C35" s="10">
-        <v>23</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" t="s">
         <v>581</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>0.15</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>0.2</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>0.25</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>0.3</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>0.25</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N35" s="10"/>
+      <c r="M35" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3843,40 +3841,39 @@
       <c r="B36" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C36" s="10">
-        <v>24</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>240000</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>300000</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>360000</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>400000</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="11">
         <v>360000</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N36" s="10"/>
+      <c r="M36" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3885,40 +3882,39 @@
       <c r="B37" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C37" s="10">
-        <v>25</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" t="s">
         <v>581</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>0.7</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>0.75</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>0.8</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <v>0.85</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <v>0.75</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N37" s="10"/>
+      <c r="M37" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3927,38 +3923,39 @@
       <c r="B38" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C38" s="10">
-        <v>26</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" t="s">
         <v>581</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>0.1</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>0.15</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <v>0.12</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>0.1</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="M38" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -7120,7 +7117,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>580</v>
       </c>
@@ -7143,7 +7140,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>586</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="63" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>589</v>
       </c>
@@ -7257,7 +7254,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>591</v>
       </c>
@@ -7295,7 +7292,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="63" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>593</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>595</v>
       </c>

--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D2E20-5121-4D6B-B94B-B65E512CF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B5FB65-24F2-406F-9976-BC19CC341581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="668">
   <si>
     <t>Question</t>
   </si>
@@ -1803,18 +1803,12 @@
     <t>What is the profit if a product is bought for PKR 500 and sold for PKR 750?</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Profit = Selling Price - Cost Price = 750 - 500 = 250</t>
   </si>
   <si>
     <t>A company earning PKR 2,000,000 at a tax rate of 15% owes how much in taxes?</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Tax = Income × Tax Rate = 2,000,000 × 0.15 = 300,000</t>
   </si>
   <si>
@@ -1839,28 +1833,226 @@
     <t>Inflation is calculated when CPI rises from 120 to 132. What is the inflation rate?</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Inflation Rate = [(132 - 120) ÷ 120] × 100 = (12 ÷ 120) × 100 = 10%</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/mathStatEco/math/number1.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/mathStatEco/math/number2.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/Image3.png</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/mathStatEco/math/number1.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend//images/mathStatEco/math/number2.png, https://raw.githubusercontent.com/Imran751/daoAll/main/backend/images/Image3.png</t>
+    <t>A shop has a profit of PKR 100,000 and a loss of PKR 30,000. What is the net amount?</t>
+  </si>
+  <si>
+    <t>Net Profit = Profit + (-Loss) = 100,000 + (-30,000) = 70,000</t>
+  </si>
+  <si>
+    <t>If Pakistan’s national debt increased by $2 billion, how would it be represented?</t>
+  </si>
+  <si>
+    <t>National Debt = -2,000,000,000</t>
+  </si>
+  <si>
+    <t>What is the balance if a company has a revenue of PKR 3,000,000 and expenses of PKR 1,500,000?</t>
+  </si>
+  <si>
+    <t>Net Balance = Revenue + (-Expenses) = 3,000,000 + (-1,500,000) = 1,500,000</t>
+  </si>
+  <si>
+    <t>If the temperature is -10°C, and it rises by 15°C, what is the new temperature?</t>
+  </si>
+  <si>
+    <t>New Temperature = -10°C + 15°C = +5°C</t>
+  </si>
+  <si>
+    <t>A company has a debt of PKR 1,000,000, which increases by PKR 500,000. What is the total debt?</t>
+  </si>
+  <si>
+    <t>Total Debt = -1,000,000 + 500,000 = -1,500,000</t>
+  </si>
+  <si>
+    <t>The inflation rate in Pakistan was -3%. What does this represent?</t>
+  </si>
+  <si>
+    <t>Negative inflation rate (-3%) represents deflation.</t>
+  </si>
+  <si>
+    <t>5°C</t>
+  </si>
+  <si>
+    <t>10°C</t>
+  </si>
+  <si>
+    <t>0°C</t>
+  </si>
+  <si>
+    <t>25°C</t>
+  </si>
+  <si>
+    <t>Deflation</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Positive Growth</t>
+  </si>
+  <si>
+    <t>What is the GST amount on a product costing PKR 1,200 if the GST rate is 17.0%?</t>
+  </si>
+  <si>
+    <t>GST = 1,200 × 0.17 = 204.0</t>
+  </si>
+  <si>
+    <t>If USD 1 = PKR 300.50, how much is required to buy USD 100?</t>
+  </si>
+  <si>
+    <t>Amount = 100 × 300.50 = 30,050.00</t>
+  </si>
+  <si>
+    <t>A car's mileage is 15.8 km per liter. How far can it go with 10 liters of fuel?</t>
+  </si>
+  <si>
+    <t>Distance = Mileage × Fuel = 15.8 × 10 = 158.0</t>
+  </si>
+  <si>
+    <t>What is the net amount if a loan of PKR 500,000 is repaid with 7.5% interest?</t>
+  </si>
+  <si>
+    <t>Net Amount = Principal + Interest = 500,000 + (500,000 × 0.075) = 537,500.00</t>
+  </si>
+  <si>
+    <t>The literacy rate in a region is 62.5%. Out of 800,000 people, how many are literate?</t>
+  </si>
+  <si>
+    <t>Literate Population = Total Population × Literacy Rate = 800,000 × 0.625 = 500,000</t>
+  </si>
+  <si>
+    <t>A shop sells an item for PKR 345.50 per unit. How much is needed to buy 10 units?</t>
+  </si>
+  <si>
+    <t>Total Cost = Price per Unit × Quantity = 345.50 × 10 = 3,455.00</t>
+  </si>
+  <si>
+    <t>What are the factors of 36?</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 9, 12, 18, 36</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 9, 12, 18, 36</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 6, 9, 12, 18, 36</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 6, 9, 12, 18, 36</t>
+  </si>
+  <si>
+    <t>Factors are numbers that divide 36 without leaving a remainder.</t>
+  </si>
+  <si>
+    <t>A company has 48 items to pack into boxes. How many boxes can they use?</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 6, 8, 12, 24, 48</t>
+  </si>
+  <si>
+    <t>2, 4, 6, 8, 12, 24, 48</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 6, 8, 12, 24, 48</t>
+  </si>
+  <si>
+    <t>3, 6, 9, 12, 24, 48</t>
+  </si>
+  <si>
+    <t>The factors of 48 indicate possible box counts for equal packing.</t>
+  </si>
+  <si>
+    <t>A relief fund of PKR 900,000 is to be divided equally among 15 regions. How much will each region receive?</t>
+  </si>
+  <si>
+    <t>Each region’s share = 900,000 ÷ 15 = 60,000</t>
+  </si>
+  <si>
+    <t>If PKR 1,000,000 is allocated to a project and divided among 4 sub-projects, how much will each get?</t>
+  </si>
+  <si>
+    <t>Each sub-project gets 1,000,000 ÷ 4 = 250,000</t>
+  </si>
+  <si>
+    <t>A school has 1,200 students and wants to form groups. What is the maximum number of students in each group if groups must be equal?</t>
+  </si>
+  <si>
+    <t>Maximum students per group = The largest factor of 1,200 that fits the group size = 120</t>
+  </si>
+  <si>
+    <t>A constituency has 4,800 voters and needs polling booths. What is the smallest number of booths for equal voter distribution?</t>
+  </si>
+  <si>
+    <t>Smallest booths = Smallest factor of 4,800 ensuring equal voter allocation = 12</t>
+  </si>
+  <si>
+    <t>What is the expansion of (a+b)2(a + b)^2(a+b)2?</t>
+  </si>
+  <si>
+    <t>a2+2ab+b2a^2 + 2ab + b^2a2+2ab+b2</t>
+  </si>
+  <si>
+    <t>a2+ab+b2a^2 + ab + b^2a2+ab+b2</t>
+  </si>
+  <si>
+    <t>a2+b2+2aba^2 + b^2 + 2aba2+b2+2ab</t>
+  </si>
+  <si>
+    <t>a2−2ab+b2a^2 - 2ab + b^2a2−2ab+b2</t>
+  </si>
+  <si>
+    <t>Expansion follows the Binomial Theorem: (a+b)2=a2+2ab+b2(a+b)^2 = a^2 + 2ab + b^2(a+b)2=a2+2ab+b2.</t>
+  </si>
+  <si>
+    <t>What is the coefficient of x2y3x^2y^3x2y3 in (x+y)5(x + y)^5(x+y)5?</t>
+  </si>
+  <si>
+    <t>Using (52)=10\binom{5}{2} = 10(25​)=10, the coefficient of x2y3x^2y^3x2y3 is 10.</t>
+  </si>
+  <si>
+    <t>A company predicts revenue growth using (1.1+0.9)3(1.1 + 0.9)^3(1.1+0.9)3. What is the total projected factor?</t>
+  </si>
+  <si>
+    <t>Expanding (1.1+0.9)3=1.13+3(1.12)(0.9)+3(1.1)(0.92)+0.93=6.0(1.1 + 0.9)^3 = 1.1^3 + 3(1.1^2)(0.9) + 3(1.1)(0.9^2) + 0.9^3 = 6.0(1.1+0.9)3=1.13+3(1.12)(0.9)+3(1.1)(0.92)+0.93=6.0.</t>
+  </si>
+  <si>
+    <t>If (p+q)4(p + q)^4(p+q)4 models voting probabilities, what is the probability of all votes for ppp?</t>
+  </si>
+  <si>
+    <t>p4p^4p4</t>
+  </si>
+  <si>
+    <t>4p3q4p^3q4p3q</t>
+  </si>
+  <si>
+    <t>6p2q26p^2q^26p2q2</t>
+  </si>
+  <si>
+    <t>4pq34pq^34pq3</t>
+  </si>
+  <si>
+    <t>When all votes are for ppp, only p4p^4p4 contributes to the expansion of (p+q)4(p+q)^4(p+q)4.</t>
+  </si>
+  <si>
+    <t>In (2x+3y)2(2x + 3y)^2(2x+3y)2, what is the coefficient of x2x^2x2?</t>
+  </si>
+  <si>
+    <t>The coefficient is calculated as (22)⋅22⋅30=4\binom{2}{2} \cdot 2^2 \cdot 3^0 = 4(22​)⋅22⋅30=4.</t>
+  </si>
+  <si>
+    <t>A population grows by birth (2%2\%2%) and migration (1%1\%1%) modeled by (1.02+1.01)2(1.02 + 1.01)^2(1.02+1.01)2. What is the growth factor?</t>
+  </si>
+  <si>
+    <t>Expanding (1.02+1.01)2=1.022+2(1.02)(1.01)+1.012=4.0601(1.02 + 1.01)^2 = 1.02^2 + 2(1.02)(1.01) + 1.01^2 = 4.0601(1.02+1.01)2=1.022+2(1.02)(1.01)+1.012=4.0601</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +2111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1929,21 +2121,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1952,6 +2129,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2294,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2572,7 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="5" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2434,7 +2616,7 @@
       <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2478,7 +2660,7 @@
       <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>513</v>
       </c>
     </row>
@@ -2522,7 +2704,7 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="5" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2566,7 +2748,7 @@
       <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="5" t="s">
         <v>514</v>
       </c>
     </row>
@@ -2610,7 +2792,7 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>515</v>
       </c>
     </row>
@@ -2654,7 +2836,7 @@
       <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="5" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2698,7 +2880,7 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="5" t="s">
         <v>517</v>
       </c>
     </row>
@@ -2742,7 +2924,7 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="5" t="s">
         <v>518</v>
       </c>
     </row>
@@ -2786,7 +2968,7 @@
       <c r="M11" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="5" t="s">
         <v>519</v>
       </c>
     </row>
@@ -2830,7 +3012,7 @@
       <c r="M12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="5" t="s">
         <v>520</v>
       </c>
     </row>
@@ -2874,7 +3056,7 @@
       <c r="M13" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="5" t="s">
         <v>521</v>
       </c>
     </row>
@@ -2918,7 +3100,7 @@
       <c r="M14" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="5" t="s">
         <v>522</v>
       </c>
     </row>
@@ -2962,7 +3144,7 @@
       <c r="M15" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="5" t="s">
         <v>523</v>
       </c>
     </row>
@@ -3006,7 +3188,7 @@
       <c r="M16" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="5" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3050,7 +3232,7 @@
       <c r="M17" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="5" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3094,7 +3276,7 @@
       <c r="M18" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="5" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3138,7 +3320,7 @@
       <c r="M19" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="5" t="s">
         <v>527</v>
       </c>
     </row>
@@ -3182,7 +3364,7 @@
       <c r="M20" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="5" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3226,7 +3408,7 @@
       <c r="M21" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="5" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3270,7 +3452,7 @@
       <c r="M22" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="5" t="s">
         <v>530</v>
       </c>
     </row>
@@ -3314,7 +3496,7 @@
       <c r="M23" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="5" t="s">
         <v>531</v>
       </c>
     </row>
@@ -3358,7 +3540,7 @@
       <c r="M24" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -3402,7 +3584,7 @@
       <c r="M25" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="5" t="s">
         <v>533</v>
       </c>
     </row>
@@ -3446,7 +3628,7 @@
       <c r="M26" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="5" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3490,7 +3672,7 @@
       <c r="M27" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="5" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3534,7 +3716,7 @@
       <c r="M28" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="5" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3578,7 +3760,7 @@
       <c r="M29" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="5" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3622,7 +3804,7 @@
       <c r="M30" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="5" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3666,68 +3848,47 @@
       <c r="M31" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="9">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G32" t="s">
-        <v>599</v>
-      </c>
-      <c r="H32" t="s">
-        <v>600</v>
-      </c>
-      <c r="I32" t="s">
-        <v>601</v>
-      </c>
-      <c r="J32" t="s">
-        <v>602</v>
-      </c>
-      <c r="K32" t="s">
-        <v>599</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="L32" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="M32" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
+      <c r="M32" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="9">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="9" t="s">
         <v>581</v>
       </c>
       <c r="G33" s="2">
@@ -3736,9 +3897,6 @@
       <c r="H33" s="2">
         <v>200</v>
       </c>
-      <c r="I33" s="2">
-        <v>250</v>
-      </c>
       <c r="J33" s="2">
         <v>300</v>
       </c>
@@ -3746,1974 +3904,2676 @@
         <v>250</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="M33" t="s">
+      <c r="C34" s="9">
+        <v>20</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G34" s="6">
+        <v>250000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>300000</v>
+      </c>
+      <c r="I34" s="6">
+        <v>400000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>450000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>300000</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="9">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36" s="9">
+        <v>20</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G36" s="6">
+        <v>240000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="6">
+        <v>360000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>400000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>360000</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C37" s="9">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C39" s="9">
+        <v>20</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="6">
+        <v>70000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>130000</v>
+      </c>
+      <c r="I39" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>50000</v>
+      </c>
+      <c r="K39" s="6">
+        <v>70000</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C40" s="9">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2000000000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>-2000000000</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>-2000000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>-2000000000</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C42" s="9">
+        <v>20</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="43" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C43" s="9">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F43" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G43" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" s="9">
+        <v>20</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C45" s="9">
+        <v>20</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G45" s="2">
+        <v>204</v>
+      </c>
+      <c r="H45" s="2">
+        <v>205.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>204.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>203</v>
+      </c>
+      <c r="K45" s="2">
+        <v>204</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C46" s="9">
+        <v>20</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G46" s="11">
+        <v>30050</v>
+      </c>
+      <c r="H46" s="11">
+        <v>30000.5</v>
+      </c>
+      <c r="I46" s="11">
+        <v>30500</v>
+      </c>
+      <c r="J46" s="11">
+        <v>30250.5</v>
+      </c>
+      <c r="K46" s="11">
+        <v>30050</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C47" s="9">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G47" s="2">
+        <v>158</v>
+      </c>
+      <c r="H47" s="2">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>160</v>
+      </c>
+      <c r="J47" s="2">
+        <v>152</v>
+      </c>
+      <c r="K47" s="2">
+        <v>158</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C48" s="9">
+        <v>20</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G48" s="11">
+        <v>537500</v>
+      </c>
+      <c r="H48" s="11">
+        <v>525000</v>
+      </c>
+      <c r="I48" s="11">
+        <v>535000</v>
+      </c>
+      <c r="J48" s="11">
+        <v>530000</v>
+      </c>
+      <c r="K48" s="11">
+        <v>537500</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="9">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G49" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H49" s="6">
+        <v>520000</v>
+      </c>
+      <c r="I49" s="6">
+        <v>480000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>500800</v>
+      </c>
+      <c r="K49" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C50" s="9">
+        <v>20</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G50" s="11">
+        <v>3455</v>
+      </c>
+      <c r="H50" s="11">
+        <v>3450.5</v>
+      </c>
+      <c r="I50" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J50" s="11">
+        <v>3500</v>
+      </c>
+      <c r="K50" s="11">
+        <v>3455</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C51" s="9">
+        <v>20</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C52" s="9">
+        <v>20</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C53" s="9">
+        <v>20</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G53" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H53" s="6">
+        <v>90000</v>
+      </c>
+      <c r="I53" s="6">
+        <v>120000</v>
+      </c>
+      <c r="J53" s="6">
+        <v>100000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>60000</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C54" s="9">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G54" s="6">
         <v>250000</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H54" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I54" s="6">
         <v>300000</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J54" s="6">
         <v>400000</v>
       </c>
-      <c r="J34" s="11">
-        <v>450000</v>
-      </c>
-      <c r="K34" s="11">
-        <v>300000</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="M34" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="K54" s="6">
+        <v>250000</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C55" s="9">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F55" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G35" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="M35" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G55" s="2">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2">
+        <v>120</v>
+      </c>
+      <c r="I55" s="2">
+        <v>150</v>
+      </c>
+      <c r="J55" s="2">
+        <v>200</v>
+      </c>
+      <c r="K55" s="2">
+        <v>120</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C56" s="9">
+        <v>20</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F56" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="11">
-        <v>240000</v>
-      </c>
-      <c r="H36" s="11">
-        <v>300000</v>
-      </c>
-      <c r="I36" s="11">
-        <v>360000</v>
-      </c>
-      <c r="J36" s="11">
-        <v>400000</v>
-      </c>
-      <c r="K36" s="11">
-        <v>360000</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="M36" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G56" s="2">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2">
+        <v>16</v>
+      </c>
+      <c r="K56" s="2">
+        <v>12</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C57" s="9">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F57" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G37" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="K37" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="M37" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G57" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C58" s="9">
+        <v>20</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F58" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G38" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="13">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="J38" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="K38" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="M38" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>10</v>
+      </c>
+      <c r="I58" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2">
+        <v>30</v>
+      </c>
+      <c r="K58" s="2">
+        <v>10</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C59" s="9">
+        <v>20</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>6</v>
+      </c>
+      <c r="K59" s="2">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" s="9">
+        <v>20</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C61" s="9">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>12</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>4</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C62" s="9">
+        <v>20</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4.0800999999999998</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4.0400999999999998</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K62" s="2">
+        <v>4.0601000000000003</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>197</v>
       </c>
-      <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
         <v>198</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E63" t="s">
         <v>199</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F63" t="s">
         <v>200</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G63" t="s">
         <v>201</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H63" t="s">
         <v>202</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I63" t="s">
         <v>203</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J63" t="s">
         <v>204</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K63" t="s">
         <v>201</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L63" t="s">
         <v>205</v>
       </c>
-      <c r="M39" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>206</v>
       </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
         <v>198</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E64" t="s">
         <v>207</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F64" t="s">
         <v>208</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G64" t="s">
         <v>209</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H64" t="s">
         <v>210</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I64" t="s">
         <v>211</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J64" t="s">
         <v>212</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K64" t="s">
         <v>209</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L64" t="s">
         <v>213</v>
       </c>
-      <c r="M40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>214</v>
       </c>
-      <c r="C41">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
         <v>198</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E65" t="s">
         <v>207</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F65" t="s">
         <v>215</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G65" t="s">
         <v>216</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H65" t="s">
         <v>217</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I65" t="s">
         <v>218</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J65" t="s">
         <v>219</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K65" t="s">
         <v>216</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L65" t="s">
         <v>220</v>
       </c>
-      <c r="M41" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>221</v>
       </c>
-      <c r="C42">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
         <v>198</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E66" t="s">
         <v>222</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F66" t="s">
         <v>223</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G66" t="s">
         <v>224</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H66" t="s">
         <v>225</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I66" t="s">
         <v>226</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J66" t="s">
         <v>227</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K66" t="s">
         <v>224</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L66" t="s">
         <v>228</v>
       </c>
-      <c r="M42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>229</v>
       </c>
-      <c r="C43">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
         <v>198</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E67" t="s">
         <v>207</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F67" t="s">
         <v>230</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G67" t="s">
         <v>231</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H67" t="s">
         <v>232</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I67" t="s">
         <v>233</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J67" t="s">
         <v>234</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K67" t="s">
         <v>231</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L67" t="s">
         <v>235</v>
       </c>
-      <c r="M43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>236</v>
       </c>
-      <c r="C44">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
         <v>198</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E68" t="s">
         <v>207</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F68" t="s">
         <v>208</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G68" t="s">
         <v>237</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H68" t="s">
         <v>238</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I68" t="s">
         <v>239</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J68" t="s">
         <v>240</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K68" t="s">
         <v>237</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L68" t="s">
         <v>241</v>
       </c>
-      <c r="M44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>242</v>
       </c>
-      <c r="C45">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
         <v>198</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E69" t="s">
         <v>199</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F69" t="s">
         <v>243</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G69" t="s">
         <v>244</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H69" t="s">
         <v>245</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I69" t="s">
         <v>246</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J69" t="s">
         <v>247</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K69" t="s">
         <v>244</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L69" t="s">
         <v>248</v>
       </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>249</v>
       </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
         <v>198</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E70" t="s">
         <v>199</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F70" t="s">
         <v>250</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G70" t="s">
         <v>251</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H70" t="s">
         <v>252</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I70" t="s">
         <v>253</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J70" t="s">
         <v>254</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K70" t="s">
         <v>251</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L70" t="s">
         <v>255</v>
       </c>
-      <c r="M46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>256</v>
       </c>
-      <c r="C47">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
         <v>198</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E71" t="s">
         <v>257</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F71" t="s">
         <v>258</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G71" t="s">
         <v>259</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H71" t="s">
         <v>260</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I71" t="s">
         <v>261</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J71" t="s">
         <v>262</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K71" t="s">
         <v>259</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L71" t="s">
         <v>263</v>
       </c>
-      <c r="M47" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>264</v>
       </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
         <v>198</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F72" t="s">
         <v>266</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G72" t="s">
         <v>267</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H72" t="s">
         <v>268</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I72" t="s">
         <v>269</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J72" t="s">
         <v>270</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K72" t="s">
         <v>267</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L72" t="s">
         <v>271</v>
       </c>
-      <c r="M48" t="s">
-        <v>29</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>272</v>
       </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
         <v>273</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E73" t="s">
         <v>274</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F73" t="s">
         <v>275</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G73" t="s">
         <v>276</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H73" t="s">
         <v>277</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I73" t="s">
         <v>278</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J73" t="s">
         <v>279</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K73" t="s">
         <v>276</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L73" t="s">
         <v>280</v>
       </c>
-      <c r="M49" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>281</v>
       </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
         <v>273</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G74" t="s">
         <v>284</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H74" t="s">
         <v>285</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I74" t="s">
         <v>286</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J74" t="s">
         <v>287</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K74" t="s">
         <v>284</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L74" t="s">
         <v>288</v>
       </c>
-      <c r="M50" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>289</v>
       </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
         <v>273</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E75" t="s">
         <v>290</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F75" t="s">
         <v>291</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G75" t="s">
         <v>292</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H75" t="s">
         <v>293</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I75" t="s">
         <v>294</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J75" t="s">
         <v>295</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K75" t="s">
         <v>292</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L75" t="s">
         <v>296</v>
       </c>
-      <c r="M51" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>297</v>
       </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
         <v>273</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E76" t="s">
         <v>274</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F76" t="s">
         <v>298</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G76" t="s">
         <v>299</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H76" t="s">
         <v>300</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I76" t="s">
         <v>301</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J76" t="s">
         <v>302</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K76" t="s">
         <v>299</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L76" t="s">
         <v>303</v>
       </c>
-      <c r="M52" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>304</v>
       </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
         <v>273</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E77" t="s">
         <v>305</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F77" t="s">
         <v>306</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G77" t="s">
         <v>307</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H77" t="s">
         <v>308</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I77" t="s">
         <v>309</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J77" t="s">
         <v>310</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K77" t="s">
         <v>307</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L77" t="s">
         <v>311</v>
       </c>
-      <c r="M53" t="s">
-        <v>29</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="M77" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>312</v>
       </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
         <v>273</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E78" t="s">
         <v>313</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F78" t="s">
         <v>314</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G78" t="s">
         <v>315</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H78" t="s">
         <v>316</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I78" t="s">
         <v>317</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J78" t="s">
         <v>318</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K78" t="s">
         <v>315</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L78" t="s">
         <v>319</v>
       </c>
-      <c r="M54" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="M78" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>320</v>
       </c>
-      <c r="C55">
-        <v>20</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
         <v>273</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E79" t="s">
         <v>274</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F79" t="s">
         <v>321</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G79" t="s">
         <v>322</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H79" t="s">
         <v>323</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I79" t="s">
         <v>324</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J79" t="s">
         <v>325</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K79" t="s">
         <v>322</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L79" t="s">
         <v>326</v>
       </c>
-      <c r="M55" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>327</v>
       </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
         <v>273</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E80" t="s">
         <v>274</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F80" t="s">
         <v>328</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G80" t="s">
         <v>329</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H80" t="s">
         <v>330</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I80" t="s">
         <v>331</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J80" t="s">
         <v>332</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K80" t="s">
         <v>329</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L80" t="s">
         <v>333</v>
       </c>
-      <c r="M56" t="s">
-        <v>29</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="M80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>334</v>
       </c>
-      <c r="C57">
-        <v>20</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
         <v>273</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E81" t="s">
         <v>335</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F81" t="s">
         <v>336</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G81" t="s">
         <v>337</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H81" t="s">
         <v>338</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I81" t="s">
         <v>339</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J81" t="s">
         <v>340</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K81" t="s">
         <v>337</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L81" t="s">
         <v>341</v>
       </c>
-      <c r="M57" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="M81" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>342</v>
       </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
         <v>273</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E82" t="s">
         <v>313</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F82" t="s">
         <v>343</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G82" t="s">
         <v>344</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H82" t="s">
         <v>345</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I82" t="s">
         <v>346</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J82" t="s">
         <v>347</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K82" t="s">
         <v>344</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L82" t="s">
         <v>348</v>
       </c>
-      <c r="M58" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="1" t="s">
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>349</v>
       </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
         <v>350</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E83" t="s">
         <v>351</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F83" t="s">
         <v>352</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G83" t="s">
         <v>353</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H83" t="s">
         <v>354</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I83" t="s">
         <v>355</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J83" t="s">
         <v>356</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K83" t="s">
         <v>353</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L83" t="s">
         <v>357</v>
       </c>
-      <c r="M59" t="s">
-        <v>29</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="M83" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>358</v>
       </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
         <v>350</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E84" t="s">
         <v>359</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F84" t="s">
         <v>360</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G84" t="s">
         <v>361</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H84" t="s">
         <v>362</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I84" t="s">
         <v>363</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J84" t="s">
         <v>364</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K84" t="s">
         <v>361</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L84" t="s">
         <v>365</v>
       </c>
-      <c r="M60" t="s">
-        <v>29</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="M84" t="s">
+        <v>29</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>366</v>
       </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
         <v>350</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E85" t="s">
         <v>208</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F85" t="s">
         <v>367</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G85" t="s">
         <v>368</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H85" t="s">
         <v>369</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I85" t="s">
         <v>370</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J85" t="s">
         <v>371</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K85" t="s">
         <v>368</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L85" t="s">
         <v>372</v>
       </c>
-      <c r="M61" t="s">
-        <v>29</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="M85" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>373</v>
       </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
         <v>350</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E86" t="s">
         <v>374</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F86" t="s">
         <v>375</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G86" t="s">
         <v>376</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H86" t="s">
         <v>377</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I86" t="s">
         <v>378</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J86" t="s">
         <v>379</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K86" t="s">
         <v>376</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L86" t="s">
         <v>380</v>
       </c>
-      <c r="M62" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="1" t="s">
+      <c r="M86" t="s">
+        <v>29</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>381</v>
       </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
         <v>350</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E87" t="s">
         <v>382</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F87" t="s">
         <v>383</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G87" t="s">
         <v>384</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H87" t="s">
         <v>385</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I87" t="s">
         <v>386</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J87" t="s">
         <v>387</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K87" t="s">
         <v>384</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L87" t="s">
         <v>388</v>
       </c>
-      <c r="M63" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="M87" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>389</v>
       </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
         <v>350</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E88" t="s">
         <v>359</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F88" t="s">
         <v>390</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G88" t="s">
         <v>391</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H88" t="s">
         <v>392</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I88" t="s">
         <v>393</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J88" t="s">
         <v>394</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K88" t="s">
         <v>391</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L88" t="s">
         <v>395</v>
       </c>
-      <c r="M64" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="1" t="s">
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>396</v>
       </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
         <v>350</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E89" t="s">
         <v>397</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F89" t="s">
         <v>398</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G89" t="s">
         <v>399</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H89" t="s">
         <v>400</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I89" t="s">
         <v>401</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J89" t="s">
         <v>402</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K89" t="s">
         <v>399</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L89" t="s">
         <v>403</v>
       </c>
-      <c r="M65" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="1" t="s">
+      <c r="M89" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>404</v>
       </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
         <v>350</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E90" t="s">
         <v>405</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F90" t="s">
         <v>406</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G90" t="s">
         <v>407</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H90" t="s">
         <v>408</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I90" t="s">
         <v>409</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J90" t="s">
         <v>410</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K90" t="s">
         <v>407</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L90" t="s">
         <v>411</v>
       </c>
-      <c r="M66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="1" t="s">
+      <c r="M90" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>412</v>
       </c>
-      <c r="C67">
-        <v>20</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
         <v>350</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E91" t="s">
         <v>413</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F91" t="s">
         <v>414</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G91" t="s">
         <v>415</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H91" t="s">
         <v>416</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I91" t="s">
         <v>417</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J91" t="s">
         <v>418</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K91" t="s">
         <v>415</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L91" t="s">
         <v>419</v>
       </c>
-      <c r="M67" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="1" t="s">
+      <c r="M91" t="s">
+        <v>29</v>
+      </c>
+      <c r="N91" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>420</v>
       </c>
-      <c r="C68">
-        <v>20</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
         <v>350</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E92" t="s">
         <v>421</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F92" t="s">
         <v>422</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G92" t="s">
         <v>423</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H92" t="s">
         <v>424</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I92" t="s">
         <v>425</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J92" t="s">
         <v>426</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K92" t="s">
         <v>423</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L92" t="s">
         <v>427</v>
       </c>
-      <c r="M68" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="1" t="s">
+      <c r="M92" t="s">
+        <v>29</v>
+      </c>
+      <c r="N92" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>428</v>
       </c>
-      <c r="C69">
-        <v>20</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
         <v>429</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E93" t="s">
         <v>430</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F93" t="s">
         <v>431</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G93" t="s">
         <v>432</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H93" t="s">
         <v>433</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I93" t="s">
         <v>434</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J93" t="s">
         <v>435</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K93" t="s">
         <v>432</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L93" t="s">
         <v>436</v>
       </c>
-      <c r="M69" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="1" t="s">
+      <c r="M93" t="s">
+        <v>29</v>
+      </c>
+      <c r="N93" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>437</v>
       </c>
-      <c r="C70">
-        <v>20</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
         <v>429</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E94" t="s">
         <v>438</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F94" t="s">
         <v>439</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G94" t="s">
         <v>440</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H94" t="s">
         <v>441</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I94" t="s">
         <v>442</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J94" t="s">
         <v>443</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K94" t="s">
         <v>440</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L94" t="s">
         <v>444</v>
       </c>
-      <c r="M70" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="1" t="s">
+      <c r="M94" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>445</v>
       </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
         <v>429</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E95" t="s">
         <v>446</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F95" t="s">
         <v>447</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G95" t="s">
         <v>448</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H95" t="s">
         <v>449</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I95" t="s">
         <v>450</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J95" t="s">
         <v>451</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K95" t="s">
         <v>448</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L95" t="s">
         <v>452</v>
       </c>
-      <c r="M71" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="1" t="s">
+      <c r="M95" t="s">
+        <v>29</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>453</v>
       </c>
-      <c r="C72">
-        <v>20</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
         <v>429</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E96" t="s">
         <v>454</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F96" t="s">
         <v>455</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G96" t="s">
         <v>456</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H96" t="s">
         <v>457</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I96" t="s">
         <v>458</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J96" t="s">
         <v>459</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K96" t="s">
         <v>456</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L96" t="s">
         <v>460</v>
       </c>
-      <c r="M72" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="1" t="s">
+      <c r="M96" t="s">
+        <v>29</v>
+      </c>
+      <c r="N96" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>461</v>
       </c>
-      <c r="C73">
-        <v>20</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
         <v>429</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E97" t="s">
         <v>462</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F97" t="s">
         <v>463</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G97" t="s">
         <v>464</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H97" t="s">
         <v>465</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I97" t="s">
         <v>466</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J97" t="s">
         <v>467</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K97" t="s">
         <v>464</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L97" t="s">
         <v>468</v>
       </c>
-      <c r="M73" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" s="1" t="s">
+      <c r="M97" t="s">
+        <v>29</v>
+      </c>
+      <c r="N97" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>469</v>
       </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
         <v>429</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E98" t="s">
         <v>470</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F98" t="s">
         <v>471</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G98" t="s">
         <v>472</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H98" t="s">
         <v>473</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I98" t="s">
         <v>474</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J98" t="s">
         <v>475</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K98" t="s">
         <v>472</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L98" t="s">
         <v>476</v>
       </c>
-      <c r="M74" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="1" t="s">
+      <c r="M98" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>477</v>
       </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
         <v>429</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E99" t="s">
         <v>478</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F99" t="s">
         <v>479</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G99" t="s">
         <v>480</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H99" t="s">
         <v>481</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I99" t="s">
         <v>482</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J99" t="s">
         <v>483</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K99" t="s">
         <v>480</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L99" t="s">
         <v>484</v>
       </c>
-      <c r="M75" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="1" t="s">
+      <c r="M99" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>485</v>
       </c>
-      <c r="C76">
-        <v>20</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
         <v>429</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E100" t="s">
         <v>486</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F100" t="s">
         <v>487</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G100" t="s">
         <v>488</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H100" t="s">
         <v>489</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I100" t="s">
         <v>490</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J100" t="s">
         <v>491</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K100" t="s">
         <v>488</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L100" t="s">
         <v>492</v>
       </c>
-      <c r="M76" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="1" t="s">
+      <c r="M100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>493</v>
       </c>
-      <c r="C77">
-        <v>20</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
         <v>429</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E101" t="s">
         <v>494</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F101" t="s">
         <v>495</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G101" t="s">
         <v>496</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H101" t="s">
         <v>497</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I101" t="s">
         <v>498</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J101" t="s">
         <v>499</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K101" t="s">
         <v>496</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L101" t="s">
         <v>500</v>
       </c>
-      <c r="M77" t="s">
-        <v>29</v>
-      </c>
-      <c r="N77" s="1" t="s">
+      <c r="M101" t="s">
+        <v>29</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>501</v>
       </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
         <v>429</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E102" t="s">
         <v>502</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F102" t="s">
         <v>503</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G102" t="s">
         <v>504</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H102" t="s">
         <v>505</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I102" t="s">
         <v>506</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J102" t="s">
         <v>507</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K102" t="s">
         <v>504</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L102" t="s">
         <v>508</v>
       </c>
-      <c r="M78" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="1" t="s">
+      <c r="M102" t="s">
+        <v>29</v>
+      </c>
+      <c r="N102" s="1" t="s">
         <v>579</v>
       </c>
     </row>
@@ -5725,10 +6585,10 @@
     <hyperlink ref="N4" r:id="rId3" xr:uid="{DC9588A9-1974-4A4C-94D8-FAB137676E80}"/>
     <hyperlink ref="N5" r:id="rId4" xr:uid="{BFD3E838-0F44-42E2-B15A-E0D81F2C33E3}"/>
     <hyperlink ref="N6:N31" r:id="rId5" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{57514E0C-1C7A-42D9-A976-C80A2FB91BB9}"/>
-    <hyperlink ref="N39:N48" r:id="rId6" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{A9F8CCD5-BA49-4D19-87A2-9A5A14D5E21B}"/>
-    <hyperlink ref="N49:N58" r:id="rId7" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{FF0DC0E3-E165-49DE-8DA9-F68C1A8AFB49}"/>
-    <hyperlink ref="N59:N68" r:id="rId8" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{85532FA7-A9C6-4DC6-8801-3037E09B6523}"/>
-    <hyperlink ref="N69:N78" r:id="rId9" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{ACF88C81-A3E5-4CA0-B1C5-BE9BD524835D}"/>
+    <hyperlink ref="N63:N72" r:id="rId6" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{A9F8CCD5-BA49-4D19-87A2-9A5A14D5E21B}"/>
+    <hyperlink ref="N73:N82" r:id="rId7" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{FF0DC0E3-E165-49DE-8DA9-F68C1A8AFB49}"/>
+    <hyperlink ref="N83:N92" r:id="rId8" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{85532FA7-A9C6-4DC6-8801-3037E09B6523}"/>
+    <hyperlink ref="N93:N102" r:id="rId9" display="https://youtu.be/MO-uW1Wm7N8" xr:uid="{ACF88C81-A3E5-4CA0-B1C5-BE9BD524835D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5739,1630 +6599,2475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C16CDD-8999-4874-AAD7-46BDB6D7E524}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:N38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="1" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="19.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="9">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="9">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="9">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="9">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="5" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="9">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="9">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="9">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="9">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="9">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="9">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="9">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="9">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="9">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="9">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="9">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="M26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="9">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="9">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="9">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="9">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="M30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="9">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="9">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="M32" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M32" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C33">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="9">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="2">
         <v>100</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2">
         <v>200</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="2">
+        <v>300</v>
+      </c>
+      <c r="K33" s="2">
         <v>250</v>
       </c>
-      <c r="J33" s="6">
-        <v>300</v>
-      </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="M33" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="M33" t="s">
+      <c r="C34" s="9">
+        <v>20</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G34" s="6">
+        <v>250000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>300000</v>
+      </c>
+      <c r="I34" s="6">
+        <v>400000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>450000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>300000</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="9">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36" s="9">
+        <v>20</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G36" s="6">
+        <v>240000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="6">
+        <v>360000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>400000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>360000</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C37" s="9">
+        <v>20</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C39" s="9">
+        <v>20</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="6">
+        <v>70000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>130000</v>
+      </c>
+      <c r="I39" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>50000</v>
+      </c>
+      <c r="K39" s="6">
+        <v>70000</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C40" s="9">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F40" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G40" s="6">
+        <v>2000000000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>-2000000000</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>-2000000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>-2000000000</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C42" s="9">
+        <v>20</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C43" s="9">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G43" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" s="9">
+        <v>20</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C45" s="9">
+        <v>20</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G45" s="2">
+        <v>204</v>
+      </c>
+      <c r="H45" s="2">
+        <v>205.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>204.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>203</v>
+      </c>
+      <c r="K45" s="2">
+        <v>204</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C46" s="9">
+        <v>20</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G46" s="11">
+        <v>30050</v>
+      </c>
+      <c r="H46" s="11">
+        <v>30000.5</v>
+      </c>
+      <c r="I46" s="11">
+        <v>30500</v>
+      </c>
+      <c r="J46" s="11">
+        <v>30250.5</v>
+      </c>
+      <c r="K46" s="11">
+        <v>30050</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C47" s="9">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G47" s="2">
+        <v>158</v>
+      </c>
+      <c r="H47" s="2">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>160</v>
+      </c>
+      <c r="J47" s="2">
+        <v>152</v>
+      </c>
+      <c r="K47" s="2">
+        <v>158</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C48" s="9">
+        <v>20</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G48" s="11">
+        <v>537500</v>
+      </c>
+      <c r="H48" s="11">
+        <v>525000</v>
+      </c>
+      <c r="I48" s="11">
+        <v>535000</v>
+      </c>
+      <c r="J48" s="11">
+        <v>530000</v>
+      </c>
+      <c r="K48" s="11">
+        <v>537500</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="9">
+        <v>20</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G49" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H49" s="6">
+        <v>520000</v>
+      </c>
+      <c r="I49" s="6">
+        <v>480000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>500800</v>
+      </c>
+      <c r="K49" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C50" s="9">
+        <v>20</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G50" s="11">
+        <v>3455</v>
+      </c>
+      <c r="H50" s="11">
+        <v>3450.5</v>
+      </c>
+      <c r="I50" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J50" s="11">
+        <v>3500</v>
+      </c>
+      <c r="K50" s="11">
+        <v>3455</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C51" s="9">
+        <v>20</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C52" s="9">
+        <v>20</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C53" s="9">
+        <v>20</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G53" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H53" s="6">
+        <v>90000</v>
+      </c>
+      <c r="I53" s="6">
+        <v>120000</v>
+      </c>
+      <c r="J53" s="6">
+        <v>100000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>60000</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C54" s="9">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G54" s="6">
         <v>250000</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H54" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I54" s="6">
         <v>300000</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J54" s="6">
         <v>400000</v>
       </c>
-      <c r="J34" s="7">
-        <v>450000</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="M34" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C35">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="K54" s="6">
+        <v>250000</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C55" s="9">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F55" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G35" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="M35" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G55" s="2">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2">
+        <v>120</v>
+      </c>
+      <c r="I55" s="2">
+        <v>150</v>
+      </c>
+      <c r="J55" s="2">
+        <v>200</v>
+      </c>
+      <c r="K55" s="2">
+        <v>120</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C56" s="9">
+        <v>20</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F56" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="7">
-        <v>240000</v>
-      </c>
-      <c r="H36" s="7">
-        <v>300000</v>
-      </c>
-      <c r="I36" s="7">
-        <v>360000</v>
-      </c>
-      <c r="J36" s="7">
-        <v>400000</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="M36" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C37">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G56" s="2">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2">
+        <v>16</v>
+      </c>
+      <c r="K56" s="2">
+        <v>12</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C57" s="9">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F57" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G37" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="M37" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C38">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G57" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C58" s="9">
+        <v>20</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F58" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G38" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="9">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>597</v>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>10</v>
+      </c>
+      <c r="I58" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2">
+        <v>30</v>
+      </c>
+      <c r="K58" s="2">
+        <v>10</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C59" s="9">
+        <v>20</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>6</v>
+      </c>
+      <c r="K59" s="2">
+        <v>6</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" s="9">
+        <v>20</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C61" s="9">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>12</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>4</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C62" s="9">
+        <v>20</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4.0800999999999998</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4.0400999999999998</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K62" s="2">
+        <v>4.0601000000000003</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B5FB65-24F2-406F-9976-BC19CC341581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC4D19-84E0-4785-B3D6-3B372FA9E4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1060">
   <si>
     <t>Question</t>
   </si>
@@ -2053,6 +2053,1182 @@
   </si>
   <si>
     <t>Expanding (1.02+1.01)2=1.022+2(1.02)(1.01)+1.012=4.0601(1.02 + 1.01)^2 = 1.02^2 + 2(1.02)(1.01) + 1.01^2 = 4.0601(1.02+1.01)2=1.022+2(1.02)(1.01)+1.012=4.0601</t>
+  </si>
+  <si>
+    <t>A business earns PKR 50,000 on a total sale of PKR 250,000. What is the profit margin rate?</t>
+  </si>
+  <si>
+    <t>The inflation rate increases the price of a PKR 1,000 item to PKR 1,100. What is the inflation rate?</t>
+  </si>
+  <si>
+    <t>A loan of PKR 500,000 has an annual interest rate of 14%. What is the yearly interest?</t>
+  </si>
+  <si>
+    <t>PKR 60,000</t>
+  </si>
+  <si>
+    <t>PKR 70,000</t>
+  </si>
+  <si>
+    <t>PKR 65,000</t>
+  </si>
+  <si>
+    <t>PKR 75,000</t>
+  </si>
+  <si>
+    <t>The exchange rate is 280 PKR/USD. How much would it cost to buy 5 USD?</t>
+  </si>
+  <si>
+    <t>PKR 1,300</t>
+  </si>
+  <si>
+    <t>PKR 1,400</t>
+  </si>
+  <si>
+    <t>PKR 1,500</t>
+  </si>
+  <si>
+    <t>PKR 1,600</t>
+  </si>
+  <si>
+    <t>If FBR sets a 10% tax rate for incomes between PKR 600,000 and PKR 1,200,000, how much tax would be paid on an income of PKR 1,000,000?</t>
+  </si>
+  <si>
+    <t>PKR 80,000</t>
+  </si>
+  <si>
+    <t>PKR 90,000</t>
+  </si>
+  <si>
+    <t>PKR 100,000</t>
+  </si>
+  <si>
+    <t>PKR 120,000</t>
+  </si>
+  <si>
+    <t>A product’s price increased from PKR 500 to PKR 600. What is the percentage increase in price?</t>
+  </si>
+  <si>
+    <t>A business's revenue increased from PKR 800,000 to PKR 960,000 in a year. What is the revenue growth rate?</t>
+  </si>
+  <si>
+    <t>If a PKR 1,200,000 loan is taken at an annual interest rate of 10%, how much total interest is paid in 3 years?</t>
+  </si>
+  <si>
+    <t>PKR 300,000</t>
+  </si>
+  <si>
+    <t>PKR 360,000</t>
+  </si>
+  <si>
+    <t>PKR 400,000</t>
+  </si>
+  <si>
+    <t>PKR 450,000</t>
+  </si>
+  <si>
+    <t>Profit Margin = (50,000 ÷ 250,000) × 100 = 20%.</t>
+  </si>
+  <si>
+    <t>Inflation Rate = ((1,100 - 1,000) ÷ 1,000) × 100 = 10%.</t>
+  </si>
+  <si>
+    <t>Interest = (14 ÷ 100) × 500,000 = 70,000.</t>
+  </si>
+  <si>
+    <t>Cost = 280 × 5 = 1,400.</t>
+  </si>
+  <si>
+    <t>Tax = (10 ÷ 100) × 1,000,000 = 100,000.</t>
+  </si>
+  <si>
+    <t>Percentage Increase = ((600 - 500) ÷ 500) × 100 = 20%.</t>
+  </si>
+  <si>
+    <t>Revenue Growth Rate = ((960,000 - 800,000) ÷ 800,000) × 100 = 20%.</t>
+  </si>
+  <si>
+    <t>Total Interest = (10 ÷ 100) × 1,200,000 × 3 = 360,000.</t>
+  </si>
+  <si>
+    <t>A business's revenue is PKR 1,200,000, and its profit is PKR 400,000. What is the profit-to-revenue ratio?</t>
+  </si>
+  <si>
+    <t>Profit-to-Revenue Ratio = 400,000 ÷ 1,200,000 = 1:3.</t>
+  </si>
+  <si>
+    <t>The ratio of male to female employees in a company is 3:5. If there are 120 female employees, how many male employees are there?</t>
+  </si>
+  <si>
+    <t>Male Employees = (3 ÷ 5) × 120 = 72.</t>
+  </si>
+  <si>
+    <t>Pakistan's government allocates its education, healthcare, and defense budgets in the ratio 3:2:5. If the total budget is PKR 1,000 billion, how much is allocated to healthcare?</t>
+  </si>
+  <si>
+    <t>PKR 100 billion</t>
+  </si>
+  <si>
+    <t>PKR 200 billion</t>
+  </si>
+  <si>
+    <t>PKR 300 billion</t>
+  </si>
+  <si>
+    <t>PKR 400 billion</t>
+  </si>
+  <si>
+    <t>Healthcare = (2 ÷ 10) × 1,000 = 200 billion.</t>
+  </si>
+  <si>
+    <t>A recipe requires sugar and flour in the ratio 1:4. If you use 8 cups of flour, how much sugar is needed?</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>2 cups</t>
+  </si>
+  <si>
+    <t>3 cups</t>
+  </si>
+  <si>
+    <t>4 cups</t>
+  </si>
+  <si>
+    <t>Sugar = (1 ÷ 4) × 8 = 2.</t>
+  </si>
+  <si>
+    <t>In a population of 150 million, the urban-to-rural ratio is 2:3. How many people live in urban areas?</t>
+  </si>
+  <si>
+    <t>50 million</t>
+  </si>
+  <si>
+    <t>60 million</t>
+  </si>
+  <si>
+    <t>70 million</t>
+  </si>
+  <si>
+    <t>80 million</t>
+  </si>
+  <si>
+    <t>Urban Population = (2 ÷ 5) × 150 = 60 million.</t>
+  </si>
+  <si>
+    <t>Two businesses share a PKR 2,400,000 contract in the ratio 7:5. How much does the smaller business receive?</t>
+  </si>
+  <si>
+    <t>PKR 1,000,000</t>
+  </si>
+  <si>
+    <t>PKR 1,100,000</t>
+  </si>
+  <si>
+    <t>PKR 1,200,000</t>
+  </si>
+  <si>
+    <t>PKR 1,300,000</t>
+  </si>
+  <si>
+    <t>Smaller Business Share = (5 ÷ 12) × 2,400,000 = 1,000,000.</t>
+  </si>
+  <si>
+    <t>A class of students has boys and girls in the ratio 4:3. If there are 28 boys, how many girls are there?</t>
+  </si>
+  <si>
+    <t>Girls = (3 ÷ 4) × 28 = 21.</t>
+  </si>
+  <si>
+    <t>A business makes a profit of PKR 50,000 on a revenue of PKR 250,000. What is the profit percentage?</t>
+  </si>
+  <si>
+    <t>Profit Percentage = (50,000 ÷ 250,000) × 100 = 20%.</t>
+  </si>
+  <si>
+    <t>A product priced at PKR 2,000 is offered at a 15% discount. What is the discounted price?</t>
+  </si>
+  <si>
+    <t>PKR 1,700</t>
+  </si>
+  <si>
+    <t>PKR 1,800</t>
+  </si>
+  <si>
+    <t>PKR 1,900</t>
+  </si>
+  <si>
+    <t>Discount Amount = (15 ÷ 100) × 2,000 = 300, so price = 2,000 - 300 = 1,700.</t>
+  </si>
+  <si>
+    <t>Pakistan’s total budget is PKR 15 trillion, and PKR 3 trillion is allocated to defense. What percentage is allocated to defense?</t>
+  </si>
+  <si>
+    <t>Defense Percentage = (3 ÷ 15) × 100 = 20%.</t>
+  </si>
+  <si>
+    <t>A bank offers 12% annual interest on savings. How much interest is earned on PKR 1,000,000 in a year?</t>
+  </si>
+  <si>
+    <t>PKR 110,000</t>
+  </si>
+  <si>
+    <t>PKR 130,000</t>
+  </si>
+  <si>
+    <t>Interest = (12 ÷ 100) × 1,000,000 = 120,000.</t>
+  </si>
+  <si>
+    <t>A student scores 72 marks out of 90. What is the percentage of marks obtained?</t>
+  </si>
+  <si>
+    <t>Percentage = (72 ÷ 90) × 100 = 80%.</t>
+  </si>
+  <si>
+    <t>Pakistan’s tax collection is PKR 5 trillion, and its GDP is PKR 50 trillion. What is the tax-to-GDP ratio?</t>
+  </si>
+  <si>
+    <t>Tax-to-GDP Ratio = (5 ÷ 50) × 100 = 10%.</t>
+  </si>
+  <si>
+    <t>A property worth PKR 10,000,000 increases in value by 5%. What is the new value of the property?</t>
+  </si>
+  <si>
+    <t>PKR 10,500,000</t>
+  </si>
+  <si>
+    <t>PKR 11,000,000</t>
+  </si>
+  <si>
+    <t>PKR 11,500,000</t>
+  </si>
+  <si>
+    <t>PKR 12,000,000</t>
+  </si>
+  <si>
+    <t>New Value = 10,000,000 + (5 ÷ 100) × 10,000,000 = 10,500,000.</t>
+  </si>
+  <si>
+    <t>A store offers a 20% discount on a jacket originally priced at PKR 5,000. What is the discounted price?</t>
+  </si>
+  <si>
+    <t>Discount Amount = (20 ÷ 100) × 5,000 = 1,000. New price = 5,000 - 1,000 = 4,000.</t>
+  </si>
+  <si>
+    <t>A wholesaler provides a 10% discount on goods worth PKR 120,000. What is the final price?</t>
+  </si>
+  <si>
+    <t>Discount Amount = (10 ÷ 100) × 120,000 = 12,000. Final price = 120,000 - 12,000 = 108,000.</t>
+  </si>
+  <si>
+    <t>The government offers a 5% discount on early tax payments for PKR 200,000. How much tax is payable if paid early?</t>
+  </si>
+  <si>
+    <t>Discount Amount = (5 ÷ 100) × 200,000 = 10,000. Payable tax = 200,000 - 10,000 = 190,000.</t>
+  </si>
+  <si>
+    <t>Sugar is sold at a 25% discount during Ramadan. If the price is PKR 80 per kg, what is the discounted price?</t>
+  </si>
+  <si>
+    <t>Discount Amount = (25 ÷ 100) × 80 = 20. New price = 80 - 20 = 60 per kg.</t>
+  </si>
+  <si>
+    <t>An online store offers a 15% discount on purchases above PKR 10,000. How much will a customer pay for items worth PKR 15,000?</t>
+  </si>
+  <si>
+    <t>Discount Amount = (15 ÷ 100) × 15,000 = 2,250. Final price = 15,000 - 2,250 = 12,750.</t>
+  </si>
+  <si>
+    <t>If Set A consists of customers aged 18-30 and Set B consists of customers who bought sports items, what is A ∩ B?</t>
+  </si>
+  <si>
+    <t>Customers who bought sports items aged 18-30</t>
+  </si>
+  <si>
+    <t>All customers</t>
+  </si>
+  <si>
+    <t>All customers who bought sports items</t>
+  </si>
+  <si>
+    <t>All customers aged 18-30</t>
+  </si>
+  <si>
+    <t>A ∩ B includes customers who are both aged 18-30 and bought sports items.</t>
+  </si>
+  <si>
+    <t>Set X includes all electronic products, and Set Y includes products on sale. What is X ∩ Y?</t>
+  </si>
+  <si>
+    <t>All electronics on sale</t>
+  </si>
+  <si>
+    <t>Only electronic products</t>
+  </si>
+  <si>
+    <t>All products on sale</t>
+  </si>
+  <si>
+    <t>All products</t>
+  </si>
+  <si>
+    <t>X ∩ Y includes only the electronics that are on sale.</t>
+  </si>
+  <si>
+    <t>Set A represents voters in Punjab and Set B represents voters eligible for absentee voting. What is A ∩ B?</t>
+  </si>
+  <si>
+    <t>Voters in Punjab eligible for absentee voting</t>
+  </si>
+  <si>
+    <t>Voters in Pakistan</t>
+  </si>
+  <si>
+    <t>Voters in Punjab only</t>
+  </si>
+  <si>
+    <t>Absentee voters only</t>
+  </si>
+  <si>
+    <t>A ∩ B includes voters who are both in Punjab and eligible for absentee voting.</t>
+  </si>
+  <si>
+    <t>Set C includes taxpayers who filed returns, and Set D includes those who paid taxes on time. What is C ∩ D?</t>
+  </si>
+  <si>
+    <t>Taxpayers who filed returns and paid taxes on time</t>
+  </si>
+  <si>
+    <t>Taxpayers who filed returns</t>
+  </si>
+  <si>
+    <t>Taxpayers who paid taxes on time</t>
+  </si>
+  <si>
+    <t>All taxpayers</t>
+  </si>
+  <si>
+    <t>C ∩ D includes taxpayers who both filed returns and paid taxes on time.</t>
+  </si>
+  <si>
+    <t>Set E represents people vaccinated for COVID-19, and Set F represents people over the age of 60. What is E ∩ F?</t>
+  </si>
+  <si>
+    <t>People vaccinated and over 60</t>
+  </si>
+  <si>
+    <t>People vaccinated for COVID-19</t>
+  </si>
+  <si>
+    <t>People over the age of 60</t>
+  </si>
+  <si>
+    <t>All people over 60</t>
+  </si>
+  <si>
+    <t>E ∩ F includes people who are both vaccinated for COVID-19 and over 60 years old.</t>
+  </si>
+  <si>
+    <t>An employee earns PKR 50,000 and negotiates a raise to PKR 60,000. What is the salary increase?</t>
+  </si>
+  <si>
+    <t>Raise = 60,000 - 50,000 = 10,000.</t>
+  </si>
+  <si>
+    <t>A business buys 1,000 units of a product at PKR 500 each and negotiates a price reduction to PKR 450. How much is saved?</t>
+  </si>
+  <si>
+    <t>Savings = 1,000 × (500 - 450) = 50,000 PKR.</t>
+  </si>
+  <si>
+    <t>The Pakistan government negotiates a 10% reduction in the cost of imported oil worth PKR 10 billion. How much is saved?</t>
+  </si>
+  <si>
+    <t>Savings = 10,000,000,000 × 0.10 = 1,000,000,000 PKR.</t>
+  </si>
+  <si>
+    <t>The Pakistan government negotiates a road project to be completed in 4 years instead of 5 years. If the original cost was PKR 5 billion, what is the impact of the negotiation?</t>
+  </si>
+  <si>
+    <t>Reduced cost</t>
+  </si>
+  <si>
+    <t>Increased cost</t>
+  </si>
+  <si>
+    <t>Reduced duration</t>
+  </si>
+  <si>
+    <t>No impact</t>
+  </si>
+  <si>
+    <t>By reducing the duration, the government may save on operational costs and increase efficiency.</t>
+  </si>
+  <si>
+    <t>Pakistan negotiates with the IMF to defer debt payments of PKR 500 billion. How much debt is deferred in this negotiation?</t>
+  </si>
+  <si>
+    <t>400 billion</t>
+  </si>
+  <si>
+    <t>450 billion</t>
+  </si>
+  <si>
+    <t>500 billion</t>
+  </si>
+  <si>
+    <t>550 billion</t>
+  </si>
+  <si>
+    <t>The government defers PKR 500 billion in debt payments.</t>
+  </si>
+  <si>
+    <t>If a company's revenue is R(p)=500p−2p2R(p) = 500p - 2p^2R(p)=500p−2p2, what is the rate of change of revenue at a price of $50?</t>
+  </si>
+  <si>
+    <t>Derivative R′(p)=500−4pR'(p) = 500 - 4pR′(p)=500−4p, at p=50p = 50p=50, R′(50)=300R'(50) = 300R′(50)=300.</t>
+  </si>
+  <si>
+    <t>The profit function is P(x)=−x2+10x−5P(x) = -x^2 + 10x - 5P(x)=−x2+10x−5. What is the number of units that maximizes profit?</t>
+  </si>
+  <si>
+    <t>Set P′(x)=0P'(x) = 0P′(x)=0, solving gives x=5x = 5x=5.</t>
+  </si>
+  <si>
+    <t>The GDP function is GDP(t)=5000t2+2000GDP(t) = 5000t^2 + 2000GDP(t)=5000t2+2000. What is the rate of change of GDP at time t=3t = 3t=3?</t>
+  </si>
+  <si>
+    <t>Derivative GDP′(t)=10000tGDP'(t) = 10000tGDP′(t)=10000t, at t=3t = 3t=3, GDP′(3)=30000GDP'(3) = 30000GDP′(3)=30000.</t>
+  </si>
+  <si>
+    <t>If the price level function is P(t)=2t2+100t+50P(t) = 2t^2 + 100t + 50P(t)=2t2+100t+50, what is the inflation rate at t=3t = 3t=3?</t>
+  </si>
+  <si>
+    <t>Derivative P′(t)=4t+100P'(t) = 4t + 100P′(t)=4t+100, at t=3t = 3t=3, P′(3)=112P'(3) = 112P′(3)=112.</t>
+  </si>
+  <si>
+    <t>The government budget function is B(t)=3t2−2t+200B(t) = 3t^2 - 2t + 200B(t)=3t2−2t+200. What is the rate of change in the budget at t=5t = 5t=5?</t>
+  </si>
+  <si>
+    <t>Derivative B′(t)=6t−2B'(t) = 6t - 2B′(t)=6t−2, at t=5t = 5t=5, B′(5)=28B'(5) = 28B′(5)=28.</t>
+  </si>
+  <si>
+    <t>Basic Math-2</t>
+  </si>
+  <si>
+    <t>Fcctorization or Equation</t>
+  </si>
+  <si>
+    <t>What are the factors of the equation x2−5x+6=0x^2 - 5x + 6 = 0x2−5x+6=0?</t>
+  </si>
+  <si>
+    <t>(x−1)(x−6)(x - 1)(x - 6)(x−1)(x−6)</t>
+  </si>
+  <si>
+    <t>(x−2)(x−3)(x - 2)(x - 3)(x−2)(x−3)</t>
+  </si>
+  <si>
+    <t>(x+2)(x+3)(x + 2)(x + 3)(x+2)(x+3)</t>
+  </si>
+  <si>
+    <t>(x+1)(x+6)(x + 1)(x + 6)(x+1)(x+6)</t>
+  </si>
+  <si>
+    <t>Factoring x2−5x+6=0x^2 - 5x + 6 = 0x2−5x+6=0 gives (x−2)(x−3)(x - 2)(x - 3)(x−2)(x−3).</t>
+  </si>
+  <si>
+    <t>Factor the quadratic equation x2+4x−5=0x^2 + 4x - 5 = 0x2+4x−5=0.</t>
+  </si>
+  <si>
+    <t>(x+5)(x−1)(x + 5)(x - 1)(x+5)(x−1)</t>
+  </si>
+  <si>
+    <t>(x−5)(x+1)(x - 5)(x + 1)(x−5)(x+1)</t>
+  </si>
+  <si>
+    <t>(x+1)(x−5)(x + 1)(x - 5)(x+1)(x−5)</t>
+  </si>
+  <si>
+    <t>(x−1)(x+5)(x - 1)(x + 5)(x−1)(x+5)</t>
+  </si>
+  <si>
+    <t>Factoring x2+4x−5=0x^2 + 4x - 5 = 0x2+4x−5=0 gives (x+5)(x−1)(x + 5)(x - 1)(x+5)(x−1).</t>
+  </si>
+  <si>
+    <t>The government budget function is B(x)=x2−7x+12B(x) = x^2 - 7x + 12B(x)=x2−7x+12. What are the factors?</t>
+  </si>
+  <si>
+    <t>(x−3)(x−4)(x - 3)(x - 4)(x−3)(x−4)</t>
+  </si>
+  <si>
+    <t>(x+3)(x+4)(x + 3)(x + 4)(x+3)(x+4)</t>
+  </si>
+  <si>
+    <t>(x−2)(x−6)(x - 2)(x - 6)(x−2)(x−6)</t>
+  </si>
+  <si>
+    <t>(x+2)(x−6)(x + 2)(x - 6)(x+2)(x−6)</t>
+  </si>
+  <si>
+    <t>Factoring x2−7x+12=0x^2 - 7x + 12 = 0x2−7x+12=0 gives (x−3)(x−4)(x - 3)(x - 4)(x−3)(x−4).</t>
+  </si>
+  <si>
+    <t>Factor the equation t2+6t+8=0t^2 + 6t + 8 = 0t2+6t+8=0.</t>
+  </si>
+  <si>
+    <t>(t+2)(t+4)(t + 2)(t + 4)(t+2)(t+4)</t>
+  </si>
+  <si>
+    <t>(t−2)(t−4)(t - 2)(t - 4)(t−2)(t−4)</t>
+  </si>
+  <si>
+    <t>(t+1)(t+8)(t + 1)(t + 8)(t+1)(t+8)</t>
+  </si>
+  <si>
+    <t>(t−1)(t−8)(t - 1)(t - 8)(t−1)(t−8)</t>
+  </si>
+  <si>
+    <t>Factoring t2+6t+8=0t^2 + 6t + 8 = 0t2+6t+8=0 gives (t+2)(t+4)(t + 2)(t + 4)(t+2)(t+4).</t>
+  </si>
+  <si>
+    <t>The cost function of a company is x2−4x−12=0x^2 - 4x - 12 = 0x2−4x−12=0. What are the factors?</t>
+  </si>
+  <si>
+    <t>(x−6)(x+2)(x - 6)(x + 2)(x−6)(x+2)</t>
+  </si>
+  <si>
+    <t>(x+6)(x−2)(x + 6)(x - 2)(x+6)(x−2)</t>
+  </si>
+  <si>
+    <t>(x−12)(x+1)(x - 12)(x + 1)(x−12)(x+1)</t>
+  </si>
+  <si>
+    <t>(x+1)(x−12)(x + 1)(x - 12)(x+1)(x−12)</t>
+  </si>
+  <si>
+    <t>Factoring x2−4x−12=0x^2 - 4x - 12 = 0x2−4x−12=0 gives (x−6)(x+2)(x - 6)(x + 2)(x−6)(x+2).</t>
+  </si>
+  <si>
+    <t>What are the solutions of x2+5x+6=0x^2 + 5x + 6 = 0x2+5x+6=0?</t>
+  </si>
+  <si>
+    <t>x=−2,−3x = -2, -3x=−2,−3</t>
+  </si>
+  <si>
+    <t>x=2,3x = 2, 3x=2,3</t>
+  </si>
+  <si>
+    <t>x=−1,−6x = -1, -6x=−1,−6</t>
+  </si>
+  <si>
+    <t>x=1,6x = 1, 6x=1,6</t>
+  </si>
+  <si>
+    <t>Factoring gives the solutions x=−2x = -2x=−2 and x=−3x = -3x=−3.</t>
+  </si>
+  <si>
+    <t>Solve x2+6x−7=0x^2 + 6x - 7 = 0x2+6x−7=0 by completing the square.</t>
+  </si>
+  <si>
+    <t>x=1,−7x = 1, -7x=1,−7</t>
+  </si>
+  <si>
+    <t>x=7,1x = 7, 1x=7,1</t>
+  </si>
+  <si>
+    <t>x=−1,7x = -1, 7x=−1,7</t>
+  </si>
+  <si>
+    <t>x=−7,1x = -7, 1x=−7,1</t>
+  </si>
+  <si>
+    <t>Completing the square gives the solutions x=1x = 1x=1 and x=−7x = -7x=−7.</t>
+  </si>
+  <si>
+    <t>What is the solution of 2x2+3x−5=02x^2 + 3x - 5 = 02x2+3x−5=0 using the quadratic formula?</t>
+  </si>
+  <si>
+    <t>x=1,−2.5x = 1, -2.5x=1,−2.5</t>
+  </si>
+  <si>
+    <t>x=2,5x = 2, 5x=2,5</t>
+  </si>
+  <si>
+    <t>x=−1,2x = -1, 2x=−1,2</t>
+  </si>
+  <si>
+    <t>x=−5,1x = -5, 1x=−5,1</t>
+  </si>
+  <si>
+    <t>Using the quadratic formula gives the solutions x=1x = 1x=1 and x=−2.5x = -2.5x=−2.5.</t>
+  </si>
+  <si>
+    <t>Solve x2−4x−12=0x^2 - 4x - 12 = 0x2−4x−12=0 by factorization.</t>
+  </si>
+  <si>
+    <t>x=6,−2x = 6, -2x=6,−2</t>
+  </si>
+  <si>
+    <t>x=−6,2x = -6, 2x=−6,2</t>
+  </si>
+  <si>
+    <t>x=3,−4x = 3, -4x=3,−4</t>
+  </si>
+  <si>
+    <t>x=2,−6x = 2, -6x=2,−6</t>
+  </si>
+  <si>
+    <t>Factorization gives the solutions x=6x = 6x=6 and x=−2x = -2x=−2.</t>
+  </si>
+  <si>
+    <t>The company’s profit equation is P(x)=−2x2+12x−20P(x) = -2x^2 + 12x - 20P(x)=−2x2+12x−20. What are the break-even points?</t>
+  </si>
+  <si>
+    <t>x=3,4x = 3, 4x=3,4</t>
+  </si>
+  <si>
+    <t>x=4,6x = 4, 6x=4,6</t>
+  </si>
+  <si>
+    <t>Solving the equation P(x)=0P(x) = 0P(x)=0 gives break-even points x=2x = 2x=2 and x=5x = 5x=5.</t>
+  </si>
+  <si>
+    <t>What is the simple interest on PKR 5,000 at 6% for 2 years?</t>
+  </si>
+  <si>
+    <t>If you invest PKR 15,000 at 8% for 3 years, what is the compound interest?</t>
+  </si>
+  <si>
+    <t>What is the total amount after 2 years if you invest PKR 7,000 at 10% simple interest?</t>
+  </si>
+  <si>
+    <t>What will be the total amount after 3 years if you invest PKR 20,000 at 5% interest compounded quarterly?</t>
+  </si>
+  <si>
+    <t>The formula for compound interest gives a total of PKR 23,150.</t>
+  </si>
+  <si>
+    <t>A company borrows PKR 50,000 at 12% simple interest for 5 years. What is the total repayment?</t>
+  </si>
+  <si>
+    <t>What is the compound interest on PKR 12,000 at 10% for 2 years, compounded annually?</t>
+  </si>
+  <si>
+    <t>What is the simple interest on PKR 25,000 at 9% for 4 years?</t>
+  </si>
+  <si>
+    <t>What is the total amount after 1 year if you invest PKR 30,000 at 15% simple interest?</t>
+  </si>
+  <si>
+    <t>A savings account earns 4% annual interest, compounded monthly. How much interest will you earn in 1 year on PKR 10,000?</t>
+  </si>
+  <si>
+    <t>What will be the compound interest on PKR 100,000 at 6% for 5 years, compounded quarterly?</t>
+  </si>
+  <si>
+    <t>A loan of PKR 40,000 is taken at 8% annual interest for 3 years. What is the total repayment with simple interest?</t>
+  </si>
+  <si>
+    <t>What is the compound interest on PKR 8,000 at 7% annual interest compounded quarterly for 4 years?</t>
+  </si>
+  <si>
+    <t>Simple Interest is 5,000 × 0.06 × 2 = 600.</t>
+  </si>
+  <si>
+    <t>Compound Interest is calculated using the formula for CI, answer is PKR 3,321.</t>
+  </si>
+  <si>
+    <t>Total Amount is 7,000 + (7,000 × 0.10 × 2) = 8,400.</t>
+  </si>
+  <si>
+    <t>Total repayment after 5 years is 50,000 + (50,000 × 0.12 × 5) = 60,000.</t>
+  </si>
+  <si>
+    <t>Compound Interest = 12,000 × (1 + 0.10)^2 - 12,000 = 2,500.</t>
+  </si>
+  <si>
+    <t>Simple Interest = 25,000 × 0.09 × 4 = 9,000.</t>
+  </si>
+  <si>
+    <t>Total Amount = 30,000 + (30,000 × 0.15 × 1) = 34,500.</t>
+  </si>
+  <si>
+    <t>Compound interest = 10,000 × (1 + 0.04/12)^12 - 10,000 = 412.</t>
+  </si>
+  <si>
+    <t>Compound Interest = 100,000 × (1 + 0.06/4)^(4×5) - 100,000 = 33,000.</t>
+  </si>
+  <si>
+    <t>Total Repayment = 40,000 + (40,000 × 0.08 × 3) = 46,000.</t>
+  </si>
+  <si>
+    <t>Compound Interest = 8,000 × (1 + 0.07/4)^(4×4) - 8,000 = 2,400.</t>
+  </si>
+  <si>
+    <t>What is the future value of PKR 500,000 invested at 6% for 3 years?</t>
+  </si>
+  <si>
+    <t>Future Value is 500,000 × (1 + 0.06)^3 = 594,000.</t>
+  </si>
+  <si>
+    <t>What is the present value of PKR 1,200,000 to be paid in 5 years at 8% interest?</t>
+  </si>
+  <si>
+    <t>Present Value = 1,200,000 / (1 + 0.08)^5 = 812,000.</t>
+  </si>
+  <si>
+    <t>If PKR 250,000 is invested at 5% interest annually for 2 years, what is the future value?</t>
+  </si>
+  <si>
+    <t>Future Value = 250,000 × (1 + 0.05)^2 = 275,000.</t>
+  </si>
+  <si>
+    <t>What is the present value of PKR 700,000 due in 4 years at 10% interest?</t>
+  </si>
+  <si>
+    <t>Present Value = 700,000 / (1 + 0.10)^4 = 474,000.</t>
+  </si>
+  <si>
+    <t>If a loan of PKR 1,000,000 is to be paid after 3 years at 12% interest, what is the present value?</t>
+  </si>
+  <si>
+    <t>Present Value = 1,000,000 / (1 + 0.12)^3 = 711,780.</t>
+  </si>
+  <si>
+    <t>What will be the future value of PKR 800,000 at 7% annual interest after 2 years?</t>
+  </si>
+  <si>
+    <t>Future Value = 800,000 × (1 + 0.07)^2 = 912,000.</t>
+  </si>
+  <si>
+    <t>What is the present value of PKR 450,000 to be received in 2 years at 6% interest?</t>
+  </si>
+  <si>
+    <t>Present Value = 450,000 / (1 + 0.06)^2 = 402,500.</t>
+  </si>
+  <si>
+    <t>What will be the future value of PKR 300,000 invested at 9% annually for 4 years?</t>
+  </si>
+  <si>
+    <t>Future Value = 300,000 × (1 + 0.09)^4 = 400,000.</t>
+  </si>
+  <si>
+    <t>How much is PKR 100,000 worth today if it will be received in 6 years with 5% interest?</t>
+  </si>
+  <si>
+    <t>Present Value = 100,000 / (1 + 0.05)^6 = 74,560.</t>
+  </si>
+  <si>
+    <t>What is the future value of PKR 1,000,000 at 15% interest for 3 years?</t>
+  </si>
+  <si>
+    <t>Future Value = 1,000,000 × (1 + 0.15)^3 = 1,522,000.</t>
+  </si>
+  <si>
+    <t>What is the area of a rectangle with length 60m and width 25m?</t>
+  </si>
+  <si>
+    <t>Area = 60 × 25 = 1500 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a square with each side measuring 10m?</t>
+  </si>
+  <si>
+    <t>Area = 10² = 100 m².</t>
+  </si>
+  <si>
+    <t>A triangle has a base of 50 meters and height of 20 meters. What is its area?</t>
+  </si>
+  <si>
+    <t>Area = (1/2) × 50 × 20 = 500 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a circle with radius 7 meters?</t>
+  </si>
+  <si>
+    <t>Area = π × 7² = 153.94 m².</t>
+  </si>
+  <si>
+    <t>A triangular plot has a base of 80 meters and height of 30 meters. What is its area?</t>
+  </si>
+  <si>
+    <t>Area = (1/2) × 80 × 30 = 1200 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a rectangular field with length 150 meters and width 120 meters?</t>
+  </si>
+  <si>
+    <t>Area = 150 × 120 = 18000 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a square with a side of 25 meters?</t>
+  </si>
+  <si>
+    <t>Area = 25² = 625 m².</t>
+  </si>
+  <si>
+    <t>A park has a circular area with a radius of 20 meters. What is its area?</t>
+  </si>
+  <si>
+    <t>Area = π × 20² = 1256.64 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a triangle with base 90 meters and height 50 meters?</t>
+  </si>
+  <si>
+    <t>Area = (1/2) × 90 × 50 = 2250 m².</t>
+  </si>
+  <si>
+    <t>What is the area of a rectangular garden with length 40m and width 30m?</t>
+  </si>
+  <si>
+    <t>Area = 40 × 30 = 1200 m².</t>
+  </si>
+  <si>
+    <t>Financial Math</t>
+  </si>
+  <si>
+    <t>Geometry and Trigonometry</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circle with a radius of 10 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 10 = 62.832 meters.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circle with a diameter of 50 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 3.1416 × 50 = 157.080 meters.</t>
+  </si>
+  <si>
+    <t>A circular garden has a radius of 30 meters. What is its circumference?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 30 = 188.496 meters.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circular pond with a diameter of 120 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 3.1416 × 120 = 376.992 meters.</t>
+  </si>
+  <si>
+    <t>A circular track has a radius of 40 meters. What is the circumference?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 40 = 251.327 meters.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a wheel with a radius of 10 cm?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 10 = 62.832 cm.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circular field with a diameter of 75 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 3.1416 × 75 = 235.620 meters.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circular fence with a radius of 18 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 18 = 113.097 meters.</t>
+  </si>
+  <si>
+    <t>A roundabout has a diameter of 15 meters. What is its circumference?</t>
+  </si>
+  <si>
+    <t>Circumference = 3.1416 × 15 = 47.124 meters.</t>
+  </si>
+  <si>
+    <t>What is the circumference of a circular sports field with a radius of 50 meters?</t>
+  </si>
+  <si>
+    <t>Circumference = 2 × 3.1416 × 50 = 314.160 meters.</t>
+  </si>
+  <si>
+    <t>What is the formula for the area of a circle?</t>
+  </si>
+  <si>
+    <t>The area of a circle is calculated by multiplying pi by the square of the radius.</t>
+  </si>
+  <si>
+    <t>How is the volume of a triangular prism calculated?</t>
+  </si>
+  <si>
+    <t>The volume of a triangular prism is the area of the triangle base multiplied by the height (length of the prism).</t>
+  </si>
+  <si>
+    <t>What is the formula for the area of a square?</t>
+  </si>
+  <si>
+    <t>The area of a square is calculated by squaring the side length.</t>
+  </si>
+  <si>
+    <t>In which situation would you use the volume formula of a rectangular prism?</t>
+  </si>
+  <si>
+    <t>When calculating the amount of water in a reservoir</t>
+  </si>
+  <si>
+    <t>When calculating the space inside a building</t>
+  </si>
+  <si>
+    <t>When calculating the area of a floor</t>
+  </si>
+  <si>
+    <t>When calculating the height of a tree</t>
+  </si>
+  <si>
+    <t>The volume formula of a rectangular prism is useful for determining the capacity of a space inside a structure.</t>
+  </si>
+  <si>
+    <t>What is the purpose of volume calculations in construction?</t>
+  </si>
+  <si>
+    <t>To determine how much material is needed</t>
+  </si>
+  <si>
+    <t>To measure land area</t>
+  </si>
+  <si>
+    <t>To calculate interest on loans</t>
+  </si>
+  <si>
+    <t>To calculate building height</t>
+  </si>
+  <si>
+    <t>In construction, volume calculations help estimate the quantity of materials (like concrete) needed for a project.</t>
+  </si>
+  <si>
+    <t>How does the government use geometry in urban planning?</t>
+  </si>
+  <si>
+    <t>To design roadways and buildings</t>
+  </si>
+  <si>
+    <t>To determine stock market trends</t>
+  </si>
+  <si>
+    <t>To calculate tax rates</t>
+  </si>
+  <si>
+    <t>To monitor agricultural growth</t>
+  </si>
+  <si>
+    <t>In urban planning, geometry is essential for designing efficient road networks and buildings, ensuring safe and functional spaces.</t>
+  </si>
+  <si>
+    <t>What volume calculation would be used for a water tank shaped like a cylinder?</t>
+  </si>
+  <si>
+    <t>A cylindrical water tank's volume is calculated by the formula for the volume of a cylinder, using the radius and height.</t>
+  </si>
+  <si>
+    <t>What is the formula for the volume of a rectangular prism?</t>
+  </si>
+  <si>
+    <t>The volume of a rectangular prism is calculated by multiplying the length, width, and height.</t>
+  </si>
+  <si>
+    <t>What is the formula for the area of a triangle?</t>
+  </si>
+  <si>
+    <t>1/2 * base * height</t>
+  </si>
+  <si>
+    <t>base * height</t>
+  </si>
+  <si>
+    <t>pi * r^2</t>
+  </si>
+  <si>
+    <t>2 * base * height</t>
+  </si>
+  <si>
+    <t>The area of a triangle is calculated by multiplying half of the base by the height.</t>
+  </si>
+  <si>
+    <t>What is the volume formula for a cylinder?</t>
+  </si>
+  <si>
+    <t>pi * r^2 * height</t>
+  </si>
+  <si>
+    <t>length * width * height</t>
+  </si>
+  <si>
+    <t>2 * r * height</t>
+  </si>
+  <si>
+    <t>The volume of a cylinder is determined by the area of the circle base multiplied by its height.</t>
+  </si>
+  <si>
+    <t>What is the volume of a cube?</t>
+  </si>
+  <si>
+    <t>side^3</t>
+  </si>
+  <si>
+    <t>2 * side^2</t>
+  </si>
+  <si>
+    <t>The volume of a cube is the side length cubed.</t>
+  </si>
+  <si>
+    <t>How do you calculate the area of a rectangle?</t>
+  </si>
+  <si>
+    <t>length * width</t>
+  </si>
+  <si>
+    <t>side^2</t>
+  </si>
+  <si>
+    <t>The area of a rectangle is calculated by multiplying its length by its width.</t>
+  </si>
+  <si>
+    <t>2 * r</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>Area of Triangle * Length</t>
+  </si>
+  <si>
+    <t>1/2 * base * height * Length</t>
+  </si>
+  <si>
+    <t>The volume of a cylinder is determined by pi times the square of the radius multiplied by the height.</t>
+  </si>
+  <si>
+    <t>What is the volume formula for a rectangular box (prism)?</t>
+  </si>
+  <si>
+    <t>The volume of a box is calculated by multiplying its length, width, and height.</t>
+  </si>
+  <si>
+    <t>What is the volume formula for a pentagonal prism?</t>
+  </si>
+  <si>
+    <t>1/2 * 5 * side * height * h</t>
+  </si>
+  <si>
+    <t>3 * sqrt(3) * side^2 * height</t>
+  </si>
+  <si>
+    <t>The volume of a pentagonal prism is calculated using the formula for a regular pentagon base multiplied by its height.</t>
+  </si>
+  <si>
+    <t>What is the volume formula for a hexagonal prism?</t>
+  </si>
+  <si>
+    <t>3 * sqrt(3) / 2 * side^2 * height</t>
+  </si>
+  <si>
+    <t>The volume of a hexagonal prism is determined by multiplying the area of a hexagonal base by the height of the prism.</t>
+  </si>
+  <si>
+    <t>How do businesses use volume calculations in warehousing?</t>
+  </si>
+  <si>
+    <t>To determine storage capacity</t>
+  </si>
+  <si>
+    <t>To calculate the area of a room</t>
+  </si>
+  <si>
+    <t>To determine shipping costs</t>
+  </si>
+  <si>
+    <t>To measure customer demand</t>
+  </si>
+  <si>
+    <t>Businesses use volume calculations to maximize the use of warehouse space and optimize storage and logistics.</t>
+  </si>
+  <si>
+    <t>How does the government use volume calculations in water management?</t>
+  </si>
+  <si>
+    <t>To determine water tank capacities</t>
+  </si>
+  <si>
+    <t>To calculate flood risks</t>
+  </si>
+  <si>
+    <t>To measure irrigation requirements</t>
+  </si>
+  <si>
+    <t>To plan water supply networks</t>
+  </si>
+  <si>
+    <t>Government projects in water supply and irrigation require volume calculations to ensure adequate storage and distribution of water.</t>
+  </si>
+  <si>
+    <t>How are pentagonal shapes used in government projects?</t>
+  </si>
+  <si>
+    <t>In unique architectural designs</t>
+  </si>
+  <si>
+    <t>For road design</t>
+  </si>
+  <si>
+    <t>For agricultural planning</t>
+  </si>
+  <si>
+    <t>For economic analysis</t>
+  </si>
+  <si>
+    <t>Pentagonal shapes are often used in government architecture, such as the Pakistan Monument in Islamabad.</t>
+  </si>
+  <si>
+    <t>How does urban planning benefit from hexagonal shapes?</t>
+  </si>
+  <si>
+    <t>For efficient use of space</t>
+  </si>
+  <si>
+    <t>For road mapping</t>
+  </si>
+  <si>
+    <t>For environmental studies</t>
+  </si>
+  <si>
+    <t>For historical preservation</t>
+  </si>
+  <si>
+    <t>Hexagonal shapes are used in urban planning for efficient use of space, like in parks or tiling.</t>
+  </si>
+  <si>
+    <t>What is the practical application of volume calculations for cylindrical tanks?</t>
+  </si>
+  <si>
+    <t>In water storage projects</t>
+  </si>
+  <si>
+    <t>In electricity generation</t>
+  </si>
+  <si>
+    <t>In transportation logistics</t>
+  </si>
+  <si>
+    <t>In data management</t>
+  </si>
+  <si>
+    <t>Cylindrical tanks are used in water storage projects to calculate the volume of water that can be held.</t>
+  </si>
+  <si>
+    <t>How do you calculate the volume of a rectangular prism?</t>
+  </si>
+  <si>
+    <t>The volume of a rectangular prism is found by multiplying its length, width, and height.</t>
   </si>
 </sst>
 </file>
@@ -2131,11 +3307,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2478,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3852,43 +5030,43 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>580</v>
       </c>
-      <c r="C32" s="9">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>581</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" t="s">
         <v>582</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C33" s="9">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>581</v>
       </c>
       <c r="G33" s="2">
@@ -3906,24 +5084,24 @@
       <c r="L33" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C34" s="9">
-        <v>20</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>581</v>
       </c>
       <c r="G34" s="6">
@@ -3944,24 +5122,24 @@
       <c r="L34" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C35" s="9">
-        <v>20</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>581</v>
       </c>
       <c r="G35" s="7">
@@ -3982,24 +5160,24 @@
       <c r="L35" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C36" s="9">
-        <v>20</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>581</v>
       </c>
       <c r="G36" s="6">
@@ -4020,24 +5198,24 @@
       <c r="L36" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C37" s="9">
-        <v>20</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>581</v>
       </c>
       <c r="G37" s="7">
@@ -4058,24 +5236,24 @@
       <c r="L37" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="9">
-        <v>20</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>581</v>
       </c>
       <c r="G38" s="7">
@@ -4097,20 +5275,20 @@
         <v>594</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="9">
-        <v>20</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>581</v>
       </c>
       <c r="G39" s="6">
@@ -4132,20 +5310,20 @@
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C40" s="9">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
         <v>581</v>
       </c>
       <c r="G40" s="6">
@@ -4167,20 +5345,20 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C41" s="9">
-        <v>20</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
         <v>581</v>
       </c>
       <c r="G41" s="6">
@@ -4202,20 +5380,20 @@
         <v>601</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C42" s="9">
-        <v>20</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>581</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -4237,20 +5415,20 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C43" s="9">
-        <v>20</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>581</v>
       </c>
       <c r="G43" s="6">
@@ -4272,20 +5450,20 @@
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C44" s="9">
-        <v>20</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
         <v>581</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -4307,20 +5485,20 @@
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C45" s="9">
-        <v>20</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>581</v>
       </c>
       <c r="G45" s="2">
@@ -4342,55 +5520,55 @@
         <v>617</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C46" s="9">
-        <v>20</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
         <v>581</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>30050</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>30000.5</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>30500</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>30250.5</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="9">
         <v>30050</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C47" s="9">
-        <v>20</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
         <v>581</v>
       </c>
       <c r="G47" s="2">
@@ -4412,55 +5590,55 @@
         <v>621</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C48" s="9">
-        <v>20</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>581</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>537500</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>525000</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>535000</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>530000</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <v>537500</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="9">
-        <v>20</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
         <v>581</v>
       </c>
       <c r="G49" s="6">
@@ -4482,55 +5660,55 @@
         <v>625</v>
       </c>
     </row>
-    <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C50" s="9">
-        <v>20</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
         <v>581</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <v>3455</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>3450.5</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>3400</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>3500</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="9">
         <v>3455</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C51" s="9">
-        <v>20</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>581</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -4552,20 +5730,20 @@
         <v>633</v>
       </c>
     </row>
-    <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C52" s="9">
-        <v>20</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>581</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4587,20 +5765,20 @@
         <v>639</v>
       </c>
     </row>
-    <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C53" s="9">
-        <v>20</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
         <v>581</v>
       </c>
       <c r="G53" s="6">
@@ -4622,20 +5800,20 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C54" s="9">
-        <v>20</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
         <v>581</v>
       </c>
       <c r="G54" s="6">
@@ -4657,20 +5835,20 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C55" s="9">
-        <v>20</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>581</v>
       </c>
       <c r="G55" s="2">
@@ -4692,20 +5870,20 @@
         <v>645</v>
       </c>
     </row>
-    <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C56" s="9">
-        <v>20</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
         <v>581</v>
       </c>
       <c r="G56" s="2">
@@ -4727,20 +5905,20 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C57" s="9">
-        <v>20</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>581</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4762,20 +5940,20 @@
         <v>653</v>
       </c>
     </row>
-    <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C58" s="9">
-        <v>20</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
         <v>581</v>
       </c>
       <c r="G58" s="2">
@@ -4797,20 +5975,20 @@
         <v>655</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C59" s="9">
-        <v>20</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
         <v>581</v>
       </c>
       <c r="G59" s="2">
@@ -4832,20 +6010,20 @@
         <v>657</v>
       </c>
     </row>
-    <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C60" s="9">
-        <v>20</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
         <v>581</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -4867,20 +6045,20 @@
         <v>663</v>
       </c>
     </row>
-    <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C61" s="9">
-        <v>20</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
         <v>581</v>
       </c>
       <c r="G61" s="2">
@@ -4902,20 +6080,20 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C62" s="9">
-        <v>20</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>581</v>
       </c>
       <c r="G62" s="2">
@@ -6599,110 +7777,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C16CDD-8999-4874-AAD7-46BDB6D7E524}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD62"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="9"/>
-    <col min="4" max="4" width="19.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="9"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9">
-        <v>20</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -6710,43 +7885,43 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -6754,43 +7929,43 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -6798,43 +7973,43 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -6842,43 +8017,43 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -6886,43 +8061,43 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -6930,43 +8105,43 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="9">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -6974,43 +8149,43 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="9">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
       <c r="N9" s="5" t="s">
@@ -7018,43 +8193,43 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="9">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -7062,43 +8237,43 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="9">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -7106,43 +8281,43 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="9">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" t="s">
         <v>29</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -7150,43 +8325,43 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="9">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" t="s">
         <v>29</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -7194,43 +8369,43 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="9">
-        <v>20</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" t="s">
         <v>29</v>
       </c>
       <c r="N14" s="5" t="s">
@@ -7238,43 +8413,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="9">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -7282,43 +8457,43 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="9">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -7326,43 +8501,43 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="9">
-        <v>20</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" t="s">
         <v>29</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -7370,43 +8545,43 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="9">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -7414,43 +8589,43 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="9">
-        <v>20</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -7458,43 +8633,43 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="9">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" t="s">
         <v>29</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -7502,43 +8677,43 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="9">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -7546,43 +8721,43 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="9">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" t="s">
         <v>141</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" t="s">
         <v>29</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -7590,43 +8765,43 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="9">
-        <v>20</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" t="s">
         <v>144</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" t="s">
         <v>148</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" t="s">
         <v>29</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -7634,43 +8809,43 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="5" t="s">
@@ -7678,43 +8853,43 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="9">
-        <v>20</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" t="s">
         <v>156</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" t="s">
         <v>160</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" s="5" t="s">
@@ -7722,43 +8897,43 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="9">
-        <v>20</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" t="s">
         <v>29</v>
       </c>
       <c r="N26" s="5" t="s">
@@ -7766,43 +8941,43 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="9">
-        <v>20</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" t="s">
         <v>170</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" t="s">
         <v>29</v>
       </c>
       <c r="N27" s="5" t="s">
@@ -7810,43 +8985,43 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="9">
-        <v>20</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" t="s">
         <v>176</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" t="s">
         <v>174</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" t="s">
         <v>29</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -7854,43 +9029,43 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="9">
-        <v>20</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" t="s">
         <v>181</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" t="s">
         <v>182</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" t="s">
         <v>184</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" t="s">
         <v>29</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -7898,43 +9073,43 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="9">
-        <v>20</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" t="s">
         <v>186</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" t="s">
         <v>29</v>
       </c>
       <c r="N30" s="5" t="s">
@@ -7942,43 +9117,43 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="9">
-        <v>20</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" t="s">
         <v>195</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" t="s">
         <v>196</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="5" t="s">
@@ -7986,25 +9161,25 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>580</v>
       </c>
-      <c r="C32" s="9">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>581</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" t="s">
         <v>582</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8012,16 +9187,16 @@
       <c r="B33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C33" s="9">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>581</v>
       </c>
       <c r="G33" s="2">
@@ -8039,7 +9214,7 @@
       <c r="L33" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8047,16 +9222,16 @@
       <c r="B34" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C34" s="9">
-        <v>20</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>581</v>
       </c>
       <c r="G34" s="6">
@@ -8077,7 +9252,7 @@
       <c r="L34" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8085,16 +9260,16 @@
       <c r="B35" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C35" s="9">
-        <v>20</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>581</v>
       </c>
       <c r="G35" s="7">
@@ -8115,7 +9290,7 @@
       <c r="L35" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8123,16 +9298,16 @@
       <c r="B36" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C36" s="9">
-        <v>20</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>581</v>
       </c>
       <c r="G36" s="6">
@@ -8153,7 +9328,7 @@
       <c r="L36" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8161,16 +9336,16 @@
       <c r="B37" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C37" s="9">
-        <v>20</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>581</v>
       </c>
       <c r="G37" s="7">
@@ -8191,7 +9366,7 @@
       <c r="L37" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8199,16 +9374,16 @@
       <c r="B38" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="9">
-        <v>20</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>581</v>
       </c>
       <c r="G38" s="7">
@@ -8234,16 +9409,16 @@
       <c r="B39" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="9">
-        <v>20</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>581</v>
       </c>
       <c r="G39" s="6">
@@ -8269,16 +9444,16 @@
       <c r="B40" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C40" s="9">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
         <v>581</v>
       </c>
       <c r="G40" s="6">
@@ -8304,16 +9479,16 @@
       <c r="B41" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C41" s="9">
-        <v>20</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
         <v>581</v>
       </c>
       <c r="G41" s="6">
@@ -8339,16 +9514,16 @@
       <c r="B42" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C42" s="9">
-        <v>20</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>581</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -8374,16 +9549,16 @@
       <c r="B43" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C43" s="9">
-        <v>20</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>581</v>
       </c>
       <c r="G43" s="6">
@@ -8409,16 +9584,16 @@
       <c r="B44" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C44" s="9">
-        <v>20</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
         <v>581</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -8444,16 +9619,16 @@
       <c r="B45" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C45" s="9">
-        <v>20</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>581</v>
       </c>
       <c r="G45" s="2">
@@ -8479,31 +9654,31 @@
       <c r="B46" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C46" s="9">
-        <v>20</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
         <v>581</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>30050</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>30000.5</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>30500</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>30250.5</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="9">
         <v>30050</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -8514,16 +9689,16 @@
       <c r="B47" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C47" s="9">
-        <v>20</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
         <v>581</v>
       </c>
       <c r="G47" s="2">
@@ -8549,31 +9724,31 @@
       <c r="B48" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C48" s="9">
-        <v>20</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
         <v>581</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>537500</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>525000</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>535000</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>530000</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <v>537500</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -8584,16 +9759,16 @@
       <c r="B49" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="9">
-        <v>20</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
         <v>581</v>
       </c>
       <c r="G49" s="6">
@@ -8619,31 +9794,31 @@
       <c r="B50" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C50" s="9">
-        <v>20</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
         <v>581</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <v>3455</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>3450.5</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>3400</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>3500</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="9">
         <v>3455</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -8654,16 +9829,16 @@
       <c r="B51" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C51" s="9">
-        <v>20</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>581</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -8689,16 +9864,16 @@
       <c r="B52" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C52" s="9">
-        <v>20</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>581</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -8724,16 +9899,16 @@
       <c r="B53" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C53" s="9">
-        <v>20</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
         <v>581</v>
       </c>
       <c r="G53" s="6">
@@ -8759,16 +9934,16 @@
       <c r="B54" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C54" s="9">
-        <v>20</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
         <v>581</v>
       </c>
       <c r="G54" s="6">
@@ -8794,16 +9969,16 @@
       <c r="B55" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C55" s="9">
-        <v>20</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>581</v>
       </c>
       <c r="G55" s="2">
@@ -8829,16 +10004,16 @@
       <c r="B56" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C56" s="9">
-        <v>20</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
         <v>581</v>
       </c>
       <c r="G56" s="2">
@@ -8864,16 +10039,16 @@
       <c r="B57" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C57" s="9">
-        <v>20</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>581</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -8899,16 +10074,16 @@
       <c r="B58" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C58" s="9">
-        <v>20</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
         <v>581</v>
       </c>
       <c r="G58" s="2">
@@ -8934,16 +10109,16 @@
       <c r="B59" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C59" s="9">
-        <v>20</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
         <v>581</v>
       </c>
       <c r="G59" s="2">
@@ -8969,16 +10144,16 @@
       <c r="B60" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C60" s="9">
-        <v>20</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
         <v>581</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -9004,16 +10179,16 @@
       <c r="B61" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C61" s="9">
-        <v>20</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
         <v>581</v>
       </c>
       <c r="G61" s="2">
@@ -9039,16 +10214,16 @@
       <c r="B62" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C62" s="9">
-        <v>20</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>581</v>
       </c>
       <c r="G62" s="2">
@@ -9070,7 +10245,4068 @@
         <v>667</v>
       </c>
     </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>821</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>821</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>821</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>821</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>821</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>821</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>821</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>821</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>821</v>
+      </c>
+      <c r="G71" s="10">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="H71" s="10">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="I71" s="10">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J71" s="10">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="K71" s="10">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>821</v>
+      </c>
+      <c r="G72" s="2">
+        <v>60</v>
+      </c>
+      <c r="H72" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" s="2">
+        <v>72</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>821</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>821</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>821</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>821</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>821</v>
+      </c>
+      <c r="G77" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" s="2">
+        <v>21</v>
+      </c>
+      <c r="I77" s="2">
+        <v>24</v>
+      </c>
+      <c r="J77" s="2">
+        <v>28</v>
+      </c>
+      <c r="K77" s="2">
+        <v>21</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>821</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>821</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>821</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>821</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>821</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>821</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>821</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>821</v>
+      </c>
+      <c r="G85" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H85" s="6">
+        <v>4000</v>
+      </c>
+      <c r="I85" s="6">
+        <v>4500</v>
+      </c>
+      <c r="J85" s="6">
+        <v>3800</v>
+      </c>
+      <c r="K85" s="6">
+        <v>4000</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>821</v>
+      </c>
+      <c r="G86" s="6">
+        <v>108000</v>
+      </c>
+      <c r="H86" s="6">
+        <v>110000</v>
+      </c>
+      <c r="I86" s="6">
+        <v>115000</v>
+      </c>
+      <c r="J86" s="6">
+        <v>112000</v>
+      </c>
+      <c r="K86" s="6">
+        <v>108000</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>821</v>
+      </c>
+      <c r="G87" s="6">
+        <v>190000</v>
+      </c>
+      <c r="H87" s="6">
+        <v>192000</v>
+      </c>
+      <c r="I87" s="6">
+        <v>195000</v>
+      </c>
+      <c r="J87" s="6">
+        <v>198000</v>
+      </c>
+      <c r="K87" s="6">
+        <v>190000</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>821</v>
+      </c>
+      <c r="G88" s="2">
+        <v>55</v>
+      </c>
+      <c r="H88" s="2">
+        <v>60</v>
+      </c>
+      <c r="I88" s="2">
+        <v>65</v>
+      </c>
+      <c r="J88" s="2">
+        <v>70</v>
+      </c>
+      <c r="K88" s="2">
+        <v>60</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>821</v>
+      </c>
+      <c r="G89" s="6">
+        <v>12500</v>
+      </c>
+      <c r="H89" s="6">
+        <v>12750</v>
+      </c>
+      <c r="I89" s="6">
+        <v>13000</v>
+      </c>
+      <c r="J89" s="6">
+        <v>13250</v>
+      </c>
+      <c r="K89" s="6">
+        <v>12750</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>821</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>821</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>821</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>821</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>821</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>821</v>
+      </c>
+      <c r="G95" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H95" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I95" s="6">
+        <v>15000</v>
+      </c>
+      <c r="J95" s="6">
+        <v>20000</v>
+      </c>
+      <c r="K95" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>821</v>
+      </c>
+      <c r="G96" s="6">
+        <v>40000</v>
+      </c>
+      <c r="H96" s="6">
+        <v>45000</v>
+      </c>
+      <c r="I96" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J96" s="6">
+        <v>55000</v>
+      </c>
+      <c r="K96" s="6">
+        <v>50000</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>821</v>
+      </c>
+      <c r="G97" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="I97" s="6">
+        <v>2000000000</v>
+      </c>
+      <c r="J97" s="6">
+        <v>3000000000</v>
+      </c>
+      <c r="K97" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>821</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>821</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>821</v>
+      </c>
+      <c r="G100" s="2">
+        <v>200</v>
+      </c>
+      <c r="H100" s="2">
+        <v>250</v>
+      </c>
+      <c r="I100" s="2">
+        <v>300</v>
+      </c>
+      <c r="J100" s="2">
+        <v>350</v>
+      </c>
+      <c r="K100" s="2">
+        <v>300</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>821</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3</v>
+      </c>
+      <c r="H101" s="2">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2">
+        <v>7</v>
+      </c>
+      <c r="J101" s="2">
+        <v>10</v>
+      </c>
+      <c r="K101" s="2">
+        <v>5</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>821</v>
+      </c>
+      <c r="G102" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H102" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I102" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J102" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K102" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>821</v>
+      </c>
+      <c r="G103" s="2">
+        <v>100</v>
+      </c>
+      <c r="H103" s="2">
+        <v>112</v>
+      </c>
+      <c r="I103" s="2">
+        <v>120</v>
+      </c>
+      <c r="J103" s="2">
+        <v>130</v>
+      </c>
+      <c r="K103" s="2">
+        <v>112</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>581</v>
+      </c>
+      <c r="G104" s="2">
+        <v>20</v>
+      </c>
+      <c r="H104" s="2">
+        <v>25</v>
+      </c>
+      <c r="I104" s="2">
+        <v>28</v>
+      </c>
+      <c r="J104" s="2">
+        <v>30</v>
+      </c>
+      <c r="K104" s="2">
+        <v>28</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G115" s="2">
+        <v>600</v>
+      </c>
+      <c r="H115" s="2">
+        <v>550</v>
+      </c>
+      <c r="I115" s="2">
+        <v>700</v>
+      </c>
+      <c r="J115" s="2">
+        <v>500</v>
+      </c>
+      <c r="K115" s="2">
+        <v>600</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G116" s="6">
+        <v>3456</v>
+      </c>
+      <c r="H116" s="6">
+        <v>3140</v>
+      </c>
+      <c r="I116" s="6">
+        <v>3321</v>
+      </c>
+      <c r="J116" s="6">
+        <v>3000</v>
+      </c>
+      <c r="K116" s="6">
+        <v>3321</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G117" s="6">
+        <v>8400</v>
+      </c>
+      <c r="H117" s="6">
+        <v>8000</v>
+      </c>
+      <c r="I117" s="6">
+        <v>7700</v>
+      </c>
+      <c r="J117" s="6">
+        <v>8200</v>
+      </c>
+      <c r="K117" s="6">
+        <v>8400</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G118" s="6">
+        <v>23150</v>
+      </c>
+      <c r="H118" s="6">
+        <v>22000</v>
+      </c>
+      <c r="I118" s="6">
+        <v>21500</v>
+      </c>
+      <c r="J118" s="6">
+        <v>23300</v>
+      </c>
+      <c r="K118" s="6">
+        <v>23150</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G119" s="6">
+        <v>60000</v>
+      </c>
+      <c r="H119" s="6">
+        <v>57000</v>
+      </c>
+      <c r="I119" s="6">
+        <v>65000</v>
+      </c>
+      <c r="J119" s="6">
+        <v>62000</v>
+      </c>
+      <c r="K119" s="6">
+        <v>60000</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G120" s="6">
+        <v>2400</v>
+      </c>
+      <c r="H120" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I120" s="6">
+        <v>2500</v>
+      </c>
+      <c r="J120" s="6">
+        <v>2600</v>
+      </c>
+      <c r="K120" s="6">
+        <v>2500</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G121" s="6">
+        <v>9000</v>
+      </c>
+      <c r="H121" s="6">
+        <v>8500</v>
+      </c>
+      <c r="I121" s="6">
+        <v>9500</v>
+      </c>
+      <c r="J121" s="6">
+        <v>8000</v>
+      </c>
+      <c r="K121" s="6">
+        <v>9000</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G122" s="6">
+        <v>34500</v>
+      </c>
+      <c r="H122" s="6">
+        <v>35000</v>
+      </c>
+      <c r="I122" s="6">
+        <v>31500</v>
+      </c>
+      <c r="J122" s="6">
+        <v>33000</v>
+      </c>
+      <c r="K122" s="6">
+        <v>34500</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G123" s="2">
+        <v>400</v>
+      </c>
+      <c r="H123" s="2">
+        <v>412</v>
+      </c>
+      <c r="I123" s="2">
+        <v>420</v>
+      </c>
+      <c r="J123" s="2">
+        <v>430</v>
+      </c>
+      <c r="K123" s="2">
+        <v>412</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G124" s="6">
+        <v>35000</v>
+      </c>
+      <c r="H124" s="6">
+        <v>33000</v>
+      </c>
+      <c r="I124" s="6">
+        <v>31500</v>
+      </c>
+      <c r="J124" s="6">
+        <v>30000</v>
+      </c>
+      <c r="K124" s="6">
+        <v>33000</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G125" s="6">
+        <v>46000</v>
+      </c>
+      <c r="H125" s="6">
+        <v>48000</v>
+      </c>
+      <c r="I125" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J125" s="6">
+        <v>47000</v>
+      </c>
+      <c r="K125" s="6">
+        <v>46000</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G126" s="6">
+        <v>2280</v>
+      </c>
+      <c r="H126" s="6">
+        <v>2300</v>
+      </c>
+      <c r="I126" s="6">
+        <v>2400</v>
+      </c>
+      <c r="J126" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K126" s="6">
+        <v>2400</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G127" s="6">
+        <v>594000</v>
+      </c>
+      <c r="H127" s="6">
+        <v>600000</v>
+      </c>
+      <c r="I127" s="6">
+        <v>620000</v>
+      </c>
+      <c r="J127" s="6">
+        <v>598000</v>
+      </c>
+      <c r="K127" s="6">
+        <v>594000</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G128" s="6">
+        <v>812000</v>
+      </c>
+      <c r="H128" s="6">
+        <v>850000</v>
+      </c>
+      <c r="I128" s="6">
+        <v>900000</v>
+      </c>
+      <c r="J128" s="6">
+        <v>950000</v>
+      </c>
+      <c r="K128" s="6">
+        <v>812000</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G129" s="6">
+        <v>275000</v>
+      </c>
+      <c r="H129" s="6">
+        <v>270000</v>
+      </c>
+      <c r="I129" s="6">
+        <v>260000</v>
+      </c>
+      <c r="J129" s="6">
+        <v>280000</v>
+      </c>
+      <c r="K129" s="6">
+        <v>275000</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G130" s="6">
+        <v>474000</v>
+      </c>
+      <c r="H130" s="6">
+        <v>490000</v>
+      </c>
+      <c r="I130" s="6">
+        <v>500000</v>
+      </c>
+      <c r="J130" s="6">
+        <v>450000</v>
+      </c>
+      <c r="K130" s="6">
+        <v>474000</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G131" s="6">
+        <v>711780</v>
+      </c>
+      <c r="H131" s="6">
+        <v>700000</v>
+      </c>
+      <c r="I131" s="6">
+        <v>750000</v>
+      </c>
+      <c r="J131" s="6">
+        <v>800000</v>
+      </c>
+      <c r="K131" s="6">
+        <v>711780</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G132" s="6">
+        <v>912000</v>
+      </c>
+      <c r="H132" s="6">
+        <v>850000</v>
+      </c>
+      <c r="I132" s="6">
+        <v>870000</v>
+      </c>
+      <c r="J132" s="6">
+        <v>900000</v>
+      </c>
+      <c r="K132" s="6">
+        <v>912000</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G133" s="6">
+        <v>402500</v>
+      </c>
+      <c r="H133" s="6">
+        <v>400000</v>
+      </c>
+      <c r="I133" s="6">
+        <v>410000</v>
+      </c>
+      <c r="J133" s="6">
+        <v>395000</v>
+      </c>
+      <c r="K133" s="6">
+        <v>402500</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G134" s="6">
+        <v>400000</v>
+      </c>
+      <c r="H134" s="6">
+        <v>420000</v>
+      </c>
+      <c r="I134" s="6">
+        <v>450000</v>
+      </c>
+      <c r="J134" s="6">
+        <v>380000</v>
+      </c>
+      <c r="K134" s="6">
+        <v>400000</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G135" s="2">
+        <v>74560</v>
+      </c>
+      <c r="H135" s="2">
+        <v>70000</v>
+      </c>
+      <c r="I135" s="2">
+        <v>80000</v>
+      </c>
+      <c r="J135" s="2">
+        <v>65000</v>
+      </c>
+      <c r="K135" s="2">
+        <v>74560</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="G136" s="6">
+        <v>1522000</v>
+      </c>
+      <c r="H136" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="I136" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="J136" s="6">
+        <v>1450000</v>
+      </c>
+      <c r="K136" s="6">
+        <v>1522000</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H137" s="2">
+        <v>1600</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1550</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G138" s="2">
+        <v>100</v>
+      </c>
+      <c r="H138" s="2">
+        <v>110</v>
+      </c>
+      <c r="I138" s="2">
+        <v>120</v>
+      </c>
+      <c r="J138" s="2">
+        <v>130</v>
+      </c>
+      <c r="K138" s="2">
+        <v>100</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G139" s="2">
+        <v>500</v>
+      </c>
+      <c r="H139" s="2">
+        <v>600</v>
+      </c>
+      <c r="I139" s="2">
+        <v>400</v>
+      </c>
+      <c r="J139" s="2">
+        <v>450</v>
+      </c>
+      <c r="K139" s="2">
+        <v>500</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G140" s="2">
+        <v>153.94</v>
+      </c>
+      <c r="H140" s="2">
+        <v>148.56</v>
+      </c>
+      <c r="I140" s="2">
+        <v>170.85</v>
+      </c>
+      <c r="J140" s="2">
+        <v>160.57</v>
+      </c>
+      <c r="K140" s="2">
+        <v>153.94</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1100</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C142">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G142" s="2">
+        <v>18000</v>
+      </c>
+      <c r="H142" s="2">
+        <v>19000</v>
+      </c>
+      <c r="I142" s="2">
+        <v>17000</v>
+      </c>
+      <c r="J142" s="2">
+        <v>16000</v>
+      </c>
+      <c r="K142" s="2">
+        <v>18000</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C143">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G143" s="2">
+        <v>625</v>
+      </c>
+      <c r="H143" s="2">
+        <v>600</v>
+      </c>
+      <c r="I143" s="2">
+        <v>650</v>
+      </c>
+      <c r="J143" s="2">
+        <v>670</v>
+      </c>
+      <c r="K143" s="2">
+        <v>625</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C144">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1256.6400000000001</v>
+      </c>
+      <c r="H144" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1300</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1350</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1256.6400000000001</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C145">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2250</v>
+      </c>
+      <c r="H145" s="2">
+        <v>2400</v>
+      </c>
+      <c r="I145" s="2">
+        <v>2300</v>
+      </c>
+      <c r="J145" s="2">
+        <v>2200</v>
+      </c>
+      <c r="K145" s="2">
+        <v>2250</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C146">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H146" s="2">
+        <v>1300</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C147">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G147" s="2">
+        <v>62.832000000000001</v>
+      </c>
+      <c r="H147" s="2">
+        <v>63.655999999999999</v>
+      </c>
+      <c r="I147" s="2">
+        <v>64.531999999999996</v>
+      </c>
+      <c r="J147" s="2">
+        <v>65.412999999999997</v>
+      </c>
+      <c r="K147" s="2">
+        <v>62.832000000000001</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C148">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G148" s="2">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="H148" s="2">
+        <v>160.785</v>
+      </c>
+      <c r="I148" s="2">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="J148" s="2">
+        <v>152.4</v>
+      </c>
+      <c r="K148" s="2">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G149" s="2">
+        <v>188.49600000000001</v>
+      </c>
+      <c r="H149" s="2">
+        <v>190.50800000000001</v>
+      </c>
+      <c r="I149" s="2">
+        <v>188.31</v>
+      </c>
+      <c r="J149" s="2">
+        <v>185.44</v>
+      </c>
+      <c r="K149" s="2">
+        <v>188.49600000000001</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G150" s="2">
+        <v>376.99200000000002</v>
+      </c>
+      <c r="H150" s="2">
+        <v>378.57600000000002</v>
+      </c>
+      <c r="I150" s="2">
+        <v>380.23399999999998</v>
+      </c>
+      <c r="J150" s="2">
+        <v>375</v>
+      </c>
+      <c r="K150" s="2">
+        <v>376.99200000000002</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G151" s="2">
+        <v>251.327</v>
+      </c>
+      <c r="H151" s="2">
+        <v>252.37</v>
+      </c>
+      <c r="I151" s="2">
+        <v>253.72</v>
+      </c>
+      <c r="J151" s="2">
+        <v>255.63</v>
+      </c>
+      <c r="K151" s="2">
+        <v>251.327</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G152" s="2">
+        <v>62.832000000000001</v>
+      </c>
+      <c r="H152" s="2">
+        <v>65.16</v>
+      </c>
+      <c r="I152" s="2">
+        <v>64.531999999999996</v>
+      </c>
+      <c r="J152" s="2">
+        <v>60</v>
+      </c>
+      <c r="K152" s="2">
+        <v>62.832000000000001</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G153" s="2">
+        <v>235.62</v>
+      </c>
+      <c r="H153" s="2">
+        <v>240</v>
+      </c>
+      <c r="I153" s="2">
+        <v>245.11</v>
+      </c>
+      <c r="J153" s="2">
+        <v>250</v>
+      </c>
+      <c r="K153" s="2">
+        <v>235.62</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C154">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G154" s="2">
+        <v>113.09699999999999</v>
+      </c>
+      <c r="H154" s="2">
+        <v>115</v>
+      </c>
+      <c r="I154" s="2">
+        <v>118</v>
+      </c>
+      <c r="J154" s="2">
+        <v>120</v>
+      </c>
+      <c r="K154" s="2">
+        <v>113.09699999999999</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C155">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G155" s="2">
+        <v>47.124000000000002</v>
+      </c>
+      <c r="H155" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="I155" s="2">
+        <v>49.75</v>
+      </c>
+      <c r="J155" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="K155" s="2">
+        <v>47.124000000000002</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C156">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G156" s="2">
+        <v>314.16000000000003</v>
+      </c>
+      <c r="H156" s="2">
+        <v>315.2</v>
+      </c>
+      <c r="I156" s="2">
+        <v>316.3</v>
+      </c>
+      <c r="J156" s="2">
+        <v>310</v>
+      </c>
+      <c r="K156" s="2">
+        <v>314.16000000000003</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C160">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C161">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C162">
+        <v>20</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C163">
+        <v>20</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C164">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C167">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C173">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C177">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C178">
+        <v>20</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N3" r:id="rId1" display="https://youtu.be/8nZDp6OKESs, " xr:uid="{B2832931-A4F3-4978-BB7E-466AB47E1FC8}"/>
     <hyperlink ref="N2" r:id="rId2" xr:uid="{E8933786-5042-4115-A245-2B928F18C929}"/>

--- a/daoWeb/src/data/Data.xlsx
+++ b/daoWeb/src/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\DAO\daoAll\daoWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC4D19-84E0-4785-B3D6-3B372FA9E4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE6364D-60CA-4E9E-8A4E-32A1DD336BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="1807">
   <si>
     <t>Question</t>
   </si>
@@ -3229,6 +3229,2247 @@
   </si>
   <si>
     <t>The volume of a rectangular prism is found by multiplying its length, width, and height.</t>
+  </si>
+  <si>
+    <t>What is primary data?</t>
+  </si>
+  <si>
+    <t>Data collected for the first time</t>
+  </si>
+  <si>
+    <t>Data obtained from records</t>
+  </si>
+  <si>
+    <t>Data analyzed by others</t>
+  </si>
+  <si>
+    <t>Data shared by organizations</t>
+  </si>
+  <si>
+    <t>Primary data is gathered directly from the source for the first time.</t>
+  </si>
+  <si>
+    <t>What is secondary data?</t>
+  </si>
+  <si>
+    <t>Data collected and processed by others</t>
+  </si>
+  <si>
+    <t>Data gathered through surveys</t>
+  </si>
+  <si>
+    <t>Data obtained from direct interviews</t>
+  </si>
+  <si>
+    <t>Data obtained from observations</t>
+  </si>
+  <si>
+    <t>Secondary data is previously collected and processed by someone else.</t>
+  </si>
+  <si>
+    <t>What method involves asking questions to gather data?</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+  <si>
+    <t>Historical records</t>
+  </si>
+  <si>
+    <t>Surveys involve asking questions to collect responses.</t>
+  </si>
+  <si>
+    <t>What is an example of data collection by the government in Pakistan?</t>
+  </si>
+  <si>
+    <t>Population census</t>
+  </si>
+  <si>
+    <t>Customer feedback</t>
+  </si>
+  <si>
+    <t>Sales data</t>
+  </si>
+  <si>
+    <t>Market research</t>
+  </si>
+  <si>
+    <t>The government conducts a population census to gather demographic data.</t>
+  </si>
+  <si>
+    <t>How is agricultural data collected in Pakistan?</t>
+  </si>
+  <si>
+    <t>Through farmer interviews</t>
+  </si>
+  <si>
+    <t>By conducting focus groups</t>
+  </si>
+  <si>
+    <t>By analyzing market sales</t>
+  </si>
+  <si>
+    <t>By observing rainfall</t>
+  </si>
+  <si>
+    <t>Agricultural data is often collected through farmer interviews and surveys.</t>
+  </si>
+  <si>
+    <t>What type of data is obtained from customer surveys?</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>Customer surveys provide primary data collected directly from the respondents.</t>
+  </si>
+  <si>
+    <t>Which organization in Pakistan collects census data?</t>
+  </si>
+  <si>
+    <t>Pakistan Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>State Bank of Pakistan</t>
+  </si>
+  <si>
+    <t>Higher Education Commission</t>
+  </si>
+  <si>
+    <t>The Pakistan Bureau of Statistics is responsible for conducting the census.</t>
+  </si>
+  <si>
+    <t>What is an example of observational data?</t>
+  </si>
+  <si>
+    <t>Monitoring traffic patterns</t>
+  </si>
+  <si>
+    <t>Conducting customer surveys</t>
+  </si>
+  <si>
+    <t>Analyzing transaction records</t>
+  </si>
+  <si>
+    <t>Interviewing farmers</t>
+  </si>
+  <si>
+    <t>Observational data is collected by monitoring and recording events like traffic patterns.</t>
+  </si>
+  <si>
+    <t>Why is data collection important in business?</t>
+  </si>
+  <si>
+    <t>For decision-making</t>
+  </si>
+  <si>
+    <t>To follow legal requirements</t>
+  </si>
+  <si>
+    <t>To improve branding</t>
+  </si>
+  <si>
+    <t>To predict weather</t>
+  </si>
+  <si>
+    <t>Data collection helps businesses make informed decisions and strategies.</t>
+  </si>
+  <si>
+    <t>How does the government use health data?</t>
+  </si>
+  <si>
+    <t>To plan vaccination campaigns</t>
+  </si>
+  <si>
+    <t>To increase GDP</t>
+  </si>
+  <si>
+    <t>To monitor stock prices</t>
+  </si>
+  <si>
+    <t>To collect taxes</t>
+  </si>
+  <si>
+    <t>Health data is used to plan vaccination campaigns and improve public health.</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>What is qualitative data?</t>
+  </si>
+  <si>
+    <t>Non-numeric data</t>
+  </si>
+  <si>
+    <t>Numeric data</t>
+  </si>
+  <si>
+    <t>Grouped data</t>
+  </si>
+  <si>
+    <t>Continuous data</t>
+  </si>
+  <si>
+    <t>Qualitative data describes qualities or characteristics, such as gender or product categories.</t>
+  </si>
+  <si>
+    <t>What is quantitative data?</t>
+  </si>
+  <si>
+    <t>Data that describes qualities</t>
+  </si>
+  <si>
+    <t>Raw data</t>
+  </si>
+  <si>
+    <t>Quantitative data includes numbers that can be measured, like income or sales figures.</t>
+  </si>
+  <si>
+    <t>What is an example of discrete data?</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Height of people</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Profit percentages</t>
+  </si>
+  <si>
+    <t>Discrete data takes specific values, such as the number of employees in a company.</t>
+  </si>
+  <si>
+    <t>What is an example of continuous data?</t>
+  </si>
+  <si>
+    <t>Number of cars sold</t>
+  </si>
+  <si>
+    <t>Customer categories</t>
+  </si>
+  <si>
+    <t>Age groups</t>
+  </si>
+  <si>
+    <t>Continuous data can take any value within a range, like height or temperature.</t>
+  </si>
+  <si>
+    <t>What type of data is classified into intervals or categories?</t>
+  </si>
+  <si>
+    <t>Ungrouped data</t>
+  </si>
+  <si>
+    <t>Discrete data</t>
+  </si>
+  <si>
+    <t>Grouped data is organized into intervals, such as age groups (20-29, 30-39).</t>
+  </si>
+  <si>
+    <t>What type of data has not been categorized?</t>
+  </si>
+  <si>
+    <t>Qualitative data</t>
+  </si>
+  <si>
+    <t>Quantitative data</t>
+  </si>
+  <si>
+    <t>Ungrouped data is raw data that has not been organized into categories.</t>
+  </si>
+  <si>
+    <t>How does the government classify taxpayers in Pakistan?</t>
+  </si>
+  <si>
+    <t>By income brackets</t>
+  </si>
+  <si>
+    <t>By education level</t>
+  </si>
+  <si>
+    <t>By profession</t>
+  </si>
+  <si>
+    <t>By age groups</t>
+  </si>
+  <si>
+    <t>The Federal Board of Revenue (FBR) classifies taxpayers based on their income levels.</t>
+  </si>
+  <si>
+    <t>What is an example of grouped data in business?</t>
+  </si>
+  <si>
+    <t>Age groups of customers</t>
+  </si>
+  <si>
+    <t>Individual sales figures</t>
+  </si>
+  <si>
+    <t>Raw customer feedback</t>
+  </si>
+  <si>
+    <t>Individual test scores</t>
+  </si>
+  <si>
+    <t>Grouped data in business includes data classified into intervals, like age groups of customers.</t>
+  </si>
+  <si>
+    <t>Why is data classification important in business?</t>
+  </si>
+  <si>
+    <t>To analyze trends</t>
+  </si>
+  <si>
+    <t>To monitor profits</t>
+  </si>
+  <si>
+    <t>To reduce expenses</t>
+  </si>
+  <si>
+    <t>Data classification helps businesses identify patterns and make informed decisions.</t>
+  </si>
+  <si>
+    <t>How is population data classified by the Pakistan Bureau of Statistics?</t>
+  </si>
+  <si>
+    <t>By gender, age groups, and employment</t>
+  </si>
+  <si>
+    <t>By purchasing behavior</t>
+  </si>
+  <si>
+    <t>By product categories</t>
+  </si>
+  <si>
+    <t>By sales figures</t>
+  </si>
+  <si>
+    <t>Population data is classified by PBS into demographic categories for analysis.</t>
+  </si>
+  <si>
+    <t>Data Classification</t>
+  </si>
+  <si>
+    <t>What is simple tabulation?</t>
+  </si>
+  <si>
+    <t>Organizing data based on one variable</t>
+  </si>
+  <si>
+    <t>Cross-classifying data with two variables</t>
+  </si>
+  <si>
+    <t>Including multiple variables</t>
+  </si>
+  <si>
+    <t>Graphical representation</t>
+  </si>
+  <si>
+    <t>Simple tabulation uses one characteristic or variable to present data.</t>
+  </si>
+  <si>
+    <t>What does double tabulation involve?</t>
+  </si>
+  <si>
+    <t>Presenting data in graphs</t>
+  </si>
+  <si>
+    <t>Sorting data alphabetically</t>
+  </si>
+  <si>
+    <t>Organizing raw data</t>
+  </si>
+  <si>
+    <t>Double tabulation involves two characteristics for cross-analysis.</t>
+  </si>
+  <si>
+    <t>What is complex tabulation?</t>
+  </si>
+  <si>
+    <t>Tabulating data with more than two variables</t>
+  </si>
+  <si>
+    <t>Simplifying raw data</t>
+  </si>
+  <si>
+    <t>Using graphs for analysis</t>
+  </si>
+  <si>
+    <t>Summarizing one variable</t>
+  </si>
+  <si>
+    <t>Complex tabulation handles data with multiple variables for detailed analysis.</t>
+  </si>
+  <si>
+    <t>How does the PBS classify census data?</t>
+  </si>
+  <si>
+    <t>By gender, province, and employment status</t>
+  </si>
+  <si>
+    <t>By sales data</t>
+  </si>
+  <si>
+    <t>By customer reviews</t>
+  </si>
+  <si>
+    <t>By retail categories</t>
+  </si>
+  <si>
+    <t>PBS uses classification to create detailed census reports.</t>
+  </si>
+  <si>
+    <t>What is the purpose of tabulation in business?</t>
+  </si>
+  <si>
+    <t>To analyze sales and customer trends</t>
+  </si>
+  <si>
+    <t>To calculate taxes</t>
+  </si>
+  <si>
+    <t>To promote branding</t>
+  </si>
+  <si>
+    <t>To track inventory</t>
+  </si>
+  <si>
+    <t>Tabulation helps businesses analyze trends and make informed decisions.</t>
+  </si>
+  <si>
+    <t>What type of tabulation is used to present sales data by region and category?</t>
+  </si>
+  <si>
+    <t>Double tabulation</t>
+  </si>
+  <si>
+    <t>Simple tabulation</t>
+  </si>
+  <si>
+    <t>Complex tabulation</t>
+  </si>
+  <si>
+    <t>Graphical tabulation</t>
+  </si>
+  <si>
+    <t>Double tabulation organizes data by two characteristics, like region and category.</t>
+  </si>
+  <si>
+    <t>What is an example of simple tabulation?</t>
+  </si>
+  <si>
+    <t>Number of students in universities</t>
+  </si>
+  <si>
+    <t>Sales by region and product</t>
+  </si>
+  <si>
+    <t>Employment by age and gender</t>
+  </si>
+  <si>
+    <t>Population by age, gender, and location</t>
+  </si>
+  <si>
+    <t>Simple tabulation uses one variable, like total students in each university.</t>
+  </si>
+  <si>
+    <t>Why is tabulation important in government surveys?</t>
+  </si>
+  <si>
+    <t>To systematically organize data</t>
+  </si>
+  <si>
+    <t>To predict the stock market</t>
+  </si>
+  <si>
+    <t>To increase employment</t>
+  </si>
+  <si>
+    <t>To manage customer feedback</t>
+  </si>
+  <si>
+    <t>Tabulation is crucial for presenting and analyzing government survey results.</t>
+  </si>
+  <si>
+    <t>What is the main feature of a tabulated table?</t>
+  </si>
+  <si>
+    <t>Data is arranged in rows and columns</t>
+  </si>
+  <si>
+    <t>Data is shown only in graphs</t>
+  </si>
+  <si>
+    <t>Data remains unorganized</t>
+  </si>
+  <si>
+    <t>Data is presented without variables</t>
+  </si>
+  <si>
+    <t>Rows and columns make data easy to interpret in tabulated tables.</t>
+  </si>
+  <si>
+    <t>How does tabulation simplify complex data?</t>
+  </si>
+  <si>
+    <t>By organizing it systematically</t>
+  </si>
+  <si>
+    <t>By removing unnecessary data</t>
+  </si>
+  <si>
+    <t>By avoiding numerical values</t>
+  </si>
+  <si>
+    <t>By using only one variable</t>
+  </si>
+  <si>
+    <t>Tabulation breaks complex data into manageable sections for clarity.</t>
+  </si>
+  <si>
+    <t>Data Tabulation</t>
+  </si>
+  <si>
+    <t>What is textual presentation?</t>
+  </si>
+  <si>
+    <t>Describing data in words</t>
+  </si>
+  <si>
+    <t>Using graphs to display data</t>
+  </si>
+  <si>
+    <t>Arranging data in tables</t>
+  </si>
+  <si>
+    <t>Using statistical formulas</t>
+  </si>
+  <si>
+    <t>Textual presentation uses written descriptions to explain data.</t>
+  </si>
+  <si>
+    <t>What does a bar graph represent?</t>
+  </si>
+  <si>
+    <t>Comparison of data categories</t>
+  </si>
+  <si>
+    <t>Distribution of data over time</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Relationship between two variables</t>
+  </si>
+  <si>
+    <t>Bar graphs compare different categories like product sales.</t>
+  </si>
+  <si>
+    <t>What is the main feature of tabular presentation?</t>
+  </si>
+  <si>
+    <t>Data is visualized using graphs</t>
+  </si>
+  <si>
+    <t>Data is shown without structure</t>
+  </si>
+  <si>
+    <t>Data is described in detail</t>
+  </si>
+  <si>
+    <t>Tabular presentation organizes data systematically for clarity.</t>
+  </si>
+  <si>
+    <t>How are pie charts used in government reports?</t>
+  </si>
+  <si>
+    <t>To show percentage distribution</t>
+  </si>
+  <si>
+    <t>To calculate total population</t>
+  </si>
+  <si>
+    <t>To compare export data</t>
+  </si>
+  <si>
+    <t>To predict trends</t>
+  </si>
+  <si>
+    <t>Pie charts illustrate how resources are allocated across sectors.</t>
+  </si>
+  <si>
+    <t>What type of graph shows trends over time?</t>
+  </si>
+  <si>
+    <t>Line graph</t>
+  </si>
+  <si>
+    <t>Bar graph</t>
+  </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Scatter plot</t>
+  </si>
+  <si>
+    <t>Line graphs are ideal for showing trends over time.</t>
+  </si>
+  <si>
+    <t>Why is graphical presentation important?</t>
+  </si>
+  <si>
+    <t>It simplifies complex data</t>
+  </si>
+  <si>
+    <t>It replaces numerical analysis</t>
+  </si>
+  <si>
+    <t>It removes irrelevant data</t>
+  </si>
+  <si>
+    <t>It avoids calculations</t>
+  </si>
+  <si>
+    <t>Graphs and charts make complex data easy to understand.</t>
+  </si>
+  <si>
+    <t>What is an example of graphical presentation in business?</t>
+  </si>
+  <si>
+    <t>Sales comparison across regions</t>
+  </si>
+  <si>
+    <t>Employee job descriptions</t>
+  </si>
+  <si>
+    <t>Detailed annual reports</t>
+  </si>
+  <si>
+    <t>Sales revenue table</t>
+  </si>
+  <si>
+    <t>Bar graphs are commonly used for regional sales comparisons.</t>
+  </si>
+  <si>
+    <t>How does PBS present population growth?</t>
+  </si>
+  <si>
+    <t>Using line graphs</t>
+  </si>
+  <si>
+    <t>Using bar graphs</t>
+  </si>
+  <si>
+    <t>Using pie charts</t>
+  </si>
+  <si>
+    <t>Using scatter plots</t>
+  </si>
+  <si>
+    <t>PBS uses line graphs to depict population trends over time.</t>
+  </si>
+  <si>
+    <t>What is the advantage of pie charts?</t>
+  </si>
+  <si>
+    <t>They show proportionate distribution</t>
+  </si>
+  <si>
+    <t>They compare trends over time</t>
+  </si>
+  <si>
+    <t>They organize data in rows</t>
+  </si>
+  <si>
+    <t>They summarize textual data</t>
+  </si>
+  <si>
+    <t>Pie charts effectively display proportional relationships.</t>
+  </si>
+  <si>
+    <t>What form of data presentation uses rows and columns?</t>
+  </si>
+  <si>
+    <t>Tabular presentation</t>
+  </si>
+  <si>
+    <t>Textual presentation</t>
+  </si>
+  <si>
+    <t>Graphical presentation</t>
+  </si>
+  <si>
+    <t>Pictorial representation</t>
+  </si>
+  <si>
+    <t>Tables use rows and columns to organize data neatly.</t>
+  </si>
+  <si>
+    <t>Data Presentation</t>
+  </si>
+  <si>
+    <t>Measures of Central Tendency</t>
+  </si>
+  <si>
+    <t>What is the mean?</t>
+  </si>
+  <si>
+    <t>Arithmetic average</t>
+  </si>
+  <si>
+    <t>Middle value</t>
+  </si>
+  <si>
+    <t>Most frequent value</t>
+  </si>
+  <si>
+    <t>Difference between max and min</t>
+  </si>
+  <si>
+    <t>The mean is the sum of all values divided by their count.</t>
+  </si>
+  <si>
+    <t>How is the median calculated?</t>
+  </si>
+  <si>
+    <t>Sorting data and finding the middle</t>
+  </si>
+  <si>
+    <t>Adding all values</t>
+  </si>
+  <si>
+    <t>Finding the most frequent value</t>
+  </si>
+  <si>
+    <t>Dividing sum by count</t>
+  </si>
+  <si>
+    <t>Median is the middle value of ordered data.</t>
+  </si>
+  <si>
+    <t>What does the mode represent?</t>
+  </si>
+  <si>
+    <t>Average value</t>
+  </si>
+  <si>
+    <t>Data spread</t>
+  </si>
+  <si>
+    <t>Mode is the value occurring most often.</t>
+  </si>
+  <si>
+    <t>If salaries are PKR 20,000, 25,000, 30,000, 35,000, 40,000, what is the mean?</t>
+  </si>
+  <si>
+    <t>PKR 30,000</t>
+  </si>
+  <si>
+    <t>PKR 25,000</t>
+  </si>
+  <si>
+    <t>PKR 35,000</t>
+  </si>
+  <si>
+    <t>PKR 40,000</t>
+  </si>
+  <si>
+    <t>Mean = Total sum divided by count.</t>
+  </si>
+  <si>
+    <t>A company sold 10, 15, 20, 20, 25 units daily. What is the mode?</t>
+  </si>
+  <si>
+    <t>20 units</t>
+  </si>
+  <si>
+    <t>10 units</t>
+  </si>
+  <si>
+    <t>25 units</t>
+  </si>
+  <si>
+    <t>15 units</t>
+  </si>
+  <si>
+    <t>Mode is the value that occurs most frequently.</t>
+  </si>
+  <si>
+    <t>What is the median of 5, 10, 15, 20, 25?</t>
+  </si>
+  <si>
+    <t>Median is the central value in an ordered list.</t>
+  </si>
+  <si>
+    <t>Why is the mean used in business?</t>
+  </si>
+  <si>
+    <t>For average costs</t>
+  </si>
+  <si>
+    <t>To find trends</t>
+  </si>
+  <si>
+    <t>To identify peaks</t>
+  </si>
+  <si>
+    <t>To highlight ranges</t>
+  </si>
+  <si>
+    <t>The mean helps in forecasting and budgeting.</t>
+  </si>
+  <si>
+    <t>Which measure is suitable for data with extreme outliers?</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Median is less affected by outliers than the mean.</t>
+  </si>
+  <si>
+    <t>What is the purpose of the mode?</t>
+  </si>
+  <si>
+    <t>To find common patterns</t>
+  </si>
+  <si>
+    <t>To calculate averages</t>
+  </si>
+  <si>
+    <t>To summarize range</t>
+  </si>
+  <si>
+    <t>To identify middle value</t>
+  </si>
+  <si>
+    <t>The mode highlights the most frequent data point.</t>
+  </si>
+  <si>
+    <t>Why is the median preferred in real estate?</t>
+  </si>
+  <si>
+    <t>Less affected by outliers</t>
+  </si>
+  <si>
+    <t>Simple to calculate</t>
+  </si>
+  <si>
+    <t>Shows range</t>
+  </si>
+  <si>
+    <t>Predicts future trends</t>
+  </si>
+  <si>
+    <t>The median gives a central value unaffected by extreme values.</t>
+  </si>
+  <si>
+    <t>What is the range of the dataset 10, 20, 30, 40, 50?</t>
+  </si>
+  <si>
+    <t>Range = Maximum - Minimum = 50 - 10.</t>
+  </si>
+  <si>
+    <t>What does variance measure?</t>
+  </si>
+  <si>
+    <t>Spread of data around the mean</t>
+  </si>
+  <si>
+    <t>Central value of data</t>
+  </si>
+  <si>
+    <t>Highest value in the dataset</t>
+  </si>
+  <si>
+    <t>Variance quantifies how far data points deviate from the mean.</t>
+  </si>
+  <si>
+    <t>How is standard deviation related to variance?</t>
+  </si>
+  <si>
+    <t>Square root of variance</t>
+  </si>
+  <si>
+    <t>Square of variance</t>
+  </si>
+  <si>
+    <t>Same as variance</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SD gives average deviation from the mean.</t>
+  </si>
+  <si>
+    <t>A factory has mean daily costs of PKR 10,000, SD is PKR 1,500. What is the CV?</t>
+  </si>
+  <si>
+    <t>CV = (SD / Mean) × 100 = (1500 / 10,000) × 100.</t>
+  </si>
+  <si>
+    <t>What does a high SD indicate?</t>
+  </si>
+  <si>
+    <t>High data variability</t>
+  </si>
+  <si>
+    <t>Low data variability</t>
+  </si>
+  <si>
+    <t>No variability</t>
+  </si>
+  <si>
+    <t>Data around mean</t>
+  </si>
+  <si>
+    <t>A high SD means data is spread widely around the mean.</t>
+  </si>
+  <si>
+    <t>Why is range insufficient alone to measure dispersion?</t>
+  </si>
+  <si>
+    <t>Ignores data distribution</t>
+  </si>
+  <si>
+    <t>Too complex</t>
+  </si>
+  <si>
+    <t>Needs standard deviation</t>
+  </si>
+  <si>
+    <t>Only used for small datasets</t>
+  </si>
+  <si>
+    <t>Range only considers the extremes, not overall spread.</t>
+  </si>
+  <si>
+    <t>Which measure of dispersion is least affected by outliers?</t>
+  </si>
+  <si>
+    <t>Interquartile range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>IQR focuses on the middle 50% of data, ignoring outliers.</t>
+  </si>
+  <si>
+    <t>Why do businesses use CV?</t>
+  </si>
+  <si>
+    <t>To compare variability across datasets</t>
+  </si>
+  <si>
+    <t>To calculate profit</t>
+  </si>
+  <si>
+    <t>To find average sales</t>
+  </si>
+  <si>
+    <t>To detect outliers</t>
+  </si>
+  <si>
+    <t>CV allows comparison regardless of dataset size or scale.</t>
+  </si>
+  <si>
+    <t>PBS compares education levels across regions. Which measure is best?</t>
+  </si>
+  <si>
+    <t>Variance measures how education levels differ regionally.</t>
+  </si>
+  <si>
+    <t>A histogram shows tall peaks and narrow spread. What does it indicate?</t>
+  </si>
+  <si>
+    <t>Low variance</t>
+  </si>
+  <si>
+    <t>High variance</t>
+  </si>
+  <si>
+    <t>High mean</t>
+  </si>
+  <si>
+    <t>High range</t>
+  </si>
+  <si>
+    <t>Narrow spread means data points are close to the mean.</t>
+  </si>
+  <si>
+    <t>Measures Dispersions</t>
+  </si>
+  <si>
+    <t>What does a Pearson correlation coefficient of 1 indicate?</t>
+  </si>
+  <si>
+    <t>Strong negative correlation</t>
+  </si>
+  <si>
+    <t>No correlation</t>
+  </si>
+  <si>
+    <t>Perfect positive correlation</t>
+  </si>
+  <si>
+    <t>Weak negative correlation</t>
+  </si>
+  <si>
+    <t>A value of 1 indicates a perfect positive relationship between variables.</t>
+  </si>
+  <si>
+    <t>What type of correlation exists when one variable increases while the other decreases?</t>
+  </si>
+  <si>
+    <t>Positive correlation</t>
+  </si>
+  <si>
+    <t>Negative correlation</t>
+  </si>
+  <si>
+    <t>Strong correlation</t>
+  </si>
+  <si>
+    <t>Negative correlation shows inverse relationship.</t>
+  </si>
+  <si>
+    <t>What is the formula used to calculate Pearson’s correlation coefficient?</t>
+  </si>
+  <si>
+    <t>r=∑(Xi−Xˉ)(Yi−Yˉ)∑(Xi−Xˉ)2∑(Yi−Yˉ)2r = \frac{\sum{(X_i - \bar{X})(Y_i - \bar{Y})}}{\sqrt{\sum{(X_i - \bar{X})^2}\sum{(Y_i - \bar{Y})^2}}}r=∑(Xi​−Xˉ)2∑(Yi​−Yˉ)2​∑(Xi​−Xˉ)(Yi​−Yˉ)​</t>
+  </si>
+  <si>
+    <t>r=X+Ynr = \frac{X + Y}{n}r=nX+Y​</t>
+  </si>
+  <si>
+    <t>r=X2+Y2nr = \frac{X^2 + Y^2}{n}r=nX2+Y2​</t>
+  </si>
+  <si>
+    <t>r=∑XiYi∑Xi+Yir = \frac{\sum{X_i Y_i}}{\sum{X_i + Y_i}}r=∑Xi​+Yi​∑Xi​Yi​​</t>
+  </si>
+  <si>
+    <t>Formula for Pearson's correlation measures linear relationship.</t>
+  </si>
+  <si>
+    <t>What does a negative correlation indicate?</t>
+  </si>
+  <si>
+    <t>Both variables increase</t>
+  </si>
+  <si>
+    <t>One variable increases, other decreases</t>
+  </si>
+  <si>
+    <t>No relationship</t>
+  </si>
+  <si>
+    <t>Both variables decrease</t>
+  </si>
+  <si>
+    <t>Negative correlation means an inverse relationship between variables.</t>
+  </si>
+  <si>
+    <t>Which of the following is an example of a positive correlation?</t>
+  </si>
+  <si>
+    <t>As temperature increases, the number of ice cream sales decreases</t>
+  </si>
+  <si>
+    <t>As rainfall increases, crop yield decreases</t>
+  </si>
+  <si>
+    <t>As age increases, salary decreases</t>
+  </si>
+  <si>
+    <t>As advertising spend increases, sales increase</t>
+  </si>
+  <si>
+    <t>Positive correlation means both variables increase together.</t>
+  </si>
+  <si>
+    <t>Which statistical measure is used to measure the strength of linear correlation?</t>
+  </si>
+  <si>
+    <t>Pearson correlation coefficient</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>The Pearson coefficient is used for measuring the linear relationship.</t>
+  </si>
+  <si>
+    <t>Which type of data is best suited for Spearman's rank correlation?</t>
+  </si>
+  <si>
+    <t>Ordinal data</t>
+  </si>
+  <si>
+    <t>Nominal data</t>
+  </si>
+  <si>
+    <t>Ratio data</t>
+  </si>
+  <si>
+    <t>Spearman’s rank correlation is used for ordinal or non-linear data.</t>
+  </si>
+  <si>
+    <t>If two variables show no clear trend on a scatter plot, what does it indicate?</t>
+  </si>
+  <si>
+    <t>Perfect correlation</t>
+  </si>
+  <si>
+    <t>No discernible trend indicates no correlation between the variables.</t>
+  </si>
+  <si>
+    <t>How is correlation useful in business?</t>
+  </si>
+  <si>
+    <t>It helps predict future sales</t>
+  </si>
+  <si>
+    <t>It calculates profits</t>
+  </si>
+  <si>
+    <t>It provides insights into unrelated variables</t>
+  </si>
+  <si>
+    <t>It measures the growth rate of profits</t>
+  </si>
+  <si>
+    <t>Correlation helps understand relationships to make business forecasts.</t>
+  </si>
+  <si>
+    <t>How does the Pakistani government use correlation in healthcare?</t>
+  </si>
+  <si>
+    <t>To track literacy rates</t>
+  </si>
+  <si>
+    <t>To predict weather patterns</t>
+  </si>
+  <si>
+    <t>To correlate vaccination rates with disease outbreaks</t>
+  </si>
+  <si>
+    <t>To analyze crime rates</t>
+  </si>
+  <si>
+    <t>The government uses correlation to track the effect of vaccination programs.</t>
+  </si>
+  <si>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t>What is the formula for calculating GDP?</t>
+  </si>
+  <si>
+    <t>GDP=C+I+G+(X−M)GDP = C + I + G + (X - M)GDP=C+I+G+(X−M)</t>
+  </si>
+  <si>
+    <t>GDP=C+G+IGDP = C + G + IGDP=C+G+I</t>
+  </si>
+  <si>
+    <t>GDP=I+X+MGDP = I + X + MGDP=I+X+M</t>
+  </si>
+  <si>
+    <t>GDP=C+I+GGDP = C + I + GGDP=C+I+G</t>
+  </si>
+  <si>
+    <t>GDP measures the total economic activity by adding up consumption, investment, government spending, and net exports.</t>
+  </si>
+  <si>
+    <t>What is the primary difference between GDP and GNP?</t>
+  </si>
+  <si>
+    <t>GDP includes income from abroad; GNP does not.</t>
+  </si>
+  <si>
+    <t>GDP measures income of residents; GNP measures income of foreign residents.</t>
+  </si>
+  <si>
+    <t>GDP includes income of foreigners; GNP does not.</t>
+  </si>
+  <si>
+    <t>GNP is calculated for a year, GDP for a month.</t>
+  </si>
+  <si>
+    <t>GDP includes income from within the country; GNP includes income from abroad.</t>
+  </si>
+  <si>
+    <t>GNP measures income from both domestic and foreign sources for residents.</t>
+  </si>
+  <si>
+    <t>How is National Income measured using the Income Method?</t>
+  </si>
+  <si>
+    <t>By adding up the value of output</t>
+  </si>
+  <si>
+    <t>By summing the wages, rent, interest, and profits</t>
+  </si>
+  <si>
+    <t>By adding up government spending</t>
+  </si>
+  <si>
+    <t>By summing the consumption, investment, and exports</t>
+  </si>
+  <si>
+    <t>The income method focuses on the earnings of individuals and businesses.</t>
+  </si>
+  <si>
+    <t>What does the Expenditure Method of measuring National Income focus on?</t>
+  </si>
+  <si>
+    <t>The total income of individuals</t>
+  </si>
+  <si>
+    <t>The total value of output in the economy</t>
+  </si>
+  <si>
+    <t>The total spending in the economy</t>
+  </si>
+  <si>
+    <t>The total savings in the economy</t>
+  </si>
+  <si>
+    <t>This method sums up consumption, investment, government spending, and net exports.</t>
+  </si>
+  <si>
+    <t>What is included in the GNP calculation?</t>
+  </si>
+  <si>
+    <t>Only income earned within the country</t>
+  </si>
+  <si>
+    <t>Income earned by foreigners in the country</t>
+  </si>
+  <si>
+    <t>Income earned by residents, both inside and outside the country</t>
+  </si>
+  <si>
+    <t>Only exports and imports</t>
+  </si>
+  <si>
+    <t>GNP includes income earned by residents, both domestically and abroad.</t>
+  </si>
+  <si>
+    <t>What does Net National Product (NNP) account for?</t>
+  </si>
+  <si>
+    <t>It adjusts for depreciation of capital goods</t>
+  </si>
+  <si>
+    <t>It includes income from abroad</t>
+  </si>
+  <si>
+    <t>It includes indirect taxes and subsidies</t>
+  </si>
+  <si>
+    <t>It adjusts for taxes and government spending</t>
+  </si>
+  <si>
+    <t>NNP subtracts depreciation from GNP to give a more accurate view of economic health.</t>
+  </si>
+  <si>
+    <t>Why does the government of Pakistan calculate national income?</t>
+  </si>
+  <si>
+    <t>To determine inflation rates</t>
+  </si>
+  <si>
+    <t>To assess the economy’s overall health and make policy decisions</t>
+  </si>
+  <si>
+    <t>To calculate unemployment rates</t>
+  </si>
+  <si>
+    <t>To predict population growth</t>
+  </si>
+  <si>
+    <t>National income helps policymakers in formulating economic policies.</t>
+  </si>
+  <si>
+    <t>What is the main purpose of using national income data in business?</t>
+  </si>
+  <si>
+    <t>To calculate employee salaries</t>
+  </si>
+  <si>
+    <t>To track consumer preferences</t>
+  </si>
+  <si>
+    <t>To assess economic performance and make investment decisions</t>
+  </si>
+  <si>
+    <t>To forecast inflation rates</t>
+  </si>
+  <si>
+    <t>Businesses use national income data to understand the economic environment for better decision-making.</t>
+  </si>
+  <si>
+    <t>How does an increase in government spending impact national income?</t>
+  </si>
+  <si>
+    <t>It decreases national income</t>
+  </si>
+  <si>
+    <t>It has no effect on national income</t>
+  </si>
+  <si>
+    <t>It increases national income</t>
+  </si>
+  <si>
+    <t>It reduces the country’s debt</t>
+  </si>
+  <si>
+    <t>Increased government spending boosts economic activity and national income.</t>
+  </si>
+  <si>
+    <t>How can the Pakistani government use national income data?</t>
+  </si>
+  <si>
+    <t>To monitor production levels of all companies</t>
+  </si>
+  <si>
+    <t>To formulate economic policies, such as taxation and spending</t>
+  </si>
+  <si>
+    <t>To manage inflation rates</t>
+  </si>
+  <si>
+    <t>To assess the value of the local currency</t>
+  </si>
+  <si>
+    <t>National income data helps the government make informed decisions about economic policies.</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>What is GDP?</t>
+  </si>
+  <si>
+    <t>Total income of a country's residents</t>
+  </si>
+  <si>
+    <t>Total value of goods and services produced within a country</t>
+  </si>
+  <si>
+    <t>Total exports of a country</t>
+  </si>
+  <si>
+    <t>Total investments made by businesses</t>
+  </si>
+  <si>
+    <t>GDP measures the total economic output within a country's borders.</t>
+  </si>
+  <si>
+    <t>What is the formula for calculating GDP using the expenditure method?</t>
+  </si>
+  <si>
+    <t>GDP=Wages+Rent+InterestGDP = Wages + Rent + InterestGDP=Wages+Rent+Interest</t>
+  </si>
+  <si>
+    <t>GDP=Output ValueGDP = \text{Output Value}GDP=Output Value</t>
+  </si>
+  <si>
+    <t>GDP=C+G+XGDP = C + G + XGDP=C+G+X</t>
+  </si>
+  <si>
+    <t>This formula adds consumption, investment, government spending, and net exports.</t>
+  </si>
+  <si>
+    <t>Which method calculates GDP by summing the value-added at each stage of production?</t>
+  </si>
+  <si>
+    <t>Expenditure Method</t>
+  </si>
+  <si>
+    <t>Income Method</t>
+  </si>
+  <si>
+    <t>Production Method</t>
+  </si>
+  <si>
+    <t>Output Method</t>
+  </si>
+  <si>
+    <t>The production method calculates GDP by summing the value added in each sector.</t>
+  </si>
+  <si>
+    <t>What does Real GDP adjust for?</t>
+  </si>
+  <si>
+    <t>Changes in government policies</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Population growth</t>
+  </si>
+  <si>
+    <t>International trade</t>
+  </si>
+  <si>
+    <t>Real GDP removes the effect of inflation to reflect the true economic output.</t>
+  </si>
+  <si>
+    <t>What is GDP per capita?</t>
+  </si>
+  <si>
+    <t>The total income of all residents</t>
+  </si>
+  <si>
+    <t>The total output produced in a country</t>
+  </si>
+  <si>
+    <t>The average income of each person in the country</t>
+  </si>
+  <si>
+    <t>The sum of government spending</t>
+  </si>
+  <si>
+    <t>GDP per capita divides GDP by the total population to get an average income per person.</t>
+  </si>
+  <si>
+    <t>Which of the following is a type of GDP?</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>National Income</t>
+  </si>
+  <si>
+    <t>Net Exports</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Real GDP adjusts for inflation to reflect the true value of output in the economy.</t>
+  </si>
+  <si>
+    <t>How can GDP data be used by the Pakistani government?</t>
+  </si>
+  <si>
+    <t>To determine the exchange rate</t>
+  </si>
+  <si>
+    <t>To make economic policy decisions</t>
+  </si>
+  <si>
+    <t>To calculate wages and salaries</t>
+  </si>
+  <si>
+    <t>To set up tax rates for individuals</t>
+  </si>
+  <si>
+    <t>GDP data helps the government formulate policies on taxation, spending, and monetary control.</t>
+  </si>
+  <si>
+    <t>What does a growing GDP indicate?</t>
+  </si>
+  <si>
+    <t>Rising inflation</t>
+  </si>
+  <si>
+    <t>Decreasing government spending</t>
+  </si>
+  <si>
+    <t>Economic growth and prosperity</t>
+  </si>
+  <si>
+    <t>A reduction in business investments</t>
+  </si>
+  <si>
+    <t>A growing GDP indicates an expanding economy with increased production and consumption.</t>
+  </si>
+  <si>
+    <t>Which GDP component does government spending belong to?</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Government Spending</t>
+  </si>
+  <si>
+    <t>Government spending is one of the key components of GDP, contributing to overall economic activity.</t>
+  </si>
+  <si>
+    <t>What is the primary use of GDP in business?</t>
+  </si>
+  <si>
+    <t>To predict interest rates</t>
+  </si>
+  <si>
+    <t>To measure the level of taxation</t>
+  </si>
+  <si>
+    <t>To evaluate market potential and investment opportunities</t>
+  </si>
+  <si>
+    <t>Businesses use GDP data to assess the overall economic environment for investment decisions.</t>
+  </si>
+  <si>
+    <t>What does GNP measure?</t>
+  </si>
+  <si>
+    <t>Income earned by foreigners within a country</t>
+  </si>
+  <si>
+    <t>Total value of all goods and services produced in a country</t>
+  </si>
+  <si>
+    <t>Total income earned by a country's residents, regardless of location</t>
+  </si>
+  <si>
+    <t>The total number of goods produced within a country</t>
+  </si>
+  <si>
+    <t>GNP focuses on the income of residents, whether earned domestically or abroad.</t>
+  </si>
+  <si>
+    <t>Which of the following is added to GDP to calculate GNP?</t>
+  </si>
+  <si>
+    <t>Net income from abroad</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>Household consumption</t>
+  </si>
+  <si>
+    <t>Investments in foreign companies</t>
+  </si>
+  <si>
+    <t>GNP is calculated by adding the income earned from abroad by residents and businesses.</t>
+  </si>
+  <si>
+    <t>If Pakistan’s GDP is PKR 60 trillion and the net income from abroad is PKR 5 trillion, what is Pakistan’s GNP?</t>
+  </si>
+  <si>
+    <t>PKR 50 trillion</t>
+  </si>
+  <si>
+    <t>PKR 55 trillion</t>
+  </si>
+  <si>
+    <t>PKR 65 trillion</t>
+  </si>
+  <si>
+    <t>PKR 70 trillion</t>
+  </si>
+  <si>
+    <t>GNP is calculated by adding GDP and net income from abroad.</t>
+  </si>
+  <si>
+    <t>GNP only includes domestic production</t>
+  </si>
+  <si>
+    <t>GDP accounts for income from abroad</t>
+  </si>
+  <si>
+    <t>GNP accounts for income earned by residents abroad</t>
+  </si>
+  <si>
+    <t>GDP includes government spending</t>
+  </si>
+  <si>
+    <t>GNP includes income from international operations, while GDP only measures domestic production.</t>
+  </si>
+  <si>
+    <t>How does GNP help the government of Pakistan?</t>
+  </si>
+  <si>
+    <t>It helps calculate tax rates</t>
+  </si>
+  <si>
+    <t>It helps assess the overall economy of the country</t>
+  </si>
+  <si>
+    <t>It helps determine government spending priorities</t>
+  </si>
+  <si>
+    <t>It is used to set interest rates</t>
+  </si>
+  <si>
+    <t>GNP provides a comprehensive view of a country’s economic well-being by including income from abroad.</t>
+  </si>
+  <si>
+    <t>Which method is used to calculate GNP?</t>
+  </si>
+  <si>
+    <t>Expenditure method</t>
+  </si>
+  <si>
+    <t>Income method</t>
+  </si>
+  <si>
+    <t>Production method</t>
+  </si>
+  <si>
+    <t>GNP is not measurable</t>
+  </si>
+  <si>
+    <t>GNP can be calculated using the expenditure method, where income from abroad is added to GDP.</t>
+  </si>
+  <si>
+    <t>What is the formula for calculating GNP?</t>
+  </si>
+  <si>
+    <t>GDP + Net Income from Abroad</t>
+  </si>
+  <si>
+    <t>GDP - Net Income from Abroad</t>
+  </si>
+  <si>
+    <t>Income from Abroad - Foreign Expenditure</t>
+  </si>
+  <si>
+    <t>GDP + Domestic Production</t>
+  </si>
+  <si>
+    <t>GNP is calculated by adding net income from abroad to GDP.</t>
+  </si>
+  <si>
+    <t>What does an increase in GNP indicate?</t>
+  </si>
+  <si>
+    <t>Decreased income from abroad</t>
+  </si>
+  <si>
+    <t>Economic growth from foreign earnings</t>
+  </si>
+  <si>
+    <t>Reduced exports</t>
+  </si>
+  <si>
+    <t>Economic contraction</t>
+  </si>
+  <si>
+    <t>An increase in GNP typically indicates that a country's residents are earning more income from abroad.</t>
+  </si>
+  <si>
+    <t>What does the "Net Income from Abroad" component represent in GNP?</t>
+  </si>
+  <si>
+    <t>The total exports of a country</t>
+  </si>
+  <si>
+    <t>The income earned by foreigners in the country</t>
+  </si>
+  <si>
+    <t>The income earned by residents from overseas investments</t>
+  </si>
+  <si>
+    <t>The consumption of goods within the country</t>
+  </si>
+  <si>
+    <t>Net income from abroad is the difference between the income earned by residents from foreign investments and the income earned by foreigners in the country.</t>
+  </si>
+  <si>
+    <t>What does NNP measure?</t>
+  </si>
+  <si>
+    <t>Total market value of all goods and services</t>
+  </si>
+  <si>
+    <t>Total income earned by residents of a country</t>
+  </si>
+  <si>
+    <t>Total income earned after accounting for depreciation</t>
+  </si>
+  <si>
+    <t>Total goods produced within the country</t>
+  </si>
+  <si>
+    <t>NNP is GNP adjusted for depreciation, providing a measure of sustainable wealth.</t>
+  </si>
+  <si>
+    <t>Which of the following is subtracted from GNP to calculate NNP?</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Depreciation is subtracted from GNP to account for the wear and tear on capital goods.</t>
+  </si>
+  <si>
+    <t>What is the formula for calculating NNP?</t>
+  </si>
+  <si>
+    <t>NNP = GNP + Depreciation</t>
+  </si>
+  <si>
+    <t>NNP = GNP - Depreciation</t>
+  </si>
+  <si>
+    <t>NNP = GDP + Depreciation</t>
+  </si>
+  <si>
+    <t>NNP = GDP - Depreciation</t>
+  </si>
+  <si>
+    <t>NNP is calculated by subtracting depreciation from GNP.</t>
+  </si>
+  <si>
+    <t>If Pakistan’s GNP is PKR 100 trillion and depreciation is PKR 15 trillion, what is Pakistan’s NNP?</t>
+  </si>
+  <si>
+    <t>PKR 90 trillion</t>
+  </si>
+  <si>
+    <t>PKR 85 trillion</t>
+  </si>
+  <si>
+    <t>PKR 95 trillion</t>
+  </si>
+  <si>
+    <t>PKR 100 trillion</t>
+  </si>
+  <si>
+    <t>What is the main purpose of calculating NNP?</t>
+  </si>
+  <si>
+    <t>To assess the total value of produced goods</t>
+  </si>
+  <si>
+    <t>To understand the sustainability of economic growth</t>
+  </si>
+  <si>
+    <t>To calculate government expenditure</t>
+  </si>
+  <si>
+    <t>To measure exports and imports</t>
+  </si>
+  <si>
+    <t>NNP helps assess if economic growth is sustainable by factoring in depreciation of capital assets.</t>
+  </si>
+  <si>
+    <t>What does depreciation refer to in the context of NNP?</t>
+  </si>
+  <si>
+    <t>The loss in value of currency</t>
+  </si>
+  <si>
+    <t>The increase in value of assets</t>
+  </si>
+  <si>
+    <t>The loss in value of capital goods over time</t>
+  </si>
+  <si>
+    <t>The total income from abroad</t>
+  </si>
+  <si>
+    <t>Depreciation refers to the reduction in value of capital assets due to wear and tear.</t>
+  </si>
+  <si>
+    <t>Why is NNP considered a better measure than GNP for assessing long-term economic health?</t>
+  </si>
+  <si>
+    <t>It only measures domestic income</t>
+  </si>
+  <si>
+    <t>It accounts for the loss in value of capital assets</t>
+  </si>
+  <si>
+    <t>It measures household consumption</t>
+  </si>
+  <si>
+    <t>It ignores foreign investments</t>
+  </si>
+  <si>
+    <t>NNP factors in depreciation, providing a clearer picture of sustainable wealth.</t>
+  </si>
+  <si>
+    <t>What would happen if a country’s depreciation exceeds its GNP?</t>
+  </si>
+  <si>
+    <t>The country would experience growth</t>
+  </si>
+  <si>
+    <t>The country’s economy would become unsustainable</t>
+  </si>
+  <si>
+    <t>The country’s exports would increase</t>
+  </si>
+  <si>
+    <t>The country’s government spending would decrease</t>
+  </si>
+  <si>
+    <t>If depreciation exceeds GNP, it indicates that the country is not replacing its capital, leading to unsustainable growth.</t>
+  </si>
+  <si>
+    <t>What does the consumption function represent?</t>
+  </si>
+  <si>
+    <t>The relationship between income and investment</t>
+  </si>
+  <si>
+    <t>The relationship between income and savings</t>
+  </si>
+  <si>
+    <t>The relationship between income and consumption</t>
+  </si>
+  <si>
+    <t>The relationship between investment and savings</t>
+  </si>
+  <si>
+    <t>The consumption function shows how consumption changes with income.</t>
+  </si>
+  <si>
+    <t>What does the marginal propensity to consume (MPC) represent?</t>
+  </si>
+  <si>
+    <t>The percentage of income saved</t>
+  </si>
+  <si>
+    <t>The percentage of income invested</t>
+  </si>
+  <si>
+    <t>The percentage of additional income spent on consumption</t>
+  </si>
+  <si>
+    <t>The percentage of income spent on taxes</t>
+  </si>
+  <si>
+    <t>MPC shows the proportion of additional income spent on consumption.</t>
+  </si>
+  <si>
+    <t>What does the saving function represent?</t>
+  </si>
+  <si>
+    <t>The relationship between investment and interest rates</t>
+  </si>
+  <si>
+    <t>The saving function shows how savings change with income.</t>
+  </si>
+  <si>
+    <t>What is the formula for the saving function?</t>
+  </si>
+  <si>
+    <t>S = C₀ + cY</t>
+  </si>
+  <si>
+    <t>S = S₀ + sY</t>
+  </si>
+  <si>
+    <t>S = C₀ + bY</t>
+  </si>
+  <si>
+    <t>S = S₀ + bY</t>
+  </si>
+  <si>
+    <t>The saving function is derived by adding autonomous savings and the marginal propensity to save times income.</t>
+  </si>
+  <si>
+    <t>What is the main effect of a lower interest rate on investment?</t>
+  </si>
+  <si>
+    <t>Increases investment</t>
+  </si>
+  <si>
+    <t>Decreases investment</t>
+  </si>
+  <si>
+    <t>Has no effect on investment</t>
+  </si>
+  <si>
+    <t>Decreases consumption</t>
+  </si>
+  <si>
+    <t>Lower interest rates make borrowing cheaper, thus encouraging more investment.</t>
+  </si>
+  <si>
+    <t>What does the investment function show?</t>
+  </si>
+  <si>
+    <t>The relationship between interest rates and investment</t>
+  </si>
+  <si>
+    <t>The relationship between interest rates and savings</t>
+  </si>
+  <si>
+    <t>The investment function shows how investment is affected by changes in interest rates.</t>
+  </si>
+  <si>
+    <t>What happens to consumption as income rises, according to the consumption function?</t>
+  </si>
+  <si>
+    <t>Consumption stays the same</t>
+  </si>
+  <si>
+    <t>Consumption increases at a decreasing rate</t>
+  </si>
+  <si>
+    <t>Consumption decreases</t>
+  </si>
+  <si>
+    <t>Consumption increases at an increasing rate</t>
+  </si>
+  <si>
+    <t>As income rises, consumption increases but at a diminishing rate.</t>
+  </si>
+  <si>
+    <t>How can the government increase national investment?</t>
+  </si>
+  <si>
+    <t>By increasing taxes</t>
+  </si>
+  <si>
+    <t>By raising interest rates</t>
+  </si>
+  <si>
+    <t>By lowering interest rates</t>
+  </si>
+  <si>
+    <t>By increasing consumption</t>
+  </si>
+  <si>
+    <t>Lower interest rates make borrowing cheaper and encourage businesses to invest.</t>
+  </si>
+  <si>
+    <t>Consumption, Saving and Investment</t>
+  </si>
+  <si>
+    <t>What happens at the equilibrium of national income?</t>
+  </si>
+  <si>
+    <t>Aggregate demand exceeds aggregate supply</t>
+  </si>
+  <si>
+    <t>Aggregate demand equals aggregate supply</t>
+  </si>
+  <si>
+    <t>Aggregate supply exceeds aggregate demand</t>
+  </si>
+  <si>
+    <t>There is a high level of government spending</t>
+  </si>
+  <si>
+    <t>At equilibrium, planned expenditure (AD) equals actual output (AS).</t>
+  </si>
+  <si>
+    <t>Which of the following is a component of aggregate demand?</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Export restrictions</t>
+  </si>
+  <si>
+    <t>Consumption is a part of aggregate demand, along with investment, government spending, and net exports.</t>
+  </si>
+  <si>
+    <t>What does the AS curve show?</t>
+  </si>
+  <si>
+    <t>Total demand at different price levels</t>
+  </si>
+  <si>
+    <t>The relationship between price level and quantity of output supplied</t>
+  </si>
+  <si>
+    <t>The government's spending policies</t>
+  </si>
+  <si>
+    <t>The total amount of imports</t>
+  </si>
+  <si>
+    <t>The AS curve shows the total output firms are willing to produce at different price levels.</t>
+  </si>
+  <si>
+    <t>How can the government influence equilibrium national income?</t>
+  </si>
+  <si>
+    <t>By increasing exports</t>
+  </si>
+  <si>
+    <t>By reducing the price level</t>
+  </si>
+  <si>
+    <t>By changing fiscal policy (e.g., spending or taxation)</t>
+  </si>
+  <si>
+    <t>By increasing the national debt</t>
+  </si>
+  <si>
+    <t>The government can use fiscal policy to affect aggregate demand and move the economy toward equilibrium.</t>
+  </si>
+  <si>
+    <t>What happens if aggregate demand exceeds aggregate supply?</t>
+  </si>
+  <si>
+    <t>There will be unemployment</t>
+  </si>
+  <si>
+    <t>Businesses will cut back on production</t>
+  </si>
+  <si>
+    <t>There will be inflationary pressure</t>
+  </si>
+  <si>
+    <t>National income will decrease</t>
+  </si>
+  <si>
+    <t>When demand exceeds supply, it leads to inflationary pressure as too much money chases too few goods.</t>
+  </si>
+  <si>
+    <t>What is the result of an increase in government spending in Pakistan?</t>
+  </si>
+  <si>
+    <t>Decrease in national income</t>
+  </si>
+  <si>
+    <t>Increase in unemployment</t>
+  </si>
+  <si>
+    <t>Increase in aggregate demand and national income</t>
+  </si>
+  <si>
+    <t>Decrease in exports</t>
+  </si>
+  <si>
+    <t>Increased government spending can boost aggregate demand and national income, especially in times of economic downturn.</t>
+  </si>
+  <si>
+    <t>At equilibrium, what happens to inventories?</t>
+  </si>
+  <si>
+    <t>Inventories increase</t>
+  </si>
+  <si>
+    <t>Inventories remain unchanged</t>
+  </si>
+  <si>
+    <t>Inventories decrease</t>
+  </si>
+  <si>
+    <t>Inventories are not affected</t>
+  </si>
+  <si>
+    <t>At equilibrium, the amount produced equals the amount demanded, so inventories stay the same.</t>
+  </si>
+  <si>
+    <t>What is the effect of reducing taxes on aggregate demand?</t>
+  </si>
+  <si>
+    <t>It decreases aggregate demand</t>
+  </si>
+  <si>
+    <t>It increases aggregate demand</t>
+  </si>
+  <si>
+    <t>It has no effect</t>
+  </si>
+  <si>
+    <t>It leads to a reduction in national income</t>
+  </si>
+  <si>
+    <t>Reducing taxes increases disposable income, which boosts consumption and aggregate demand.</t>
+  </si>
+  <si>
+    <t>equilibrium of national income</t>
+  </si>
+  <si>
+    <t>Fiscal and Monetary Policy</t>
+  </si>
+  <si>
+    <t>What is the primary tool of fiscal policy?</t>
+  </si>
+  <si>
+    <t>Taxation</t>
+  </si>
+  <si>
+    <t>Public Debt</t>
+  </si>
+  <si>
+    <t>Interest Rates</t>
+  </si>
+  <si>
+    <t>Taxation and Government Spending</t>
+  </si>
+  <si>
+    <t>Fiscal policy uses taxation and government spending to influence the economy.</t>
+  </si>
+  <si>
+    <t>What does expansionary fiscal policy aim to do?</t>
+  </si>
+  <si>
+    <t>Control inflation</t>
+  </si>
+  <si>
+    <t>Decrease national income</t>
+  </si>
+  <si>
+    <t>Stimulate economic activity</t>
+  </si>
+  <si>
+    <t>Reduce government spending</t>
+  </si>
+  <si>
+    <t>Expansionary fiscal policy aims to increase demand by raising government spending or cutting taxes.</t>
+  </si>
+  <si>
+    <t>Which of the following is a goal of fiscal policy?</t>
+  </si>
+  <si>
+    <t>Reduce government revenue</t>
+  </si>
+  <si>
+    <t>Promote unemployment</t>
+  </si>
+  <si>
+    <t>Encourage economic growth</t>
+  </si>
+  <si>
+    <t>Limit business investment</t>
+  </si>
+  <si>
+    <t>The goal of fiscal policy is to stabilize the economy by encouraging growth, full employment, and price stability.</t>
+  </si>
+  <si>
+    <t>What happens if the government increases taxes?</t>
+  </si>
+  <si>
+    <t>Aggregate demand increases</t>
+  </si>
+  <si>
+    <t>Aggregate demand decreases</t>
+  </si>
+  <si>
+    <t>Government debt increases</t>
+  </si>
+  <si>
+    <t>Investment increases</t>
+  </si>
+  <si>
+    <t>Higher taxes reduce disposable income, leading to a decrease in consumption and aggregate demand.</t>
+  </si>
+  <si>
+    <t>What is the effect of a fiscal deficit?</t>
+  </si>
+  <si>
+    <t>Lower national debt</t>
+  </si>
+  <si>
+    <t>Increased public borrowing</t>
+  </si>
+  <si>
+    <t>Decreased inflation</t>
+  </si>
+  <si>
+    <t>Increased tax revenue</t>
+  </si>
+  <si>
+    <t>A fiscal deficit occurs when the government spends more than it earns, leading to increased borrowing.</t>
+  </si>
+  <si>
+    <t>How did the Pakistan government respond to the COVID-19 pandemic?</t>
+  </si>
+  <si>
+    <t>By reducing government spending</t>
+  </si>
+  <si>
+    <t>By raising taxes significantly</t>
+  </si>
+  <si>
+    <t>By increasing fiscal stimulus through direct transfers and loans</t>
+  </si>
+  <si>
+    <t>By cutting taxes drastically</t>
+  </si>
+  <si>
+    <t>The Pakistani government used fiscal policy to mitigate the economic impact of the pandemic, offering financial assistance and stimulus packages.</t>
+  </si>
+  <si>
+    <t>What does contractionary fiscal policy aim to do?</t>
+  </si>
+  <si>
+    <t>Increase government debt</t>
+  </si>
+  <si>
+    <t>Increase aggregate demand</t>
+  </si>
+  <si>
+    <t>Reduce inflation and slow the economy</t>
+  </si>
+  <si>
+    <t>Encourage higher consumption</t>
+  </si>
+  <si>
+    <t>Contractionary fiscal policy aims to reduce aggregate demand by cutting government spending or raising taxes, reducing inflationary pressures.</t>
+  </si>
+  <si>
+    <t>What is public debt?</t>
+  </si>
+  <si>
+    <t>Government spending on infrastructure</t>
+  </si>
+  <si>
+    <t>The total tax revenue collected by the government</t>
+  </si>
+  <si>
+    <t>Borrowing by the government to finance its deficit</t>
+  </si>
+  <si>
+    <t>Government payments to foreign governments</t>
+  </si>
+  <si>
+    <t>Public debt arises when the government borrows to cover its fiscal deficit.</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +5528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3313,7 +5554,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7777,11 +10017,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C16CDD-8999-4874-AAD7-46BDB6D7E524}">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11540,7 +13780,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>811</v>
       </c>
@@ -11575,7 +13815,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>813</v>
       </c>
@@ -11610,7 +13850,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>815</v>
       </c>
@@ -11645,7 +13885,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>817</v>
       </c>
@@ -11680,7 +13920,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>819</v>
       </c>
@@ -11715,7 +13955,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="105" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>823</v>
       </c>
@@ -11728,7 +13968,7 @@
       <c r="E105" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" t="s">
         <v>822</v>
       </c>
       <c r="G105" s="2" t="s">
@@ -11750,7 +13990,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="106" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>829</v>
       </c>
@@ -11763,7 +14003,7 @@
       <c r="E106" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" t="s">
         <v>822</v>
       </c>
       <c r="G106" s="2" t="s">
@@ -11798,7 +14038,7 @@
       <c r="E107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" t="s">
         <v>822</v>
       </c>
       <c r="G107" s="2" t="s">
@@ -11833,7 +14073,7 @@
       <c r="E108" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" t="s">
         <v>822</v>
       </c>
       <c r="G108" s="2" t="s">
@@ -11868,7 +14108,7 @@
       <c r="E109" t="s">
         <v>14</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" t="s">
         <v>822</v>
       </c>
       <c r="G109" s="2" t="s">
@@ -11903,7 +14143,7 @@
       <c r="E110" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" t="s">
         <v>822</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -11938,7 +14178,7 @@
       <c r="E111" t="s">
         <v>14</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" t="s">
         <v>822</v>
       </c>
       <c r="G111" s="2" t="s">
@@ -11973,7 +14213,7 @@
       <c r="E112" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" t="s">
         <v>822</v>
       </c>
       <c r="G112" s="2" t="s">
@@ -12008,7 +14248,7 @@
       <c r="E113" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" t="s">
         <v>822</v>
       </c>
       <c r="G113" s="2" t="s">
@@ -12043,7 +14283,7 @@
       <c r="E114" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" t="s">
         <v>822</v>
       </c>
       <c r="G114" s="2" t="s">
@@ -12078,7 +14318,7 @@
       <c r="E115" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" t="s">
         <v>945</v>
       </c>
       <c r="G115" s="2">
@@ -12113,7 +14353,7 @@
       <c r="E116" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" t="s">
         <v>945</v>
       </c>
       <c r="G116" s="6">
@@ -12148,7 +14388,7 @@
       <c r="E117" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" t="s">
         <v>945</v>
       </c>
       <c r="G117" s="6">
@@ -12183,7 +14423,7 @@
       <c r="E118" t="s">
         <v>14</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" t="s">
         <v>945</v>
       </c>
       <c r="G118" s="6">
@@ -12218,7 +14458,7 @@
       <c r="E119" t="s">
         <v>14</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" t="s">
         <v>945</v>
       </c>
       <c r="G119" s="6">
@@ -12253,7 +14493,7 @@
       <c r="E120" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" t="s">
         <v>945</v>
       </c>
       <c r="G120" s="6">
@@ -12288,7 +14528,7 @@
       <c r="E121" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" t="s">
         <v>945</v>
       </c>
       <c r="G121" s="6">
@@ -12323,7 +14563,7 @@
       <c r="E122" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" t="s">
         <v>945</v>
       </c>
       <c r="G122" s="6">
@@ -12358,7 +14598,7 @@
       <c r="E123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" t="s">
         <v>945</v>
       </c>
       <c r="G123" s="2">
@@ -12393,7 +14633,7 @@
       <c r="E124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" t="s">
         <v>945</v>
       </c>
       <c r="G124" s="6">
@@ -12428,7 +14668,7 @@
       <c r="E125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" t="s">
         <v>945</v>
       </c>
       <c r="G125" s="6">
@@ -12463,7 +14703,7 @@
       <c r="E126" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" t="s">
         <v>945</v>
       </c>
       <c r="G126" s="6">
@@ -12498,7 +14738,7 @@
       <c r="E127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" t="s">
         <v>945</v>
       </c>
       <c r="G127" s="6">
@@ -12533,7 +14773,7 @@
       <c r="E128" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" t="s">
         <v>945</v>
       </c>
       <c r="G128" s="6">
@@ -12568,7 +14808,7 @@
       <c r="E129" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" t="s">
         <v>945</v>
       </c>
       <c r="G129" s="6">
@@ -12603,7 +14843,7 @@
       <c r="E130" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" t="s">
         <v>945</v>
       </c>
       <c r="G130" s="6">
@@ -12638,7 +14878,7 @@
       <c r="E131" t="s">
         <v>14</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" t="s">
         <v>945</v>
       </c>
       <c r="G131" s="6">
@@ -12673,7 +14913,7 @@
       <c r="E132" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" t="s">
         <v>945</v>
       </c>
       <c r="G132" s="6">
@@ -12708,7 +14948,7 @@
       <c r="E133" t="s">
         <v>14</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" t="s">
         <v>945</v>
       </c>
       <c r="G133" s="6">
@@ -12743,7 +14983,7 @@
       <c r="E134" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" t="s">
         <v>945</v>
       </c>
       <c r="G134" s="6">
@@ -12778,7 +15018,7 @@
       <c r="E135" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F135" t="s">
         <v>945</v>
       </c>
       <c r="G135" s="2">
@@ -12813,7 +15053,7 @@
       <c r="E136" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" t="s">
         <v>945</v>
       </c>
       <c r="G136" s="6">
@@ -12848,7 +15088,7 @@
       <c r="E137" t="s">
         <v>14</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" t="s">
         <v>946</v>
       </c>
       <c r="G137" s="2">
@@ -12883,7 +15123,7 @@
       <c r="E138" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" t="s">
         <v>946</v>
       </c>
       <c r="G138" s="2">
@@ -12918,7 +15158,7 @@
       <c r="E139" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" t="s">
         <v>946</v>
       </c>
       <c r="G139" s="2">
@@ -12953,7 +15193,7 @@
       <c r="E140" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" t="s">
         <v>946</v>
       </c>
       <c r="G140" s="2">
@@ -12988,7 +15228,7 @@
       <c r="E141" t="s">
         <v>14</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F141" t="s">
         <v>946</v>
       </c>
       <c r="G141" s="2">
@@ -13023,7 +15263,7 @@
       <c r="E142" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" t="s">
         <v>946</v>
       </c>
       <c r="G142" s="2">
@@ -13058,7 +15298,7 @@
       <c r="E143" t="s">
         <v>14</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" t="s">
         <v>946</v>
       </c>
       <c r="G143" s="2">
@@ -13093,7 +15333,7 @@
       <c r="E144" t="s">
         <v>14</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" t="s">
         <v>946</v>
       </c>
       <c r="G144" s="2">
@@ -13128,7 +15368,7 @@
       <c r="E145" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" t="s">
         <v>946</v>
       </c>
       <c r="G145" s="2">
@@ -13163,7 +15403,7 @@
       <c r="E146" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F146" t="s">
         <v>946</v>
       </c>
       <c r="G146" s="2">
@@ -13198,7 +15438,7 @@
       <c r="E147" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" t="s">
         <v>946</v>
       </c>
       <c r="G147" s="2">
@@ -13233,7 +15473,7 @@
       <c r="E148" t="s">
         <v>14</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" t="s">
         <v>946</v>
       </c>
       <c r="G148" s="2">
@@ -13268,7 +15508,7 @@
       <c r="E149" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" t="s">
         <v>946</v>
       </c>
       <c r="G149" s="2">
@@ -13303,7 +15543,7 @@
       <c r="E150" t="s">
         <v>14</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" t="s">
         <v>946</v>
       </c>
       <c r="G150" s="2">
@@ -13338,7 +15578,7 @@
       <c r="E151" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" t="s">
         <v>946</v>
       </c>
       <c r="G151" s="2">
@@ -13373,7 +15613,7 @@
       <c r="E152" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" t="s">
         <v>946</v>
       </c>
       <c r="G152" s="2">
@@ -13408,7 +15648,7 @@
       <c r="E153" t="s">
         <v>14</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" t="s">
         <v>946</v>
       </c>
       <c r="G153" s="2">
@@ -13443,7 +15683,7 @@
       <c r="E154" t="s">
         <v>14</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" t="s">
         <v>946</v>
       </c>
       <c r="G154" s="2">
@@ -13478,7 +15718,7 @@
       <c r="E155" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" t="s">
         <v>946</v>
       </c>
       <c r="G155" s="2">
@@ -13513,7 +15753,7 @@
       <c r="E156" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="F156" t="s">
         <v>946</v>
       </c>
       <c r="G156" s="2">
@@ -13548,7 +15788,7 @@
       <c r="E157" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" t="s">
         <v>946</v>
       </c>
       <c r="G157" s="2" t="s">
@@ -13583,7 +15823,7 @@
       <c r="E158" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="F158" t="s">
         <v>946</v>
       </c>
       <c r="G158" s="2" t="s">
@@ -13618,7 +15858,7 @@
       <c r="E159" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" t="s">
         <v>946</v>
       </c>
       <c r="G159" s="2" t="s">
@@ -13653,7 +15893,7 @@
       <c r="E160" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" t="s">
         <v>946</v>
       </c>
       <c r="G160" s="2" t="s">
@@ -13688,7 +15928,7 @@
       <c r="E161" t="s">
         <v>14</v>
       </c>
-      <c r="F161" s="11" t="s">
+      <c r="F161" t="s">
         <v>946</v>
       </c>
       <c r="G161" s="2" t="s">
@@ -13723,7 +15963,7 @@
       <c r="E162" t="s">
         <v>14</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" t="s">
         <v>946</v>
       </c>
       <c r="G162" s="2" t="s">
@@ -13758,7 +15998,7 @@
       <c r="E163" t="s">
         <v>14</v>
       </c>
-      <c r="F163" s="11" t="s">
+      <c r="F163" t="s">
         <v>946</v>
       </c>
       <c r="G163" s="2" t="s">
@@ -13793,7 +16033,7 @@
       <c r="E164" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="11" t="s">
+      <c r="F164" t="s">
         <v>946</v>
       </c>
       <c r="G164" s="2" t="s">
@@ -13828,7 +16068,7 @@
       <c r="E165" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="11" t="s">
+      <c r="F165" t="s">
         <v>946</v>
       </c>
       <c r="G165" s="2" t="s">
@@ -13863,7 +16103,7 @@
       <c r="E166" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="11" t="s">
+      <c r="F166" t="s">
         <v>946</v>
       </c>
       <c r="G166" s="2" t="s">
@@ -13898,7 +16138,7 @@
       <c r="E167" t="s">
         <v>14</v>
       </c>
-      <c r="F167" s="11" t="s">
+      <c r="F167" t="s">
         <v>946</v>
       </c>
       <c r="G167" s="2" t="s">
@@ -13933,7 +16173,7 @@
       <c r="E168" t="s">
         <v>14</v>
       </c>
-      <c r="F168" s="11" t="s">
+      <c r="F168" t="s">
         <v>946</v>
       </c>
       <c r="G168" s="2" t="s">
@@ -13968,7 +16208,7 @@
       <c r="E169" t="s">
         <v>14</v>
       </c>
-      <c r="F169" s="11" t="s">
+      <c r="F169" t="s">
         <v>946</v>
       </c>
       <c r="G169" s="2" t="s">
@@ -14003,7 +16243,7 @@
       <c r="E170" t="s">
         <v>14</v>
       </c>
-      <c r="F170" s="11" t="s">
+      <c r="F170" t="s">
         <v>946</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -14038,7 +16278,7 @@
       <c r="E171" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="11" t="s">
+      <c r="F171" t="s">
         <v>946</v>
       </c>
       <c r="G171" s="2" t="s">
@@ -14073,7 +16313,7 @@
       <c r="E172" t="s">
         <v>14</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" t="s">
         <v>946</v>
       </c>
       <c r="G172" s="2" t="s">
@@ -14108,7 +16348,7 @@
       <c r="E173" t="s">
         <v>14</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="F173" t="s">
         <v>946</v>
       </c>
       <c r="G173" s="2" t="s">
@@ -14143,7 +16383,7 @@
       <c r="E174" t="s">
         <v>14</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="F174" t="s">
         <v>946</v>
       </c>
       <c r="G174" s="2" t="s">
@@ -14178,7 +16418,7 @@
       <c r="E175" t="s">
         <v>14</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="F175" t="s">
         <v>946</v>
       </c>
       <c r="G175" s="2" t="s">
@@ -14213,7 +16453,7 @@
       <c r="E176" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="11" t="s">
+      <c r="F176" t="s">
         <v>946</v>
       </c>
       <c r="G176" s="2" t="s">
@@ -14248,7 +16488,7 @@
       <c r="E177" t="s">
         <v>14</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" t="s">
         <v>946</v>
       </c>
       <c r="G177" s="2" t="s">
@@ -14283,7 +16523,7 @@
       <c r="E178" t="s">
         <v>14</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F178" t="s">
         <v>946</v>
       </c>
       <c r="G178" s="2" t="s">
@@ -14303,6 +16543,4591 @@
       </c>
       <c r="L178" s="2" t="s">
         <v>1059</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>86</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>86</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C181">
+        <v>20</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>86</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C182">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>86</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>86</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>86</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>86</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>86</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>86</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>86</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C190">
+        <v>20</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>86</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C191">
+        <v>20</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>86</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C192">
+        <v>20</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>86</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C193">
+        <v>20</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>86</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C194">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>86</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C195">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" t="s">
+        <v>86</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C196">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>86</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C197">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" t="s">
+        <v>86</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" t="s">
+        <v>86</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" t="s">
+        <v>86</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" t="s">
+        <v>86</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C201">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="s">
+        <v>86</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C202">
+        <v>20</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>86</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>86</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>86</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C205">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>86</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C206">
+        <v>20</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>86</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>86</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>86</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C209">
+        <v>20</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>86</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C210">
+        <v>20</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>86</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C211">
+        <v>20</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>86</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C212">
+        <v>20</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>86</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>86</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C214">
+        <v>20</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>86</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C215">
+        <v>20</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>86</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C216">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" t="s">
+        <v>86</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L216" s="2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C217">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>86</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L217" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C218">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>86</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C219">
+        <v>20</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>86</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L219" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C220">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>86</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L220" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C221">
+        <v>20</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>86</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C222">
+        <v>20</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>86</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C223">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>86</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C224">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>86</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G224" s="2">
+        <v>15</v>
+      </c>
+      <c r="H224" s="2">
+        <v>20</v>
+      </c>
+      <c r="I224" s="2">
+        <v>10</v>
+      </c>
+      <c r="J224" s="2">
+        <v>25</v>
+      </c>
+      <c r="K224" s="2">
+        <v>15</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C225">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>86</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L225" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C226">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>86</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L226" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C227">
+        <v>20</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>86</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L227" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C228">
+        <v>20</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" t="s">
+        <v>86</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L228" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C229">
+        <v>20</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>86</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G229" s="2">
+        <v>40</v>
+      </c>
+      <c r="H229" s="2">
+        <v>20</v>
+      </c>
+      <c r="I229" s="2">
+        <v>30</v>
+      </c>
+      <c r="J229" s="2">
+        <v>50</v>
+      </c>
+      <c r="K229" s="2">
+        <v>40</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C230">
+        <v>20</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" t="s">
+        <v>86</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C231">
+        <v>20</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>86</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G232" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H232" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I232" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J232" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K232" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L232" s="2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C233">
+        <v>20</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>86</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L233" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C234">
+        <v>20</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" t="s">
+        <v>86</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C235">
+        <v>20</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>86</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C236">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>86</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K236" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L236" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>86</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C238">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>86</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L238" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C239">
+        <v>20</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>86</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L239" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C240">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" t="s">
+        <v>86</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L240" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>86</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L241" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C242">
+        <v>20</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>86</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K242" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L242" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C243">
+        <v>20</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>86</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L243" s="2" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C244">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" t="s">
+        <v>86</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K244" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L244" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C245">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" t="s">
+        <v>86</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L245" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>86</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L246" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C247">
+        <v>20</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" t="s">
+        <v>86</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L247" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C248">
+        <v>20</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>86</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C249">
+        <v>20</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>135</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L249" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C250">
+        <v>20</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" t="s">
+        <v>135</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L250" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C251">
+        <v>20</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>135</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L251" s="2" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C252">
+        <v>20</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>135</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L252" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C253">
+        <v>20</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>135</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K253" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L253" s="2" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C254">
+        <v>20</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>135</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L254" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>135</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K255" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L255" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C256">
+        <v>20</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>135</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L256" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C257">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>135</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C258">
+        <v>20</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>135</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L258" s="2" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C259">
+        <v>20</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>135</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L259" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C260">
+        <v>20</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>135</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L260" s="2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C261">
+        <v>20</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>135</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L261" s="2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C262">
+        <v>20</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="s">
+        <v>135</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C263">
+        <v>20</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" t="s">
+        <v>135</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L263" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C264">
+        <v>20</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>135</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C265">
+        <v>20</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>135</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C266">
+        <v>20</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" t="s">
+        <v>135</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K266" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L266" s="2" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C267">
+        <v>20</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>135</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="L267" s="2" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C268">
+        <v>20</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" t="s">
+        <v>135</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J268" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K268" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L268" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" t="s">
+        <v>135</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L269" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C270">
+        <v>20</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" t="s">
+        <v>135</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L270" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C271">
+        <v>20</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" t="s">
+        <v>135</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C272">
+        <v>20</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>135</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L272" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C273">
+        <v>20</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" t="s">
+        <v>135</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L273" s="2" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C274">
+        <v>20</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
+        <v>135</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L274" s="2" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C275">
+        <v>20</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" t="s">
+        <v>135</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K275" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L275" s="2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C276">
+        <v>20</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>135</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K276" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L276" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C277">
+        <v>20</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" t="s">
+        <v>135</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K277" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L277" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C278">
+        <v>20</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>135</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K278" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L278" s="2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C279">
+        <v>20</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>135</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C280">
+        <v>20</v>
+      </c>
+      <c r="D280" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" t="s">
+        <v>135</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K280" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L280" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C281">
+        <v>20</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>135</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K281" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L281" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B282" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C282">
+        <v>20</v>
+      </c>
+      <c r="D282" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" t="s">
+        <v>135</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K282" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L282" s="2" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C283">
+        <v>20</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>135</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L283" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B284" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C284">
+        <v>20</v>
+      </c>
+      <c r="D284" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>135</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C285">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>135</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C286">
+        <v>20</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>135</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C287">
+        <v>20</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>135</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C288">
+        <v>20</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>135</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C289">
+        <v>20</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>135</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C290">
+        <v>20</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>135</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J290" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L290" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C291">
+        <v>20</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>135</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K291" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L291" s="2" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C292">
+        <v>20</v>
+      </c>
+      <c r="D292" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>135</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L292" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C293">
+        <v>20</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>135</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K293" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C294">
+        <v>20</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>135</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="L294" s="2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C295">
+        <v>20</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>135</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C296">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" t="s">
+        <v>135</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C297">
+        <v>20</v>
+      </c>
+      <c r="D297" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>135</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C298">
+        <v>20</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>135</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K298" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="L298" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C299">
+        <v>20</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>135</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K299" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B300" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C300">
+        <v>20</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>135</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K300" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C301">
+        <v>20</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" t="s">
+        <v>135</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B302" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C302">
+        <v>20</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>135</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C303">
+        <v>20</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>135</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="L303" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B304" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C304">
+        <v>20</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" t="s">
+        <v>135</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K304" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B305" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C305">
+        <v>20</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>135</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L305" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B306" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C306">
+        <v>20</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>135</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L306" s="2" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C307">
+        <v>20</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>135</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L307" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C308">
+        <v>20</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>135</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L308" s="2" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C309">
+        <v>20</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>135</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
